--- a/LUSID Excel - Setting up your example funds.xlsx
+++ b/LUSID Excel - Setting up your example funds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GusSekhon\Dev\sample-excel\sample-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BB492A9-C93F-4F89-8D6F-8D24CDD31D2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8FE26-46C9-4E57-94A3-D41C22099210}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="798" xr2:uid="{AE1F34B8-DE16-4837-B47E-A2CAD3EC07DA}"/>
   </bookViews>
@@ -23,11 +23,16 @@
     <sheet name="Upload transactions" sheetId="4" r:id="rId8"/>
     <sheet name="Set holdings" sheetId="12" r:id="rId9"/>
     <sheet name="Create portfolio" sheetId="1" r:id="rId10"/>
-    <sheet name="Create portfolio group" sheetId="14" r:id="rId11"/>
+    <sheet name="Create portfolio group" sheetId="15" r:id="rId11"/>
     <sheet name="Inputs" sheetId="3" state="hidden" r:id="rId12"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId13"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="AsAtDate" localSheetId="10">#REF!</definedName>
     <definedName name="AsAtDate">'View portfolios'!$F$23</definedName>
+    <definedName name="EffectiveDate" localSheetId="10">#REF!</definedName>
     <definedName name="EffectiveDate">'View portfolios'!$F$21</definedName>
     <definedName name="fbnAggregationParameters_Template_ref" localSheetId="6">'Perform a reconciliation'!$O$37:$P$56</definedName>
     <definedName name="fbnAggregationParameters_Template_ref" localSheetId="4">'Run valuation'!$O$27:$P$29</definedName>
@@ -43,6 +48,7 @@
     <definedName name="fbnTradesAdd_Template_ref" localSheetId="5">'View transactions'!$E$67:$Q$67</definedName>
     <definedName name="fbnTransactionsAdd_Template_ref" localSheetId="7">'Upload transactions'!$E$38:$P$38</definedName>
     <definedName name="fbnTransactionsAdd_Template_ref" localSheetId="5">'Upload transactions'!$F$37:$Q$37</definedName>
+    <definedName name="Portfolio">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -60,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="373">
   <si>
     <t>Code</t>
   </si>
@@ -1799,1188 +1805,1184 @@
 <file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
-    <main first="rtdsrv.f6dec3807c894eaf8ee2ebcc03cc8a06">
+    <main first="rtdsrv.02e743a5eb834e56aa52ae65f274fba4">
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>70b55d5b-bcfb-475b-be2a-a927104ff6e0</stp>
-        <tr r="F48" s="14"/>
-        <tr r="G47" s="14"/>
-        <tr r="F47" s="14"/>
-        <tr r="I47" s="14"/>
-        <tr r="J48" s="14"/>
-        <tr r="G48" s="14"/>
-        <tr r="I48" s="14"/>
-        <tr r="J47" s="14"/>
-        <tr r="H48" s="14"/>
-        <tr r="H47" s="14"/>
-        <tr r="E47" s="14"/>
-        <tr r="E48" s="14"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6dec3807c894eaf8ee2ebcc03cc8a06">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>86be38e8-f2f6-4e70-b345-7481c47f448c</stp>
-        <tr r="E49" s="5"/>
-        <tr r="G54" s="5"/>
-        <tr r="F46" s="5"/>
-        <tr r="F51" s="5"/>
-        <tr r="H50" s="5"/>
-        <tr r="G52" s="5"/>
-        <tr r="E48" s="5"/>
-        <tr r="E54" s="5"/>
-        <tr r="F55" s="5"/>
-        <tr r="F47" s="5"/>
-        <tr r="F50" s="5"/>
-        <tr r="H52" s="5"/>
-        <tr r="H47" s="5"/>
-        <tr r="F49" s="5"/>
-        <tr r="E47" s="5"/>
-        <tr r="G47" s="5"/>
-        <tr r="H51" s="5"/>
-        <tr r="H55" s="5"/>
-        <tr r="G51" s="5"/>
-        <tr r="F52" s="5"/>
-        <tr r="H54" s="5"/>
-        <tr r="G49" s="5"/>
-        <tr r="E53" s="5"/>
-        <tr r="F53" s="5"/>
-        <tr r="E50" s="5"/>
-        <tr r="H49" s="5"/>
-        <tr r="G55" s="5"/>
-        <tr r="E52" s="5"/>
-        <tr r="G46" s="5"/>
-        <tr r="H48" s="5"/>
-        <tr r="G48" s="5"/>
-        <tr r="E51" s="5"/>
-        <tr r="F48" s="5"/>
-        <tr r="G50" s="5"/>
-        <tr r="G53" s="5"/>
-        <tr r="H46" s="5"/>
-        <tr r="H53" s="5"/>
-        <tr r="E55" s="5"/>
-        <tr r="F54" s="5"/>
-        <tr r="E46" s="5"/>
+        <stp>2ac893f2-ee55-4372-beaf-0c5a9f564035</stp>
+        <tr r="O46" s="13"/>
+        <tr r="G49" s="13"/>
+        <tr r="F42" s="13"/>
+        <tr r="L44" s="13"/>
+        <tr r="K47" s="13"/>
+        <tr r="M39" s="13"/>
+        <tr r="G42" s="13"/>
+        <tr r="H45" s="13"/>
+        <tr r="O48" s="13"/>
+        <tr r="F39" s="13"/>
+        <tr r="H40" s="13"/>
+        <tr r="N42" s="13"/>
+        <tr r="N49" s="13"/>
+        <tr r="H49" s="13"/>
+        <tr r="G39" s="13"/>
+        <tr r="L43" s="13"/>
+        <tr r="N47" s="13"/>
+        <tr r="I43" s="13"/>
+        <tr r="L45" s="13"/>
+        <tr r="M43" s="13"/>
+        <tr r="M44" s="13"/>
+        <tr r="L47" s="13"/>
+        <tr r="M41" s="13"/>
+        <tr r="I40" s="13"/>
+        <tr r="H48" s="13"/>
+        <tr r="G44" s="13"/>
+        <tr r="N43" s="13"/>
+        <tr r="L46" s="13"/>
+        <tr r="J49" s="13"/>
+        <tr r="K41" s="13"/>
+        <tr r="I47" s="13"/>
+        <tr r="E44" s="13"/>
+        <tr r="G40" s="13"/>
+        <tr r="J46" s="13"/>
+        <tr r="E45" s="13"/>
+        <tr r="K40" s="13"/>
+        <tr r="L42" s="13"/>
+        <tr r="F44" s="13"/>
+        <tr r="I48" s="13"/>
+        <tr r="E43" s="13"/>
+        <tr r="N44" s="13"/>
+        <tr r="K44" s="13"/>
+        <tr r="J39" s="13"/>
+        <tr r="M42" s="13"/>
+        <tr r="I46" s="13"/>
+        <tr r="L48" s="13"/>
+        <tr r="J47" s="13"/>
+        <tr r="J48" s="13"/>
+        <tr r="F40" s="13"/>
+        <tr r="J44" s="13"/>
+        <tr r="G47" s="13"/>
+        <tr r="M40" s="13"/>
+        <tr r="E47" s="13"/>
+        <tr r="N46" s="13"/>
+        <tr r="L40" s="13"/>
+        <tr r="K49" s="13"/>
+        <tr r="O39" s="13"/>
+        <tr r="M45" s="13"/>
+        <tr r="L39" s="13"/>
+        <tr r="G43" s="13"/>
+        <tr r="I49" s="13"/>
+        <tr r="O41" s="13"/>
+        <tr r="E46" s="13"/>
+        <tr r="H42" s="13"/>
+        <tr r="O42" s="13"/>
+        <tr r="O44" s="13"/>
+        <tr r="F43" s="13"/>
+        <tr r="I45" s="13"/>
+        <tr r="O49" s="13"/>
+        <tr r="F45" s="13"/>
+        <tr r="G48" s="13"/>
+        <tr r="I44" s="13"/>
+        <tr r="L49" s="13"/>
+        <tr r="E41" s="13"/>
+        <tr r="J41" s="13"/>
+        <tr r="H47" s="13"/>
+        <tr r="O43" s="13"/>
+        <tr r="M49" s="13"/>
+        <tr r="F48" s="13"/>
+        <tr r="H44" s="13"/>
+        <tr r="N48" s="13"/>
+        <tr r="K42" s="13"/>
+        <tr r="N45" s="13"/>
+        <tr r="L41" s="13"/>
+        <tr r="K45" s="13"/>
+        <tr r="F47" s="13"/>
+        <tr r="G46" s="13"/>
+        <tr r="K39" s="13"/>
+        <tr r="G41" s="13"/>
+        <tr r="J43" s="13"/>
+        <tr r="O47" s="13"/>
+        <tr r="M48" s="13"/>
+        <tr r="E39" s="13"/>
+        <tr r="N41" s="13"/>
+        <tr r="I42" s="13"/>
+        <tr r="I39" s="13"/>
+        <tr r="N40" s="13"/>
+        <tr r="K43" s="13"/>
+        <tr r="J45" s="13"/>
+        <tr r="J40" s="13"/>
+        <tr r="H39" s="13"/>
+        <tr r="F49" s="13"/>
+        <tr r="I41" s="13"/>
+        <tr r="E40" s="13"/>
+        <tr r="F41" s="13"/>
+        <tr r="H46" s="13"/>
+        <tr r="M47" s="13"/>
+        <tr r="E42" s="13"/>
+        <tr r="O40" s="13"/>
+        <tr r="H41" s="13"/>
+        <tr r="M46" s="13"/>
+        <tr r="H43" s="13"/>
+        <tr r="N39" s="13"/>
+        <tr r="F46" s="13"/>
+        <tr r="E48" s="13"/>
+        <tr r="E49" s="13"/>
+        <tr r="O45" s="13"/>
+        <tr r="K48" s="13"/>
+        <tr r="J42" s="13"/>
+        <tr r="G45" s="13"/>
+        <tr r="K46" s="13"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>d3ed57aa-6d3a-4b06-849b-cd9bc01f81c5</stp>
-        <tr r="AG35" s="6"/>
-        <tr r="K41" s="6"/>
-        <tr r="AD33" s="6"/>
-        <tr r="AF34" s="6"/>
-        <tr r="M51" s="6"/>
-        <tr r="Q39" s="6"/>
-        <tr r="AH49" s="6"/>
-        <tr r="O47" s="6"/>
-        <tr r="S50" s="6"/>
-        <tr r="G46" s="6"/>
-        <tr r="W52" s="6"/>
-        <tr r="AH51" s="6"/>
-        <tr r="O49" s="6"/>
-        <tr r="O45" s="6"/>
-        <tr r="AF47" s="6"/>
-        <tr r="S43" s="6"/>
-        <tr r="AC46" s="6"/>
-        <tr r="F44" s="6"/>
-        <tr r="N40" s="6"/>
-        <tr r="AA39" s="6"/>
-        <tr r="R35" s="6"/>
-        <tr r="U47" s="6"/>
-        <tr r="O44" s="6"/>
-        <tr r="M38" s="6"/>
-        <tr r="AG46" s="6"/>
-        <tr r="K50" s="6"/>
-        <tr r="G45" s="6"/>
-        <tr r="AA47" s="6"/>
-        <tr r="L40" s="6"/>
-        <tr r="AD39" s="6"/>
-        <tr r="S35" s="6"/>
-        <tr r="H36" s="6"/>
-        <tr r="S39" s="6"/>
-        <tr r="AG43" s="6"/>
-        <tr r="I52" s="6"/>
-        <tr r="Y37" s="6"/>
-        <tr r="Y35" s="6"/>
-        <tr r="AG33" s="6"/>
-        <tr r="AB42" s="6"/>
-        <tr r="AE35" s="6"/>
-        <tr r="E33" s="6"/>
-        <tr r="T45" s="6"/>
-        <tr r="H37" s="6"/>
-        <tr r="AH48" s="6"/>
-        <tr r="J39" s="6"/>
-        <tr r="AB49" s="6"/>
-        <tr r="T37" s="6"/>
-        <tr r="T33" s="6"/>
-        <tr r="N47" s="6"/>
-        <tr r="G33" s="6"/>
-        <tr r="Q49" s="6"/>
-        <tr r="Z34" s="6"/>
-        <tr r="L35" s="6"/>
-        <tr r="U40" s="6"/>
-        <tr r="V37" s="6"/>
-        <tr r="E48" s="6"/>
-        <tr r="N50" s="6"/>
-        <tr r="F40" s="6"/>
-        <tr r="Q48" s="6"/>
-        <tr r="R38" s="6"/>
-        <tr r="L45" s="6"/>
-        <tr r="AG47" s="6"/>
-        <tr r="Q38" s="6"/>
-        <tr r="O43" s="6"/>
-        <tr r="T52" s="6"/>
-        <tr r="AD49" s="6"/>
-        <tr r="AE40" s="6"/>
-        <tr r="I44" s="6"/>
-        <tr r="N35" s="6"/>
-        <tr r="Z46" s="6"/>
-        <tr r="K46" s="6"/>
-        <tr r="Z50" s="6"/>
-        <tr r="AC44" s="6"/>
-        <tr r="G39" s="6"/>
-        <tr r="U45" s="6"/>
-        <tr r="S44" s="6"/>
-        <tr r="V52" s="6"/>
-        <tr r="I34" s="6"/>
-        <tr r="Z33" s="6"/>
-        <tr r="AF42" s="6"/>
-        <tr r="AE45" s="6"/>
-        <tr r="Q40" s="6"/>
-        <tr r="W36" s="6"/>
-        <tr r="Y42" s="6"/>
-        <tr r="L37" s="6"/>
-        <tr r="L42" s="6"/>
-        <tr r="AA50" s="6"/>
-        <tr r="AF44" s="6"/>
-        <tr r="X45" s="6"/>
-        <tr r="AG45" s="6"/>
-        <tr r="AF33" s="6"/>
-        <tr r="G44" s="6"/>
-        <tr r="L39" s="6"/>
-        <tr r="K47" s="6"/>
-        <tr r="AD35" s="6"/>
-        <tr r="R33" s="6"/>
-        <tr r="W43" s="6"/>
-        <tr r="AE48" s="6"/>
-        <tr r="X41" s="6"/>
-        <tr r="R37" s="6"/>
-        <tr r="P49" s="6"/>
-        <tr r="AG34" s="6"/>
-        <tr r="O40" s="6"/>
-        <tr r="Q43" s="6"/>
-        <tr r="AH36" s="6"/>
-        <tr r="Q33" s="6"/>
-        <tr r="X46" s="6"/>
-        <tr r="L41" s="6"/>
-        <tr r="M40" s="6"/>
-        <tr r="P39" s="6"/>
-        <tr r="O39" s="6"/>
-        <tr r="AE46" s="6"/>
-        <tr r="R52" s="6"/>
-        <tr r="F35" s="6"/>
-        <tr r="N41" s="6"/>
-        <tr r="T39" s="6"/>
-        <tr r="N33" s="6"/>
-        <tr r="R44" s="6"/>
-        <tr r="P45" s="6"/>
-        <tr r="S36" s="6"/>
-        <tr r="Q45" s="6"/>
-        <tr r="M39" s="6"/>
-        <tr r="P38" s="6"/>
-        <tr r="G34" s="6"/>
-        <tr r="AD42" s="6"/>
-        <tr r="O36" s="6"/>
-        <tr r="AC45" s="6"/>
-        <tr r="Q42" s="6"/>
-        <tr r="Y33" s="6"/>
-        <tr r="R34" s="6"/>
-        <tr r="AA52" s="6"/>
-        <tr r="H52" s="6"/>
-        <tr r="H39" s="6"/>
-        <tr r="Z47" s="6"/>
-        <tr r="U33" s="6"/>
-        <tr r="Y41" s="6"/>
-        <tr r="E42" s="6"/>
-        <tr r="W45" s="6"/>
-        <tr r="M44" s="6"/>
-        <tr r="I37" s="6"/>
-        <tr r="E39" s="6"/>
-        <tr r="Q34" s="6"/>
-        <tr r="P47" s="6"/>
-        <tr r="AG51" s="6"/>
-        <tr r="W35" s="6"/>
-        <tr r="X51" s="6"/>
-        <tr r="P42" s="6"/>
-        <tr r="P40" s="6"/>
-        <tr r="R36" s="6"/>
-        <tr r="T43" s="6"/>
-        <tr r="AF39" s="6"/>
-        <tr r="G47" s="6"/>
-        <tr r="AD52" s="6"/>
-        <tr r="F48" s="6"/>
-        <tr r="AF35" s="6"/>
-        <tr r="N51" s="6"/>
-        <tr r="G52" s="6"/>
-        <tr r="Y34" s="6"/>
-        <tr r="L50" s="6"/>
-        <tr r="AF45" s="6"/>
-        <tr r="U48" s="6"/>
-        <tr r="M41" s="6"/>
-        <tr r="AF41" s="6"/>
-        <tr r="R39" s="6"/>
-        <tr r="H47" s="6"/>
-        <tr r="AA41" s="6"/>
-        <tr r="Q36" s="6"/>
-        <tr r="J47" s="6"/>
-        <tr r="M52" s="6"/>
-        <tr r="AE34" s="6"/>
-        <tr r="I39" s="6"/>
-        <tr r="F51" s="6"/>
-        <tr r="F42" s="6"/>
-        <tr r="AH39" s="6"/>
-        <tr r="AE43" s="6"/>
-        <tr r="X37" s="6"/>
-        <tr r="V35" s="6"/>
-        <tr r="I33" s="6"/>
-        <tr r="O46" s="6"/>
-        <tr r="E52" s="6"/>
-        <tr r="L34" s="6"/>
-        <tr r="AB34" s="6"/>
-        <tr r="Y46" s="6"/>
-        <tr r="AG48" s="6"/>
-        <tr r="AG42" s="6"/>
-        <tr r="AF49" s="6"/>
-        <tr r="S46" s="6"/>
-        <tr r="AH50" s="6"/>
-        <tr r="E47" s="6"/>
-        <tr r="T48" s="6"/>
-        <tr r="N38" s="6"/>
-        <tr r="G41" s="6"/>
-        <tr r="V50" s="6"/>
-        <tr r="K35" s="6"/>
-        <tr r="W38" s="6"/>
-        <tr r="V33" s="6"/>
-        <tr r="S42" s="6"/>
-        <tr r="Q44" s="6"/>
-        <tr r="H50" s="6"/>
-        <tr r="W44" s="6"/>
-        <tr r="H49" s="6"/>
-        <tr r="O35" s="6"/>
-        <tr r="S33" s="6"/>
-        <tr r="AE51" s="6"/>
-        <tr r="L43" s="6"/>
-        <tr r="W50" s="6"/>
-        <tr r="I42" s="6"/>
-        <tr r="W46" s="6"/>
-        <tr r="Z36" s="6"/>
-        <tr r="AC35" s="6"/>
-        <tr r="R51" s="6"/>
-        <tr r="U42" s="6"/>
-        <tr r="G42" s="6"/>
-        <tr r="F49" s="6"/>
-        <tr r="E50" s="6"/>
-        <tr r="P43" s="6"/>
-        <tr r="S52" s="6"/>
-        <tr r="W39" s="6"/>
-        <tr r="V46" s="6"/>
-        <tr r="I49" s="6"/>
-        <tr r="AE37" s="6"/>
-        <tr r="H48" s="6"/>
-        <tr r="T34" s="6"/>
-        <tr r="AD41" s="6"/>
-        <tr r="L33" s="6"/>
-        <tr r="N44" s="6"/>
-        <tr r="U44" s="6"/>
-        <tr r="K34" s="6"/>
-        <tr r="U36" s="6"/>
-        <tr r="AG36" s="6"/>
-        <tr r="J50" s="6"/>
-        <tr r="N34" s="6"/>
-        <tr r="AD34" s="6"/>
-        <tr r="AA48" s="6"/>
-        <tr r="AG40" s="6"/>
-        <tr r="P52" s="6"/>
-        <tr r="F33" s="6"/>
-        <tr r="O37" s="6"/>
-        <tr r="AH38" s="6"/>
-        <tr r="S45" s="6"/>
-        <tr r="X43" s="6"/>
-        <tr r="R42" s="6"/>
-        <tr r="Z44" s="6"/>
-        <tr r="AB33" s="6"/>
-        <tr r="K51" s="6"/>
-        <tr r="AA45" s="6"/>
-        <tr r="J34" s="6"/>
-        <tr r="E45" s="6"/>
-        <tr r="M46" s="6"/>
-        <tr r="W40" s="6"/>
-        <tr r="O33" s="6"/>
-        <tr r="V44" s="6"/>
-        <tr r="AB46" s="6"/>
-        <tr r="H42" s="6"/>
-        <tr r="L48" s="6"/>
-        <tr r="X34" s="6"/>
-        <tr r="AB52" s="6"/>
-        <tr r="Q52" s="6"/>
-        <tr r="V36" s="6"/>
-        <tr r="AE33" s="6"/>
-        <tr r="F41" s="6"/>
-        <tr r="Z37" s="6"/>
-        <tr r="N36" s="6"/>
-        <tr r="AF38" s="6"/>
-        <tr r="G37" s="6"/>
-        <tr r="S47" s="6"/>
-        <tr r="Z40" s="6"/>
-        <tr r="AH33" s="6"/>
-        <tr r="M36" s="6"/>
-        <tr r="X38" s="6"/>
-        <tr r="F50" s="6"/>
-        <tr r="L47" s="6"/>
-        <tr r="T49" s="6"/>
-        <tr r="G36" s="6"/>
-        <tr r="O50" s="6"/>
-        <tr r="Z38" s="6"/>
-        <tr r="F46" s="6"/>
-        <tr r="J44" s="6"/>
-        <tr r="M35" s="6"/>
-        <tr r="AH40" s="6"/>
-        <tr r="F43" s="6"/>
-        <tr r="AF46" s="6"/>
-        <tr r="Y45" s="6"/>
-        <tr r="AA44" s="6"/>
-        <tr r="L38" s="6"/>
-        <tr r="I35" s="6"/>
-        <tr r="AE36" s="6"/>
-        <tr r="P34" s="6"/>
-        <tr r="X35" s="6"/>
-        <tr r="G35" s="6"/>
-        <tr r="S37" s="6"/>
-        <tr r="T50" s="6"/>
-        <tr r="AC51" s="6"/>
-        <tr r="P41" s="6"/>
-        <tr r="K40" s="6"/>
-        <tr r="J51" s="6"/>
-        <tr r="R43" s="6"/>
-        <tr r="T36" s="6"/>
-        <tr r="X36" s="6"/>
-        <tr r="Q51" s="6"/>
-        <tr r="V43" s="6"/>
-        <tr r="AD40" s="6"/>
-        <tr r="H51" s="6"/>
-        <tr r="Y38" s="6"/>
-        <tr r="Q37" s="6"/>
-        <tr r="R45" s="6"/>
-        <tr r="J48" s="6"/>
-        <tr r="V51" s="6"/>
-        <tr r="T35" s="6"/>
-        <tr r="O51" s="6"/>
-        <tr r="R41" s="6"/>
-        <tr r="W42" s="6"/>
-        <tr r="L52" s="6"/>
-        <tr r="E36" s="6"/>
-        <tr r="P48" s="6"/>
-        <tr r="AH46" s="6"/>
-        <tr r="Z41" s="6"/>
-        <tr r="U37" s="6"/>
-        <tr r="K44" s="6"/>
-        <tr r="AF51" s="6"/>
-        <tr r="N42" s="6"/>
-        <tr r="AE52" s="6"/>
-        <tr r="V40" s="6"/>
-        <tr r="AE44" s="6"/>
-        <tr r="S41" s="6"/>
-        <tr r="T40" s="6"/>
-        <tr r="T41" s="6"/>
-        <tr r="AH34" s="6"/>
-        <tr r="AG44" s="6"/>
-        <tr r="H35" s="6"/>
-        <tr r="K39" s="6"/>
-        <tr r="AG52" s="6"/>
-        <tr r="T44" s="6"/>
-        <tr r="AH47" s="6"/>
-        <tr r="M43" s="6"/>
-        <tr r="AF43" s="6"/>
-        <tr r="AA36" s="6"/>
-        <tr r="AF36" s="6"/>
-        <tr r="U46" s="6"/>
-        <tr r="Y47" s="6"/>
-        <tr r="Q50" s="6"/>
-        <tr r="Q41" s="6"/>
-        <tr r="J36" s="6"/>
-        <tr r="R50" s="6"/>
-        <tr r="P33" s="6"/>
-        <tr r="U41" s="6"/>
-        <tr r="AC39" s="6"/>
-        <tr r="I38" s="6"/>
-        <tr r="I46" s="6"/>
-        <tr r="AG37" s="6"/>
-        <tr r="L49" s="6"/>
-        <tr r="AC34" s="6"/>
-        <tr r="AB39" s="6"/>
-        <tr r="M45" s="6"/>
-        <tr r="X49" s="6"/>
-        <tr r="U50" s="6"/>
-        <tr r="J52" s="6"/>
-        <tr r="Y40" s="6"/>
-        <tr r="K36" s="6"/>
-        <tr r="M33" s="6"/>
-        <tr r="E35" s="6"/>
-        <tr r="V47" s="6"/>
-        <tr r="AH43" s="6"/>
-        <tr r="V38" s="6"/>
-        <tr r="E43" s="6"/>
-        <tr r="N52" s="6"/>
-        <tr r="AE47" s="6"/>
-        <tr r="N48" s="6"/>
-        <tr r="J40" s="6"/>
-        <tr r="X42" s="6"/>
-        <tr r="F39" s="6"/>
-        <tr r="M49" s="6"/>
-        <tr r="Y44" s="6"/>
-        <tr r="Y36" s="6"/>
-        <tr r="S48" s="6"/>
-        <tr r="AD38" s="6"/>
-        <tr r="H43" s="6"/>
-        <tr r="AH35" s="6"/>
-        <tr r="G50" s="6"/>
-        <tr r="G38" s="6"/>
-        <tr r="AC49" s="6"/>
-        <tr r="O34" s="6"/>
-        <tr r="Z35" s="6"/>
-        <tr r="U49" s="6"/>
-        <tr r="W48" s="6"/>
-        <tr r="P36" s="6"/>
-        <tr r="AE49" s="6"/>
-        <tr r="AA46" s="6"/>
-        <tr r="AC47" s="6"/>
-        <tr r="K48" s="6"/>
-        <tr r="K43" s="6"/>
-        <tr r="L36" s="6"/>
-        <tr r="AC36" s="6"/>
-        <tr r="S49" s="6"/>
-        <tr r="I43" s="6"/>
-        <tr r="Q46" s="6"/>
-        <tr r="Z42" s="6"/>
-        <tr r="O52" s="6"/>
-        <tr r="J45" s="6"/>
-        <tr r="AB37" s="6"/>
-        <tr r="F45" s="6"/>
-        <tr r="P46" s="6"/>
-        <tr r="F37" s="6"/>
-        <tr r="U34" s="6"/>
-        <tr r="H45" s="6"/>
-        <tr r="Y39" s="6"/>
-        <tr r="S40" s="6"/>
-        <tr r="R48" s="6"/>
-        <tr r="J33" s="6"/>
-        <tr r="E46" s="6"/>
-        <tr r="V45" s="6"/>
-        <tr r="X39" s="6"/>
-        <tr r="AC33" s="6"/>
-        <tr r="AE42" s="6"/>
-        <tr r="K45" s="6"/>
-        <tr r="N46" s="6"/>
-        <tr r="X50" s="6"/>
-        <tr r="U52" s="6"/>
-        <tr r="AC38" s="6"/>
-        <tr r="AG41" s="6"/>
-        <tr r="AF40" s="6"/>
-        <tr r="U39" s="6"/>
-        <tr r="F47" s="6"/>
-        <tr r="AC37" s="6"/>
-        <tr r="O48" s="6"/>
-        <tr r="I48" s="6"/>
-        <tr r="K52" s="6"/>
-        <tr r="N45" s="6"/>
-        <tr r="AH44" s="6"/>
-        <tr r="AA38" s="6"/>
-        <tr r="I45" s="6"/>
-        <tr r="AC48" s="6"/>
-        <tr r="AH42" s="6"/>
-        <tr r="Z49" s="6"/>
-        <tr r="U43" s="6"/>
-        <tr r="E37" s="6"/>
-        <tr r="Z45" s="6"/>
-        <tr r="X47" s="6"/>
-        <tr r="J49" s="6"/>
-        <tr r="U51" s="6"/>
-        <tr r="E41" s="6"/>
-        <tr r="AA34" s="6"/>
-        <tr r="AD37" s="6"/>
-        <tr r="L44" s="6"/>
-        <tr r="AD50" s="6"/>
-        <tr r="AE41" s="6"/>
-        <tr r="W33" s="6"/>
-        <tr r="AB45" s="6"/>
-        <tr r="I36" s="6"/>
-        <tr r="AE39" s="6"/>
-        <tr r="AF50" s="6"/>
-        <tr r="Y48" s="6"/>
-        <tr r="AG39" s="6"/>
-        <tr r="AC52" s="6"/>
-        <tr r="AD47" s="6"/>
-        <tr r="AA49" s="6"/>
-        <tr r="AB51" s="6"/>
-        <tr r="I50" s="6"/>
-        <tr r="F36" s="6"/>
-        <tr r="V34" s="6"/>
-        <tr r="AC41" s="6"/>
-        <tr r="S34" s="6"/>
-        <tr r="V48" s="6"/>
-        <tr r="Y51" s="6"/>
-        <tr r="AD36" s="6"/>
-        <tr r="E34" s="6"/>
-        <tr r="H44" s="6"/>
-        <tr r="X44" s="6"/>
-        <tr r="H38" s="6"/>
-        <tr r="J43" s="6"/>
-        <tr r="AA40" s="6"/>
-        <tr r="AH41" s="6"/>
-        <tr r="AD48" s="6"/>
-        <tr r="AG50" s="6"/>
-        <tr r="W47" s="6"/>
-        <tr r="R47" s="6"/>
-        <tr r="W34" s="6"/>
-        <tr r="AC43" s="6"/>
-        <tr r="T42" s="6"/>
-        <tr r="Z51" s="6"/>
-        <tr r="K38" s="6"/>
-        <tr r="AB38" s="6"/>
-        <tr r="Z43" s="6"/>
-        <tr r="H40" s="6"/>
-        <tr r="T38" s="6"/>
-        <tr r="W49" s="6"/>
-        <tr r="K49" s="6"/>
-        <tr r="Z48" s="6"/>
-        <tr r="N49" s="6"/>
-        <tr r="H41" s="6"/>
-        <tr r="K33" s="6"/>
-        <tr r="E38" s="6"/>
-        <tr r="P35" s="6"/>
-        <tr r="U35" s="6"/>
-        <tr r="AB41" s="6"/>
-        <tr r="X33" s="6"/>
-        <tr r="J38" s="6"/>
-        <tr r="V42" s="6"/>
-        <tr r="O41" s="6"/>
-        <tr r="X52" s="6"/>
-        <tr r="Q35" s="6"/>
-        <tr r="Z39" s="6"/>
-        <tr r="Y43" s="6"/>
-        <tr r="AA35" s="6"/>
-        <tr r="AH45" s="6"/>
-        <tr r="AD43" s="6"/>
-        <tr r="AB47" s="6"/>
-        <tr r="R46" s="6"/>
-        <tr r="U38" s="6"/>
-        <tr r="AF37" s="6"/>
-        <tr r="Y49" s="6"/>
-        <tr r="E40" s="6"/>
-        <tr r="R40" s="6"/>
-        <tr r="AC40" s="6"/>
-        <tr r="AD46" s="6"/>
-        <tr r="M42" s="6"/>
-        <tr r="AA33" s="6"/>
-        <tr r="F52" s="6"/>
-        <tr r="F38" s="6"/>
-        <tr r="O42" s="6"/>
-        <tr r="M34" s="6"/>
-        <tr r="W37" s="6"/>
-        <tr r="X48" s="6"/>
-        <tr r="AB48" s="6"/>
-        <tr r="AC42" s="6"/>
-        <tr r="W51" s="6"/>
-        <tr r="AB40" s="6"/>
-        <tr r="H34" s="6"/>
-        <tr r="I47" s="6"/>
-        <tr r="N43" s="6"/>
-        <tr r="AF52" s="6"/>
-        <tr r="K37" s="6"/>
-        <tr r="G40" s="6"/>
-        <tr r="F34" s="6"/>
-        <tr r="J42" s="6"/>
-        <tr r="Z52" s="6"/>
-        <tr r="J46" s="6"/>
-        <tr r="G43" s="6"/>
-        <tr r="V49" s="6"/>
-        <tr r="N37" s="6"/>
-        <tr r="I51" s="6"/>
-        <tr r="G48" s="6"/>
-        <tr r="AH37" s="6"/>
-        <tr r="T47" s="6"/>
-        <tr r="AD44" s="6"/>
-        <tr r="R49" s="6"/>
-        <tr r="AB36" s="6"/>
-        <tr r="AC50" s="6"/>
-        <tr r="W41" s="6"/>
-        <tr r="AG38" s="6"/>
-        <tr r="AA43" s="6"/>
-        <tr r="E44" s="6"/>
-        <tr r="AH52" s="6"/>
-        <tr r="M50" s="6"/>
-        <tr r="Q47" s="6"/>
-        <tr r="J37" s="6"/>
-        <tr r="N39" s="6"/>
-        <tr r="AG49" s="6"/>
-        <tr r="L51" s="6"/>
-        <tr r="E51" s="6"/>
-        <tr r="V39" s="6"/>
-        <tr r="AB44" s="6"/>
-        <tr r="AD45" s="6"/>
-        <tr r="H46" s="6"/>
-        <tr r="J41" s="6"/>
-        <tr r="Y50" s="6"/>
-        <tr r="M37" s="6"/>
-        <tr r="T46" s="6"/>
-        <tr r="X40" s="6"/>
-        <tr r="I41" s="6"/>
-        <tr r="J35" s="6"/>
-        <tr r="AA51" s="6"/>
-        <tr r="K42" s="6"/>
-        <tr r="H33" s="6"/>
-        <tr r="G51" s="6"/>
-        <tr r="AB35" s="6"/>
-        <tr r="P50" s="6"/>
-        <tr r="P44" s="6"/>
-        <tr r="AE38" s="6"/>
-        <tr r="AE50" s="6"/>
-        <tr r="AA37" s="6"/>
-        <tr r="V41" s="6"/>
-        <tr r="Y52" s="6"/>
-        <tr r="T51" s="6"/>
-        <tr r="AB50" s="6"/>
-        <tr r="AD51" s="6"/>
-        <tr r="AF48" s="6"/>
-        <tr r="S51" s="6"/>
-        <tr r="AB43" s="6"/>
-        <tr r="AA42" s="6"/>
-        <tr r="S38" s="6"/>
-        <tr r="O38" s="6"/>
-        <tr r="M47" s="6"/>
-        <tr r="M48" s="6"/>
-        <tr r="E49" s="6"/>
-        <tr r="P51" s="6"/>
-        <tr r="I40" s="6"/>
-        <tr r="G49" s="6"/>
-        <tr r="P37" s="6"/>
-        <tr r="L46" s="6"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6dec3807c894eaf8ee2ebcc03cc8a06">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>1f2a5795-f80b-4576-9b6d-f10b1f306403</stp>
-        <tr r="G47" s="13"/>
-        <tr r="M40" s="13"/>
-        <tr r="F45" s="13"/>
-        <tr r="G41" s="13"/>
-        <tr r="H46" s="13"/>
-        <tr r="M39" s="13"/>
-        <tr r="L41" s="13"/>
-        <tr r="M41" s="13"/>
-        <tr r="G40" s="13"/>
-        <tr r="E47" s="13"/>
-        <tr r="K39" s="13"/>
-        <tr r="J43" s="13"/>
-        <tr r="F42" s="13"/>
-        <tr r="G42" s="13"/>
-        <tr r="E40" s="13"/>
-        <tr r="F47" s="13"/>
-        <tr r="J46" s="13"/>
-        <tr r="N46" s="13"/>
-        <tr r="G48" s="13"/>
-        <tr r="O47" s="13"/>
-        <tr r="M47" s="13"/>
-        <tr r="H45" s="13"/>
-        <tr r="M43" s="13"/>
-        <tr r="I47" s="13"/>
-        <tr r="E45" s="13"/>
-        <tr r="L40" s="13"/>
-        <tr r="I44" s="13"/>
-        <tr r="M48" s="13"/>
-        <tr r="L44" s="13"/>
-        <tr r="O48" s="13"/>
-        <tr r="F43" s="13"/>
-        <tr r="I40" s="13"/>
-        <tr r="K40" s="13"/>
-        <tr r="K49" s="13"/>
-        <tr r="L49" s="13"/>
-        <tr r="E39" s="13"/>
-        <tr r="E42" s="13"/>
-        <tr r="F39" s="13"/>
-        <tr r="J47" s="13"/>
-        <tr r="F40" s="13"/>
-        <tr r="L42" s="13"/>
-        <tr r="O39" s="13"/>
-        <tr r="E41" s="13"/>
-        <tr r="N41" s="13"/>
-        <tr r="K47" s="13"/>
-        <tr r="H40" s="13"/>
-        <tr r="O46" s="13"/>
-        <tr r="O49" s="13"/>
-        <tr r="F44" s="13"/>
-        <tr r="M45" s="13"/>
-        <tr r="J41" s="13"/>
-        <tr r="I42" s="13"/>
-        <tr r="O40" s="13"/>
-        <tr r="N42" s="13"/>
-        <tr r="F41" s="13"/>
-        <tr r="G46" s="13"/>
-        <tr r="I48" s="13"/>
-        <tr r="L39" s="13"/>
-        <tr r="H47" s="13"/>
-        <tr r="I39" s="13"/>
-        <tr r="H41" s="13"/>
-        <tr r="N49" s="13"/>
-        <tr r="M44" s="13"/>
-        <tr r="H48" s="13"/>
-        <tr r="E43" s="13"/>
-        <tr r="G43" s="13"/>
-        <tr r="O43" s="13"/>
-        <tr r="N40" s="13"/>
-        <tr r="M46" s="13"/>
-        <tr r="H49" s="13"/>
-        <tr r="K45" s="13"/>
-        <tr r="E44" s="13"/>
-        <tr r="N44" s="13"/>
-        <tr r="I49" s="13"/>
-        <tr r="M49" s="13"/>
-        <tr r="K43" s="13"/>
-        <tr r="H43" s="13"/>
-        <tr r="G39" s="13"/>
-        <tr r="K41" s="13"/>
-        <tr r="G44" s="13"/>
-        <tr r="K44" s="13"/>
-        <tr r="O45" s="13"/>
-        <tr r="O41" s="13"/>
-        <tr r="F48" s="13"/>
-        <tr r="J45" s="13"/>
-        <tr r="N39" s="13"/>
-        <tr r="L43" s="13"/>
-        <tr r="J48" s="13"/>
-        <tr r="J44" s="13"/>
-        <tr r="K48" s="13"/>
-        <tr r="J39" s="13"/>
-        <tr r="E46" s="13"/>
-        <tr r="H44" s="13"/>
-        <tr r="J40" s="13"/>
-        <tr r="F46" s="13"/>
-        <tr r="N47" s="13"/>
-        <tr r="G49" s="13"/>
-        <tr r="J42" s="13"/>
-        <tr r="N43" s="13"/>
-        <tr r="M42" s="13"/>
-        <tr r="H42" s="13"/>
-        <tr r="N48" s="13"/>
-        <tr r="H39" s="13"/>
-        <tr r="E48" s="13"/>
-        <tr r="I43" s="13"/>
-        <tr r="G45" s="13"/>
-        <tr r="I45" s="13"/>
-        <tr r="L46" s="13"/>
-        <tr r="I46" s="13"/>
-        <tr r="O42" s="13"/>
-        <tr r="K42" s="13"/>
-        <tr r="F49" s="13"/>
-        <tr r="E49" s="13"/>
-        <tr r="K46" s="13"/>
-        <tr r="L45" s="13"/>
-        <tr r="L47" s="13"/>
-        <tr r="J49" s="13"/>
-        <tr r="L48" s="13"/>
-        <tr r="O44" s="13"/>
-        <tr r="N45" s="13"/>
-        <tr r="I41" s="13"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6dec3807c894eaf8ee2ebcc03cc8a06">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>c38eff24-bb4e-4bdb-b708-988313944ed3</stp>
-        <tr r="J52" s="9"/>
-        <tr r="J57" s="9"/>
-        <tr r="I60" s="9"/>
-        <tr r="H53" s="9"/>
-        <tr r="F57" s="9"/>
-        <tr r="J53" s="9"/>
-        <tr r="I57" s="9"/>
-        <tr r="G56" s="9"/>
-        <tr r="G60" s="9"/>
-        <tr r="J56" s="9"/>
-        <tr r="H59" s="9"/>
-        <tr r="I61" s="9"/>
-        <tr r="I58" s="9"/>
-        <tr r="I55" s="9"/>
-        <tr r="F56" s="9"/>
-        <tr r="F51" s="9"/>
-        <tr r="J54" s="9"/>
-        <tr r="F59" s="9"/>
-        <tr r="F54" s="9"/>
-        <tr r="G61" s="9"/>
-        <tr r="I51" s="9"/>
-        <tr r="F53" s="9"/>
-        <tr r="H52" s="9"/>
-        <tr r="G51" s="9"/>
-        <tr r="H61" s="9"/>
-        <tr r="I54" s="9"/>
-        <tr r="I52" s="9"/>
-        <tr r="J55" s="9"/>
-        <tr r="F61" s="9"/>
-        <tr r="I59" s="9"/>
-        <tr r="G59" s="9"/>
-        <tr r="H54" s="9"/>
-        <tr r="J58" s="9"/>
-        <tr r="J61" s="9"/>
-        <tr r="G53" s="9"/>
-        <tr r="G54" s="9"/>
-        <tr r="F55" s="9"/>
-        <tr r="J51" s="9"/>
-        <tr r="F58" s="9"/>
-        <tr r="G52" s="9"/>
-        <tr r="F60" s="9"/>
-        <tr r="H51" s="9"/>
-        <tr r="F52" s="9"/>
-        <tr r="J60" s="9"/>
-        <tr r="H58" s="9"/>
-        <tr r="G55" s="9"/>
-        <tr r="I56" s="9"/>
-        <tr r="J59" s="9"/>
-        <tr r="G58" s="9"/>
-        <tr r="G57" s="9"/>
-        <tr r="H56" s="9"/>
-        <tr r="I53" s="9"/>
-        <tr r="H60" s="9"/>
-        <tr r="H57" s="9"/>
-        <tr r="H55" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6dec3807c894eaf8ee2ebcc03cc8a06">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>a6ec9398-51df-41eb-8f28-1d5d36a328a9</stp>
-        <tr r="F51" s="14"/>
-        <tr r="E51" s="14"/>
-        <tr r="G51" s="14"/>
-        <tr r="J50" s="14"/>
-        <tr r="H51" s="14"/>
-        <tr r="I50" s="14"/>
-        <tr r="E50" s="14"/>
-        <tr r="F50" s="14"/>
-        <tr r="J51" s="14"/>
-        <tr r="G50" s="14"/>
-        <tr r="H50" s="14"/>
-        <tr r="I51" s="14"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6dec3807c894eaf8ee2ebcc03cc8a06">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>e35f9e9b-46ad-4fa9-8df0-7448b1372445</stp>
-        <tr r="E35" s="9"/>
-        <tr r="E37" s="9"/>
-        <tr r="G37" s="9"/>
-        <tr r="E33" s="9"/>
-        <tr r="G38" s="9"/>
-        <tr r="E28" s="9"/>
-        <tr r="F32" s="9"/>
-        <tr r="E36" s="9"/>
-        <tr r="G29" s="9"/>
-        <tr r="E38" s="9"/>
-        <tr r="F34" s="9"/>
-        <tr r="G33" s="9"/>
-        <tr r="E39" s="9"/>
-        <tr r="F29" s="9"/>
-        <tr r="E32" s="9"/>
-        <tr r="F30" s="9"/>
-        <tr r="E34" s="9"/>
-        <tr r="G39" s="9"/>
-        <tr r="G34" s="9"/>
-        <tr r="G31" s="9"/>
-        <tr r="F35" s="9"/>
-        <tr r="F28" s="9"/>
-        <tr r="F37" s="9"/>
-        <tr r="G28" s="9"/>
-        <tr r="F33" s="9"/>
-        <tr r="E29" s="9"/>
-        <tr r="G35" s="9"/>
-        <tr r="G36" s="9"/>
-        <tr r="G30" s="9"/>
-        <tr r="F39" s="9"/>
-        <tr r="F36" s="9"/>
-        <tr r="E31" s="9"/>
-        <tr r="G32" s="9"/>
-        <tr r="F31" s="9"/>
-        <tr r="F38" s="9"/>
-        <tr r="E30" s="9"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6dec3807c894eaf8ee2ebcc03cc8a06">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>69a258d9-5a2a-4998-8a47-29fb17b349f7</stp>
-        <tr r="M33" s="5"/>
+        <stp>c757ff47-b28f-4ded-a94f-d6dc3fa69c09</stp>
+        <tr r="M30" s="5"/>
+        <tr r="H30" s="5"/>
+        <tr r="E34" s="5"/>
+        <tr r="J32" s="5"/>
         <tr r="K29" s="5"/>
+        <tr r="M29" s="5"/>
+        <tr r="I31" s="5"/>
         <tr r="E30" s="5"/>
+        <tr r="I34" s="5"/>
+        <tr r="K32" s="5"/>
+        <tr r="G33" s="5"/>
+        <tr r="E33" s="5"/>
+        <tr r="F30" s="5"/>
+        <tr r="E29" s="5"/>
+        <tr r="H34" s="5"/>
+        <tr r="L35" s="5"/>
+        <tr r="F32" s="5"/>
         <tr r="M31" s="5"/>
+        <tr r="J35" s="5"/>
+        <tr r="K33" s="5"/>
+        <tr r="E31" s="5"/>
+        <tr r="I29" s="5"/>
+        <tr r="H31" s="5"/>
+        <tr r="F29" s="5"/>
         <tr r="I35" s="5"/>
+        <tr r="F34" s="5"/>
+        <tr r="H33" s="5"/>
+        <tr r="G31" s="5"/>
+        <tr r="H29" s="5"/>
+        <tr r="L31" s="5"/>
+        <tr r="I30" s="5"/>
         <tr r="G29" s="5"/>
-        <tr r="J31" s="5"/>
-        <tr r="I34" s="5"/>
-        <tr r="J35" s="5"/>
-        <tr r="M34" s="5"/>
-        <tr r="M30" s="5"/>
-        <tr r="K33" s="5"/>
-        <tr r="F34" s="5"/>
-        <tr r="I33" s="5"/>
-        <tr r="K30" s="5"/>
-        <tr r="K32" s="5"/>
-        <tr r="E31" s="5"/>
-        <tr r="F33" s="5"/>
-        <tr r="E32" s="5"/>
-        <tr r="E34" s="5"/>
-        <tr r="G33" s="5"/>
         <tr r="I32" s="5"/>
-        <tr r="F35" s="5"/>
-        <tr r="E33" s="5"/>
-        <tr r="H33" s="5"/>
         <tr r="J29" s="5"/>
-        <tr r="L29" s="5"/>
-        <tr r="G30" s="5"/>
-        <tr r="I29" s="5"/>
-        <tr r="G31" s="5"/>
         <tr r="E35" s="5"/>
-        <tr r="F31" s="5"/>
-        <tr r="J32" s="5"/>
-        <tr r="F30" s="5"/>
-        <tr r="H29" s="5"/>
         <tr r="G35" s="5"/>
-        <tr r="K31" s="5"/>
-        <tr r="J30" s="5"/>
-        <tr r="M29" s="5"/>
-        <tr r="E29" s="5"/>
-        <tr r="K35" s="5"/>
-        <tr r="I31" s="5"/>
-        <tr r="G34" s="5"/>
-        <tr r="H30" s="5"/>
-        <tr r="H34" s="5"/>
-        <tr r="H31" s="5"/>
-        <tr r="L31" s="5"/>
         <tr r="L32" s="5"/>
         <tr r="J34" s="5"/>
+        <tr r="L34" s="5"/>
+        <tr r="J31" s="5"/>
+        <tr r="I33" s="5"/>
+        <tr r="F33" s="5"/>
+        <tr r="F35" s="5"/>
         <tr r="M35" s="5"/>
+        <tr r="L33" s="5"/>
+        <tr r="E32" s="5"/>
+        <tr r="L29" s="5"/>
+        <tr r="K31" s="5"/>
+        <tr r="K35" s="5"/>
         <tr r="J33" s="5"/>
+        <tr r="H32" s="5"/>
+        <tr r="L30" s="5"/>
+        <tr r="G32" s="5"/>
+        <tr r="M33" s="5"/>
+        <tr r="M34" s="5"/>
+        <tr r="K30" s="5"/>
+        <tr r="G30" s="5"/>
+        <tr r="F31" s="5"/>
+        <tr r="J30" s="5"/>
+        <tr r="G34" s="5"/>
         <tr r="M32" s="5"/>
-        <tr r="L35" s="5"/>
-        <tr r="L34" s="5"/>
-        <tr r="H32" s="5"/>
         <tr r="K34" s="5"/>
-        <tr r="F32" s="5"/>
-        <tr r="F29" s="5"/>
-        <tr r="I30" s="5"/>
-        <tr r="L33" s="5"/>
-        <tr r="L30" s="5"/>
         <tr r="H35" s="5"/>
-        <tr r="G32" s="5"/>
-      </tp>
-    </main>
-    <main first="rtdsrv.f6dec3807c894eaf8ee2ebcc03cc8a06">
-      <tp>
-        <v>-1</v>
-        <stp/>
-        <stp>75ba95ac-d4ec-4491-9a52-22187c901031</stp>
-        <tr r="D20" s="7"/>
-        <tr r="D15" s="7"/>
-        <tr r="D23" s="7"/>
-        <tr r="D25" s="7"/>
-        <tr r="D21" s="7"/>
-        <tr r="D19" s="7"/>
-        <tr r="D17" s="7"/>
-        <tr r="D24" s="7"/>
-        <tr r="D22" s="7"/>
-        <tr r="D18" s="7"/>
-        <tr r="D16" s="7"/>
       </tp>
       <tp>
         <v>-1</v>
         <stp/>
-        <stp>064f2635-4c8f-4909-847b-3d2e8f08c94a</stp>
+        <stp>9946b405-6cc0-4f30-bcee-e708af3bdbb4</stp>
+        <tr r="K47" s="15"/>
+        <tr r="K48" s="15"/>
+        <tr r="J47" s="15"/>
+        <tr r="J48" s="15"/>
+        <tr r="I47" s="15"/>
+        <tr r="E47" s="15"/>
+        <tr r="G48" s="15"/>
+        <tr r="E48" s="15"/>
+        <tr r="F48" s="15"/>
+        <tr r="G47" s="15"/>
+        <tr r="I48" s="15"/>
+        <tr r="F47" s="15"/>
+        <tr r="H47" s="15"/>
+        <tr r="H48" s="15"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>a8686333-6105-4ec0-b5f6-e32fe3a357e0</stp>
+        <tr r="F28" s="9"/>
+        <tr r="F35" s="9"/>
+        <tr r="G38" s="9"/>
+        <tr r="E30" s="9"/>
+        <tr r="F36" s="9"/>
+        <tr r="F30" s="9"/>
+        <tr r="F31" s="9"/>
+        <tr r="G36" s="9"/>
+        <tr r="E38" s="9"/>
+        <tr r="G28" s="9"/>
+        <tr r="F34" s="9"/>
+        <tr r="E37" s="9"/>
+        <tr r="F38" s="9"/>
+        <tr r="G32" s="9"/>
+        <tr r="E31" s="9"/>
+        <tr r="F29" s="9"/>
+        <tr r="G33" s="9"/>
+        <tr r="G30" s="9"/>
+        <tr r="E29" s="9"/>
+        <tr r="F37" s="9"/>
+        <tr r="G34" s="9"/>
+        <tr r="E39" s="9"/>
+        <tr r="E33" s="9"/>
+        <tr r="G37" s="9"/>
+        <tr r="F39" s="9"/>
+        <tr r="G35" s="9"/>
+        <tr r="F33" s="9"/>
+        <tr r="G39" s="9"/>
+        <tr r="E32" s="9"/>
+        <tr r="G29" s="9"/>
+        <tr r="E36" s="9"/>
+        <tr r="F32" s="9"/>
+        <tr r="E35" s="9"/>
+        <tr r="G31" s="9"/>
+        <tr r="E34" s="9"/>
+        <tr r="E28" s="9"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>32805875-dff1-4ae7-b441-5375f5de00c7</stp>
+        <tr r="D22" s="7"/>
+        <tr r="D25" s="7"/>
+        <tr r="D15" s="7"/>
+        <tr r="D24" s="7"/>
+        <tr r="D21" s="7"/>
+        <tr r="D19" s="7"/>
+        <tr r="D18" s="7"/>
+        <tr r="D20" s="7"/>
+        <tr r="D17" s="7"/>
+        <tr r="D23" s="7"/>
+        <tr r="D16" s="7"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.02e743a5eb834e56aa52ae65f274fba4">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>19dec094-ed7e-4d28-bcb3-56fb040cb745</stp>
+        <tr r="Q47" s="6"/>
+        <tr r="Z45" s="6"/>
+        <tr r="AG33" s="6"/>
+        <tr r="G49" s="6"/>
+        <tr r="AB43" s="6"/>
+        <tr r="AE50" s="6"/>
+        <tr r="X40" s="6"/>
+        <tr r="N39" s="6"/>
+        <tr r="G48" s="6"/>
+        <tr r="H34" s="6"/>
+        <tr r="V42" s="6"/>
+        <tr r="H38" s="6"/>
+        <tr r="X47" s="6"/>
+        <tr r="S40" s="6"/>
+        <tr r="U41" s="6"/>
+        <tr r="AA44" s="6"/>
+        <tr r="L33" s="6"/>
+        <tr r="H47" s="6"/>
+        <tr r="Q43" s="6"/>
+        <tr r="J39" s="6"/>
+        <tr r="N37" s="6"/>
+        <tr r="X44" s="6"/>
+        <tr r="S52" s="6"/>
+        <tr r="W43" s="6"/>
+        <tr r="P51" s="6"/>
+        <tr r="AF48" s="6"/>
+        <tr r="P44" s="6"/>
+        <tr r="H46" s="6"/>
+        <tr r="E44" s="6"/>
+        <tr r="G43" s="6"/>
+        <tr r="M34" s="6"/>
+        <tr r="K33" s="6"/>
+        <tr r="AC41" s="6"/>
+        <tr r="AA38" s="6"/>
+        <tr r="AC36" s="6"/>
+        <tr r="H35" s="6"/>
+        <tr r="F50" s="6"/>
+        <tr r="AC35" s="6"/>
+        <tr r="T43" s="6"/>
+        <tr r="X45" s="6"/>
+        <tr r="AD39" s="6"/>
+        <tr r="AE38" s="6"/>
+        <tr r="Z38" s="6"/>
+        <tr r="E49" s="6"/>
+        <tr r="AD51" s="6"/>
+        <tr r="P50" s="6"/>
+        <tr r="AD45" s="6"/>
+        <tr r="AG38" s="6"/>
+        <tr r="Z52" s="6"/>
+        <tr r="O42" s="6"/>
+        <tr r="H41" s="6"/>
+        <tr r="V34" s="6"/>
+        <tr r="AH44" s="6"/>
+        <tr r="N36" s="6"/>
+        <tr r="S33" s="6"/>
+        <tr r="Q34" s="6"/>
+        <tr r="U47" s="6"/>
+        <tr r="S51" s="6"/>
+        <tr r="J45" s="6"/>
+        <tr r="M48" s="6"/>
+        <tr r="AB50" s="6"/>
+        <tr r="H33" s="6"/>
+        <tr r="W41" s="6"/>
+        <tr r="J42" s="6"/>
+        <tr r="R40" s="6"/>
+        <tr r="H40" s="6"/>
+        <tr r="AG39" s="6"/>
+        <tr r="U39" s="6"/>
+        <tr r="AH35" s="6"/>
+        <tr r="P48" s="6"/>
+        <tr r="L48" s="6"/>
+        <tr r="V33" s="6"/>
+        <tr r="U33" s="6"/>
+        <tr r="U45" s="6"/>
+        <tr r="O45" s="6"/>
+        <tr r="W51" s="6"/>
+        <tr r="M47" s="6"/>
+        <tr r="Y52" s="6"/>
+        <tr r="AA51" s="6"/>
+        <tr r="AB44" s="6"/>
+        <tr r="AC50" s="6"/>
+        <tr r="G40" s="6"/>
+        <tr r="Z43" s="6"/>
+        <tr r="Y48" s="6"/>
+        <tr r="AF40" s="6"/>
+        <tr r="X42" s="6"/>
+        <tr r="J48" s="6"/>
+        <tr r="AH50" s="6"/>
+        <tr r="AC45" s="6"/>
+        <tr r="AE40" s="6"/>
+        <tr r="Q39" s="6"/>
+        <tr r="Y50" s="6"/>
+        <tr r="AF36" s="6"/>
+        <tr r="S38" s="6"/>
+        <tr r="V41" s="6"/>
+        <tr r="J35" s="6"/>
+        <tr r="E51" s="6"/>
+        <tr r="AD44" s="6"/>
+        <tr r="AF52" s="6"/>
+        <tr r="AD43" s="6"/>
+        <tr r="W34" s="6"/>
+        <tr r="AE41" s="6"/>
+        <tr r="K45" s="6"/>
+        <tr r="V47" s="6"/>
+        <tr r="X36" s="6"/>
+        <tr r="X43" s="6"/>
+        <tr r="L34" s="6"/>
+        <tr r="P45" s="6"/>
+        <tr r="Q48" s="6"/>
+        <tr r="I40" s="6"/>
+        <tr r="J38" s="6"/>
+        <tr r="Y34" s="6"/>
+        <tr r="P37" s="6"/>
+        <tr r="AA42" s="6"/>
+        <tr r="AA37" s="6"/>
+        <tr r="I41" s="6"/>
+        <tr r="AG49" s="6"/>
+        <tr r="AH37" s="6"/>
+        <tr r="I47" s="6"/>
+        <tr r="AH45" s="6"/>
+        <tr r="R47" s="6"/>
+        <tr r="AD50" s="6"/>
+        <tr r="AE42" s="6"/>
+        <tr r="M45" s="6"/>
+        <tr r="S37" s="6"/>
+        <tr r="AD34" s="6"/>
+        <tr r="F42" s="6"/>
+        <tr r="AE46" s="6"/>
+        <tr r="Z34" s="6"/>
+        <tr r="J37" s="6"/>
+        <tr r="I51" s="6"/>
+        <tr r="F34" s="6"/>
+        <tr r="AB40" s="6"/>
+        <tr r="F38" s="6"/>
+        <tr r="E40" s="6"/>
+        <tr r="AA35" s="6"/>
+        <tr r="X33" s="6"/>
+        <tr r="N49" s="6"/>
+        <tr r="W47" s="6"/>
+        <tr r="H44" s="6"/>
+        <tr r="F36" s="6"/>
+        <tr r="AF50" s="6"/>
+        <tr r="L44" s="6"/>
+        <tr r="E37" s="6"/>
+        <tr r="N45" s="6"/>
+        <tr r="AG41" s="6"/>
+        <tr r="AC33" s="6"/>
+        <tr r="Y39" s="6"/>
+        <tr r="O52" s="6"/>
+        <tr r="L36" s="6"/>
+        <tr r="W48" s="6"/>
+        <tr r="H43" s="6"/>
+        <tr r="J40" s="6"/>
+        <tr r="E35" s="6"/>
+        <tr r="AB39" s="6"/>
+        <tr r="P33" s="6"/>
+        <tr r="AA36" s="6"/>
+        <tr r="AG44" s="6"/>
+        <tr r="AE52" s="6"/>
+        <tr r="E36" s="6"/>
+        <tr r="R45" s="6"/>
+        <tr r="T36" s="6"/>
+        <tr r="G35" s="6"/>
+        <tr r="Y45" s="6"/>
+        <tr r="O50" s="6"/>
+        <tr r="X38" s="6"/>
+        <tr r="Z37" s="6"/>
+        <tr r="H42" s="6"/>
+        <tr r="J34" s="6"/>
+        <tr r="S45" s="6"/>
+        <tr r="N34" s="6"/>
+        <tr r="AD41" s="6"/>
+        <tr r="P43" s="6"/>
+        <tr r="Z36" s="6"/>
+        <tr r="O35" s="6"/>
+        <tr r="W38" s="6"/>
+        <tr r="S46" s="6"/>
+        <tr r="E52" s="6"/>
+        <tr r="F51" s="6"/>
+        <tr r="G52" s="6"/>
+        <tr r="R36" s="6"/>
+        <tr r="E39" s="6"/>
+        <tr r="Z47" s="6"/>
+        <tr r="O36" s="6"/>
+        <tr r="R44" s="6"/>
+        <tr r="O39" s="6"/>
+        <tr r="O40" s="6"/>
+        <tr r="R33" s="6"/>
+        <tr r="AF44" s="6"/>
+        <tr r="Q40" s="6"/>
+        <tr r="G39" s="6"/>
+        <tr r="AD49" s="6"/>
+        <tr r="F40" s="6"/>
+        <tr r="Q49" s="6"/>
+        <tr r="AH48" s="6"/>
+        <tr r="Y35" s="6"/>
+        <tr r="L40" s="6"/>
+        <tr r="R35" s="6"/>
+        <tr r="O49" s="6"/>
+        <tr r="M51" s="6"/>
+        <tr r="F52" s="6"/>
+        <tr r="Y49" s="6"/>
+        <tr r="Y43" s="6"/>
+        <tr r="AB41" s="6"/>
+        <tr r="Z48" s="6"/>
+        <tr r="AB38" s="6"/>
+        <tr r="AG50" s="6"/>
+        <tr r="E34" s="6"/>
+        <tr r="I50" s="6"/>
+        <tr r="AE39" s="6"/>
+        <tr r="AD37" s="6"/>
+        <tr r="U43" s="6"/>
+        <tr r="K52" s="6"/>
+        <tr r="AC38" s="6"/>
+        <tr r="X39" s="6"/>
+        <tr r="H45" s="6"/>
+        <tr r="K43" s="6"/>
+        <tr r="U49" s="6"/>
+        <tr r="AD38" s="6"/>
+        <tr r="N48" s="6"/>
+        <tr r="M33" s="6"/>
+        <tr r="AC34" s="6"/>
+        <tr r="R50" s="6"/>
+        <tr r="AF43" s="6"/>
+        <tr r="AH34" s="6"/>
+        <tr r="N42" s="6"/>
+        <tr r="L52" s="6"/>
+        <tr r="Q37" s="6"/>
+        <tr r="R43" s="6"/>
+        <tr r="X35" s="6"/>
+        <tr r="AF46" s="6"/>
+        <tr r="G36" s="6"/>
+        <tr r="M36" s="6"/>
+        <tr r="F41" s="6"/>
+        <tr r="AB46" s="6"/>
+        <tr r="AA45" s="6"/>
+        <tr r="AH38" s="6"/>
+        <tr r="J50" s="6"/>
+        <tr r="T34" s="6"/>
+        <tr r="E50" s="6"/>
+        <tr r="W46" s="6"/>
+        <tr r="H49" s="6"/>
+        <tr r="K35" s="6"/>
+        <tr r="AF49" s="6"/>
+        <tr r="O46" s="6"/>
+        <tr r="I39" s="6"/>
+        <tr r="R39" s="6"/>
+        <tr r="N51" s="6"/>
+        <tr r="P40" s="6"/>
+        <tr r="I37" s="6"/>
+        <tr r="H39" s="6"/>
+        <tr r="AD42" s="6"/>
+        <tr r="N33" s="6"/>
+        <tr r="P39" s="6"/>
+        <tr r="AG34" s="6"/>
+        <tr r="AD35" s="6"/>
+        <tr r="AA50" s="6"/>
+        <tr r="AE45" s="6"/>
+        <tr r="AC44" s="6"/>
+        <tr r="T52" s="6"/>
+        <tr r="N50" s="6"/>
+        <tr r="G33" s="6"/>
+        <tr r="H37" s="6"/>
+        <tr r="Y37" s="6"/>
+        <tr r="AA47" s="6"/>
+        <tr r="AA39" s="6"/>
+        <tr r="AH51" s="6"/>
+        <tr r="AF34" s="6"/>
+        <tr r="L46" s="6"/>
+        <tr r="O38" s="6"/>
+        <tr r="T51" s="6"/>
+        <tr r="AB35" s="6"/>
+        <tr r="T46" s="6"/>
+        <tr r="V39" s="6"/>
+        <tr r="M50" s="6"/>
+        <tr r="AB36" s="6"/>
+        <tr r="V49" s="6"/>
+        <tr r="K37" s="6"/>
+        <tr r="AC42" s="6"/>
+        <tr r="AA33" s="6"/>
+        <tr r="AF37" s="6"/>
+        <tr r="Z39" s="6"/>
+        <tr r="U35" s="6"/>
+        <tr r="K49" s="6"/>
+        <tr r="K38" s="6"/>
+        <tr r="AD48" s="6"/>
+        <tr r="AD36" s="6"/>
+        <tr r="AB51" s="6"/>
+        <tr r="I36" s="6"/>
+        <tr r="AA34" s="6"/>
+        <tr r="Z49" s="6"/>
+        <tr r="I48" s="6"/>
+        <tr r="U52" s="6"/>
+        <tr r="V45" s="6"/>
+        <tr r="U34" s="6"/>
+        <tr r="Z42" s="6"/>
+        <tr r="K48" s="6"/>
+        <tr r="Z35" s="6"/>
+        <tr r="S48" s="6"/>
+        <tr r="AE47" s="6"/>
+        <tr r="K36" s="6"/>
+        <tr r="L49" s="6"/>
+        <tr r="J36" s="6"/>
+        <tr r="M43" s="6"/>
+        <tr r="T41" s="6"/>
+        <tr r="AF51" s="6"/>
+        <tr r="W42" s="6"/>
+        <tr r="Y38" s="6"/>
+        <tr r="J51" s="6"/>
+        <tr r="P34" s="6"/>
+        <tr r="F43" s="6"/>
+        <tr r="T49" s="6"/>
+        <tr r="AH33" s="6"/>
+        <tr r="AE33" s="6"/>
+        <tr r="V44" s="6"/>
+        <tr r="K51" s="6"/>
+        <tr r="O37" s="6"/>
+        <tr r="AG36" s="6"/>
+        <tr r="H48" s="6"/>
+        <tr r="F49" s="6"/>
+        <tr r="I42" s="6"/>
+        <tr r="W44" s="6"/>
+        <tr r="V50" s="6"/>
+        <tr r="I33" s="6"/>
+        <tr r="AE34" s="6"/>
+        <tr r="AF41" s="6"/>
+        <tr r="AF35" s="6"/>
+        <tr r="P42" s="6"/>
+        <tr r="M44" s="6"/>
+        <tr r="H52" s="6"/>
+        <tr r="G34" s="6"/>
+        <tr r="T39" s="6"/>
+        <tr r="M40" s="6"/>
+        <tr r="P49" s="6"/>
+        <tr r="K47" s="6"/>
+        <tr r="L42" s="6"/>
+        <tr r="AF42" s="6"/>
+        <tr r="Z50" s="6"/>
+        <tr r="O43" s="6"/>
+        <tr r="E48" s="6"/>
+        <tr r="N47" s="6"/>
+        <tr r="I52" s="6"/>
+        <tr r="G45" s="6"/>
+        <tr r="N40" s="6"/>
+        <tr r="W52" s="6"/>
+        <tr r="AD33" s="6"/>
+        <tr r="G51" s="6"/>
+        <tr r="M37" s="6"/>
+        <tr r="AH52" s="6"/>
+        <tr r="R49" s="6"/>
+        <tr r="AB48" s="6"/>
+        <tr r="M42" s="6"/>
+        <tr r="U38" s="6"/>
+        <tr r="Q35" s="6"/>
+        <tr r="P35" s="6"/>
+        <tr r="W49" s="6"/>
+        <tr r="Z51" s="6"/>
+        <tr r="AH41" s="6"/>
+        <tr r="Y51" s="6"/>
+        <tr r="AA49" s="6"/>
+        <tr r="AB45" s="6"/>
+        <tr r="E41" s="6"/>
+        <tr r="AH42" s="6"/>
+        <tr r="O48" s="6"/>
+        <tr r="X50" s="6"/>
+        <tr r="E46" s="6"/>
+        <tr r="F37" s="6"/>
+        <tr r="Q46" s="6"/>
+        <tr r="AC47" s="6"/>
+        <tr r="O34" s="6"/>
+        <tr r="Y36" s="6"/>
+        <tr r="N52" s="6"/>
+        <tr r="Y40" s="6"/>
+        <tr r="AG37" s="6"/>
+        <tr r="Q41" s="6"/>
+        <tr r="AH47" s="6"/>
+        <tr r="T40" s="6"/>
+        <tr r="K44" s="6"/>
+        <tr r="R41" s="6"/>
+        <tr r="H51" s="6"/>
+        <tr r="K40" s="6"/>
+        <tr r="AE36" s="6"/>
+        <tr r="AH40" s="6"/>
+        <tr r="L47" s="6"/>
+        <tr r="Z40" s="6"/>
+        <tr r="V36" s="6"/>
+        <tr r="O33" s="6"/>
+        <tr r="AB33" s="6"/>
+        <tr r="F33" s="6"/>
+        <tr r="U36" s="6"/>
+        <tr r="AE37" s="6"/>
+        <tr r="W50" s="6"/>
+        <tr r="G41" s="6"/>
+        <tr r="AG42" s="6"/>
+        <tr r="V35" s="6"/>
+        <tr r="M52" s="6"/>
+        <tr r="M41" s="6"/>
+        <tr r="F48" s="6"/>
+        <tr r="X51" s="6"/>
+        <tr r="W45" s="6"/>
+        <tr r="AA52" s="6"/>
+        <tr r="P38" s="6"/>
+        <tr r="N41" s="6"/>
+        <tr r="L41" s="6"/>
+        <tr r="R37" s="6"/>
+        <tr r="L39" s="6"/>
+        <tr r="L37" s="6"/>
+        <tr r="Z33" s="6"/>
+        <tr r="K46" s="6"/>
+        <tr r="Q38" s="6"/>
+        <tr r="V37" s="6"/>
+        <tr r="T33" s="6"/>
+        <tr r="T45" s="6"/>
+        <tr r="AG43" s="6"/>
+        <tr r="K50" s="6"/>
+        <tr r="F44" s="6"/>
+        <tr r="G46" s="6"/>
+        <tr r="K41" s="6"/>
+        <tr r="X48" s="6"/>
+        <tr r="AD46" s="6"/>
+        <tr r="R46" s="6"/>
+        <tr r="X52" s="6"/>
+        <tr r="E38" s="6"/>
+        <tr r="T42" s="6"/>
+        <tr r="AA40" s="6"/>
+        <tr r="V48" s="6"/>
+        <tr r="AD47" s="6"/>
+        <tr r="W33" s="6"/>
+        <tr r="U51" s="6"/>
+        <tr r="AC48" s="6"/>
+        <tr r="AC37" s="6"/>
+        <tr r="J33" s="6"/>
+        <tr r="P46" s="6"/>
+        <tr r="AA46" s="6"/>
+        <tr r="AC49" s="6"/>
+        <tr r="Y44" s="6"/>
+        <tr r="E43" s="6"/>
+        <tr r="J52" s="6"/>
+        <tr r="I46" s="6"/>
+        <tr r="Q50" s="6"/>
+        <tr r="T44" s="6"/>
+        <tr r="S41" s="6"/>
+        <tr r="U37" s="6"/>
+        <tr r="O51" s="6"/>
+        <tr r="AD40" s="6"/>
+        <tr r="P41" s="6"/>
+        <tr r="I35" s="6"/>
+        <tr r="M35" s="6"/>
+        <tr r="S47" s="6"/>
+        <tr r="Q52" s="6"/>
+        <tr r="W40" s="6"/>
+        <tr r="Z44" s="6"/>
+        <tr r="P52" s="6"/>
+        <tr r="K34" s="6"/>
+        <tr r="I49" s="6"/>
+        <tr r="G42" s="6"/>
+        <tr r="H50" s="6"/>
+        <tr r="N38" s="6"/>
+        <tr r="AG48" s="6"/>
+        <tr r="X37" s="6"/>
+        <tr r="J47" s="6"/>
+        <tr r="U48" s="6"/>
+        <tr r="AD52" s="6"/>
+        <tr r="W35" s="6"/>
+        <tr r="E42" s="6"/>
+        <tr r="R34" s="6"/>
+        <tr r="M39" s="6"/>
+        <tr r="F35" s="6"/>
+        <tr r="X46" s="6"/>
+        <tr r="X41" s="6"/>
+        <tr r="G44" s="6"/>
+        <tr r="Y42" s="6"/>
+        <tr r="I34" s="6"/>
+        <tr r="Z46" s="6"/>
+        <tr r="AG47" s="6"/>
+        <tr r="E33" s="6"/>
+        <tr r="S39" s="6"/>
+        <tr r="AG46" s="6"/>
+        <tr r="AC46" s="6"/>
+        <tr r="S50" s="6"/>
+        <tr r="AG35" s="6"/>
+        <tr r="K42" s="6"/>
+        <tr r="J41" s="6"/>
+        <tr r="L51" s="6"/>
+        <tr r="AA43" s="6"/>
+        <tr r="T47" s="6"/>
+        <tr r="J46" s="6"/>
+        <tr r="N43" s="6"/>
+        <tr r="W37" s="6"/>
+        <tr r="AC40" s="6"/>
+        <tr r="AB47" s="6"/>
+        <tr r="O41" s="6"/>
+        <tr r="T38" s="6"/>
+        <tr r="AC43" s="6"/>
+        <tr r="J43" s="6"/>
+        <tr r="S34" s="6"/>
+        <tr r="AC52" s="6"/>
+        <tr r="J49" s="6"/>
+        <tr r="I45" s="6"/>
+        <tr r="F47" s="6"/>
+        <tr r="N46" s="6"/>
+        <tr r="F45" s="6"/>
+        <tr r="I43" s="6"/>
+        <tr r="AE49" s="6"/>
+        <tr r="G38" s="6"/>
+        <tr r="M49" s="6"/>
+        <tr r="V38" s="6"/>
+        <tr r="U50" s="6"/>
+        <tr r="I38" s="6"/>
+        <tr r="Y47" s="6"/>
+        <tr r="AG52" s="6"/>
+        <tr r="AE44" s="6"/>
+        <tr r="Z41" s="6"/>
+        <tr r="T35" s="6"/>
+        <tr r="V43" s="6"/>
+        <tr r="AC51" s="6"/>
+        <tr r="L38" s="6"/>
+        <tr r="J44" s="6"/>
+        <tr r="G37" s="6"/>
+        <tr r="AB52" s="6"/>
+        <tr r="M46" s="6"/>
+        <tr r="AG40" s="6"/>
+        <tr r="U44" s="6"/>
+        <tr r="V46" s="6"/>
+        <tr r="U42" s="6"/>
+        <tr r="L43" s="6"/>
+        <tr r="Q44" s="6"/>
+        <tr r="T48" s="6"/>
+        <tr r="Y46" s="6"/>
+        <tr r="AE43" s="6"/>
+        <tr r="Q36" s="6"/>
+        <tr r="AF45" s="6"/>
+        <tr r="G47" s="6"/>
+        <tr r="AG51" s="6"/>
+        <tr r="Y33" s="6"/>
+        <tr r="Q45" s="6"/>
+        <tr r="Q33" s="6"/>
+        <tr r="AF33" s="6"/>
+        <tr r="W36" s="6"/>
+        <tr r="V52" s="6"/>
+        <tr r="N35" s="6"/>
+        <tr r="L45" s="6"/>
+        <tr r="U40" s="6"/>
+        <tr r="T37" s="6"/>
+        <tr r="AE35" s="6"/>
+        <tr r="H36" s="6"/>
+        <tr r="M38" s="6"/>
+        <tr r="S43" s="6"/>
+        <tr r="O47" s="6"/>
+        <tr r="R48" s="6"/>
+        <tr r="AB37" s="6"/>
+        <tr r="S49" s="6"/>
+        <tr r="P36" s="6"/>
+        <tr r="G50" s="6"/>
+        <tr r="F39" s="6"/>
+        <tr r="AH43" s="6"/>
+        <tr r="X49" s="6"/>
+        <tr r="AC39" s="6"/>
+        <tr r="U46" s="6"/>
+        <tr r="K39" s="6"/>
+        <tr r="V40" s="6"/>
+        <tr r="AH46" s="6"/>
+        <tr r="V51" s="6"/>
+        <tr r="Q51" s="6"/>
+        <tr r="T50" s="6"/>
+        <tr r="F46" s="6"/>
+        <tr r="AF38" s="6"/>
+        <tr r="X34" s="6"/>
+        <tr r="E45" s="6"/>
+        <tr r="R42" s="6"/>
+        <tr r="AA48" s="6"/>
+        <tr r="N44" s="6"/>
+        <tr r="W39" s="6"/>
+        <tr r="R51" s="6"/>
+        <tr r="AE51" s="6"/>
+        <tr r="S42" s="6"/>
+        <tr r="E47" s="6"/>
+        <tr r="AB34" s="6"/>
+        <tr r="AH39" s="6"/>
+        <tr r="AA41" s="6"/>
+        <tr r="L50" s="6"/>
+        <tr r="AF39" s="6"/>
+        <tr r="P47" s="6"/>
+        <tr r="Y41" s="6"/>
+        <tr r="Q42" s="6"/>
+        <tr r="S36" s="6"/>
+        <tr r="R52" s="6"/>
+        <tr r="AH36" s="6"/>
+        <tr r="AE48" s="6"/>
+        <tr r="AG45" s="6"/>
+        <tr r="S44" s="6"/>
+        <tr r="I44" s="6"/>
+        <tr r="R38" s="6"/>
+        <tr r="L35" s="6"/>
+        <tr r="AB49" s="6"/>
+        <tr r="AB42" s="6"/>
+        <tr r="S35" s="6"/>
+        <tr r="O44" s="6"/>
+        <tr r="AF47" s="6"/>
+        <tr r="AH49" s="6"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>406922cd-13cf-426c-a818-001ec03abb72</stp>
+        <tr r="I54" s="9"/>
+        <tr r="J57" s="9"/>
+        <tr r="I60" s="9"/>
+        <tr r="F51" s="9"/>
+        <tr r="H54" s="9"/>
+        <tr r="F54" s="9"/>
+        <tr r="H55" s="9"/>
+        <tr r="J51" s="9"/>
+        <tr r="H53" s="9"/>
+        <tr r="G56" s="9"/>
+        <tr r="F59" s="9"/>
+        <tr r="G61" s="9"/>
+        <tr r="H52" s="9"/>
+        <tr r="H61" s="9"/>
+        <tr r="I52" s="9"/>
+        <tr r="J61" s="9"/>
+        <tr r="G58" s="9"/>
+        <tr r="I53" s="9"/>
+        <tr r="G60" s="9"/>
+        <tr r="I58" s="9"/>
+        <tr r="J54" s="9"/>
+        <tr r="I51" s="9"/>
+        <tr r="F61" s="9"/>
+        <tr r="F58" s="9"/>
+        <tr r="J59" s="9"/>
+        <tr r="I55" s="9"/>
+        <tr r="J58" s="9"/>
+        <tr r="G53" s="9"/>
+        <tr r="J60" s="9"/>
+        <tr r="F53" s="9"/>
+        <tr r="G59" s="9"/>
+        <tr r="H51" s="9"/>
+        <tr r="H58" s="9"/>
+        <tr r="G57" s="9"/>
+        <tr r="H60" s="9"/>
+        <tr r="J53" s="9"/>
+        <tr r="I57" s="9"/>
+        <tr r="H59" s="9"/>
+        <tr r="F56" s="9"/>
+        <tr r="J55" s="9"/>
+        <tr r="G54" s="9"/>
+        <tr r="G52" s="9"/>
+        <tr r="F52" s="9"/>
+        <tr r="G55" s="9"/>
+        <tr r="H56" s="9"/>
+        <tr r="H57" s="9"/>
+        <tr r="F57" s="9"/>
+        <tr r="F60" s="9"/>
+        <tr r="I56" s="9"/>
+        <tr r="J52" s="9"/>
+        <tr r="J56" s="9"/>
+        <tr r="I61" s="9"/>
+        <tr r="G51" s="9"/>
+        <tr r="I59" s="9"/>
+        <tr r="F55" s="9"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.02e743a5eb834e56aa52ae65f274fba4">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>bc25791e-114d-4000-9f66-ea52090785d1</stp>
+        <tr r="J43" s="8"/>
+        <tr r="I48" s="8"/>
+        <tr r="E49" s="8"/>
+        <tr r="G41" s="8"/>
+        <tr r="H51" s="8"/>
+        <tr r="E33" s="8"/>
+        <tr r="I35" s="8"/>
+        <tr r="K33" s="8"/>
+        <tr r="L41" s="8"/>
+        <tr r="E35" s="8"/>
+        <tr r="J39" s="8"/>
+        <tr r="K46" s="8"/>
+        <tr r="I38" s="8"/>
+        <tr r="H43" s="8"/>
+        <tr r="H47" s="8"/>
+        <tr r="E45" s="8"/>
+        <tr r="K37" s="8"/>
         <tr r="F48" s="8"/>
-        <tr r="G36" s="8"/>
-        <tr r="I40" s="8"/>
-        <tr r="I42" s="8"/>
+        <tr r="E37" s="8"/>
+        <tr r="L43" s="8"/>
+        <tr r="G43" s="8"/>
         <tr r="F47" s="8"/>
+        <tr r="F43" s="8"/>
+        <tr r="J49" s="8"/>
+        <tr r="K44" s="8"/>
+        <tr r="J40" s="8"/>
+        <tr r="F39" s="8"/>
+        <tr r="G46" s="8"/>
+        <tr r="H32" s="8"/>
+        <tr r="H33" s="8"/>
+        <tr r="L31" s="8"/>
+        <tr r="L33" s="8"/>
+        <tr r="L40" s="8"/>
+        <tr r="E47" s="8"/>
+        <tr r="J33" s="8"/>
+        <tr r="I47" s="8"/>
+        <tr r="H46" s="8"/>
+        <tr r="K36" s="8"/>
+        <tr r="G35" s="8"/>
+        <tr r="L42" s="8"/>
+        <tr r="H39" s="8"/>
         <tr r="H38" s="8"/>
-        <tr r="I51" s="8"/>
-        <tr r="F50" s="8"/>
-        <tr r="K46" s="8"/>
-        <tr r="F43" s="8"/>
         <tr r="G45" s="8"/>
-        <tr r="L32" s="8"/>
         <tr r="E46" s="8"/>
-        <tr r="F35" s="8"/>
-        <tr r="J31" s="8"/>
-        <tr r="F36" s="8"/>
-        <tr r="F37" s="8"/>
-        <tr r="I38" s="8"/>
-        <tr r="J49" s="8"/>
-        <tr r="L39" s="8"/>
-        <tr r="F33" s="8"/>
-        <tr r="I34" s="8"/>
-        <tr r="H37" s="8"/>
-        <tr r="E45" s="8"/>
-        <tr r="K44" s="8"/>
         <tr r="F41" s="8"/>
-        <tr r="K34" s="8"/>
-        <tr r="E50" s="8"/>
-        <tr r="G39" s="8"/>
-        <tr r="E40" s="8"/>
-        <tr r="E37" s="8"/>
-        <tr r="J40" s="8"/>
         <tr r="I33" s="8"/>
-        <tr r="J38" s="8"/>
-        <tr r="K45" s="8"/>
-        <tr r="E43" s="8"/>
-        <tr r="J43" s="8"/>
-        <tr r="K48" s="8"/>
-        <tr r="K39" s="8"/>
-        <tr r="L44" s="8"/>
-        <tr r="F51" s="8"/>
-        <tr r="F39" s="8"/>
         <tr r="J51" s="8"/>
-        <tr r="J46" s="8"/>
-        <tr r="G49" s="8"/>
-        <tr r="L47" s="8"/>
-        <tr r="L50" s="8"/>
-        <tr r="G41" s="8"/>
-        <tr r="G46" s="8"/>
         <tr r="L38" s="8"/>
-        <tr r="G48" s="8"/>
-        <tr r="F49" s="8"/>
-        <tr r="L37" s="8"/>
-        <tr r="I35" s="8"/>
-        <tr r="H32" s="8"/>
-        <tr r="G34" s="8"/>
-        <tr r="K43" s="8"/>
-        <tr r="H33" s="8"/>
-        <tr r="H45" s="8"/>
-        <tr r="J37" s="8"/>
-        <tr r="G51" s="8"/>
-        <tr r="E48" s="8"/>
-        <tr r="H43" s="8"/>
-        <tr r="F46" s="8"/>
-        <tr r="G33" s="8"/>
-        <tr r="F42" s="8"/>
-        <tr r="H31" s="8"/>
-        <tr r="J44" s="8"/>
-        <tr r="L48" s="8"/>
-        <tr r="G32" s="8"/>
-        <tr r="I46" s="8"/>
-        <tr r="H36" s="8"/>
-        <tr r="L43" s="8"/>
         <tr r="H49" s="8"/>
-        <tr r="K49" s="8"/>
-        <tr r="E42" s="8"/>
-        <tr r="F44" s="8"/>
-        <tr r="H34" s="8"/>
-        <tr r="I48" s="8"/>
         <tr r="E38" s="8"/>
-        <tr r="L49" s="8"/>
-        <tr r="H41" s="8"/>
-        <tr r="I39" s="8"/>
-        <tr r="G37" s="8"/>
-        <tr r="G38" s="8"/>
         <tr r="G50" s="8"/>
-        <tr r="J36" s="8"/>
-        <tr r="J50" s="8"/>
-        <tr r="K41" s="8"/>
-        <tr r="I49" s="8"/>
-        <tr r="H51" s="8"/>
-        <tr r="L31" s="8"/>
-        <tr r="K40" s="8"/>
-        <tr r="F38" s="8"/>
-        <tr r="L36" s="8"/>
-        <tr r="J35" s="8"/>
-        <tr r="K33" s="8"/>
-        <tr r="L33" s="8"/>
         <tr r="G47" s="8"/>
-        <tr r="E51" s="8"/>
-        <tr r="E34" s="8"/>
-        <tr r="I50" s="8"/>
-        <tr r="L51" s="8"/>
-        <tr r="L40" s="8"/>
         <tr r="L34" s="8"/>
         <tr r="H48" s="8"/>
+        <tr r="K42" s="8"/>
+        <tr r="L46" s="8"/>
+        <tr r="J34" s="8"/>
+        <tr r="E32" s="8"/>
+        <tr r="I41" s="8"/>
+        <tr r="H50" s="8"/>
+        <tr r="G40" s="8"/>
+        <tr r="K51" s="8"/>
+        <tr r="G36" s="8"/>
+        <tr r="I51" s="8"/>
+        <tr r="F35" s="8"/>
+        <tr r="L39" s="8"/>
+        <tr r="K34" s="8"/>
+        <tr r="J38" s="8"/>
+        <tr r="K48" s="8"/>
+        <tr r="J46" s="8"/>
+        <tr r="H45" s="8"/>
+        <tr r="F46" s="8"/>
+        <tr r="L48" s="8"/>
+        <tr r="K49" s="8"/>
+        <tr r="L49" s="8"/>
+        <tr r="J36" s="8"/>
+        <tr r="K40" s="8"/>
+        <tr r="E51" s="8"/>
+        <tr r="J41" s="8"/>
+        <tr r="E41" s="8"/>
+        <tr r="E31" s="8"/>
+        <tr r="H40" s="8"/>
+        <tr r="F34" s="8"/>
+        <tr r="E39" s="8"/>
+        <tr r="L35" s="8"/>
+        <tr r="I44" s="8"/>
+        <tr r="K35" s="8"/>
+        <tr r="I40" s="8"/>
+        <tr r="L32" s="8"/>
+        <tr r="J31" s="8"/>
+        <tr r="F33" s="8"/>
+        <tr r="E50" s="8"/>
+        <tr r="K45" s="8"/>
+        <tr r="K39" s="8"/>
+        <tr r="G49" s="8"/>
+        <tr r="G48" s="8"/>
+        <tr r="J37" s="8"/>
+        <tr r="G33" s="8"/>
+        <tr r="E42" s="8"/>
+        <tr r="H41" s="8"/>
+        <tr r="J50" s="8"/>
+        <tr r="F38" s="8"/>
+        <tr r="J32" s="8"/>
+        <tr r="L45" s="8"/>
+        <tr r="K32" s="8"/>
+        <tr r="K31" s="8"/>
+        <tr r="I37" s="8"/>
+        <tr r="F32" s="8"/>
+        <tr r="I34" s="8"/>
+        <tr r="L44" s="8"/>
+        <tr r="F49" s="8"/>
+        <tr r="F42" s="8"/>
+        <tr r="G32" s="8"/>
+        <tr r="F44" s="8"/>
+        <tr r="I39" s="8"/>
+        <tr r="L36" s="8"/>
+        <tr r="E34" s="8"/>
         <tr r="E36" s="8"/>
+        <tr r="I45" s="8"/>
+        <tr r="I43" s="8"/>
+        <tr r="K38" s="8"/>
+        <tr r="I32" s="8"/>
+        <tr r="F36" s="8"/>
+        <tr r="G39" s="8"/>
+        <tr r="F51" s="8"/>
+        <tr r="L47" s="8"/>
+        <tr r="L37" s="8"/>
+        <tr r="G34" s="8"/>
+        <tr r="G51" s="8"/>
+        <tr r="H31" s="8"/>
+        <tr r="I46" s="8"/>
+        <tr r="H34" s="8"/>
+        <tr r="G37" s="8"/>
+        <tr r="K41" s="8"/>
+        <tr r="J35" s="8"/>
+        <tr r="I50" s="8"/>
         <tr r="J47" s="8"/>
+        <tr r="I36" s="8"/>
+        <tr r="J48" s="8"/>
+        <tr r="H44" s="8"/>
+        <tr r="F40" s="8"/>
+        <tr r="F45" s="8"/>
+        <tr r="E44" s="8"/>
+        <tr r="K50" s="8"/>
+        <tr r="G42" s="8"/>
+        <tr r="I42" s="8"/>
+        <tr r="F50" s="8"/>
+        <tr r="F37" s="8"/>
+        <tr r="H37" s="8"/>
+        <tr r="E40" s="8"/>
+        <tr r="E43" s="8"/>
+        <tr r="L50" s="8"/>
+        <tr r="K43" s="8"/>
+        <tr r="E48" s="8"/>
+        <tr r="J44" s="8"/>
+        <tr r="H36" s="8"/>
+        <tr r="G38" s="8"/>
+        <tr r="I49" s="8"/>
+        <tr r="L51" s="8"/>
         <tr r="G31" s="8"/>
-        <tr r="K37" s="8"/>
-        <tr r="E47" s="8"/>
-        <tr r="K42" s="8"/>
-        <tr r="J41" s="8"/>
-        <tr r="J32" s="8"/>
-        <tr r="I36" s="8"/>
-        <tr r="J33" s="8"/>
-        <tr r="E41" s="8"/>
-        <tr r="L45" s="8"/>
-        <tr r="J48" s="8"/>
         <tr r="H42" s="8"/>
-        <tr r="E49" s="8"/>
-        <tr r="I47" s="8"/>
-        <tr r="L46" s="8"/>
-        <tr r="E31" s="8"/>
-        <tr r="K32" s="8"/>
-        <tr r="I45" s="8"/>
         <tr r="J45" s="8"/>
-        <tr r="E35" s="8"/>
-        <tr r="H46" s="8"/>
-        <tr r="J34" s="8"/>
-        <tr r="H40" s="8"/>
-        <tr r="H44" s="8"/>
         <tr r="J42" s="8"/>
-        <tr r="E33" s="8"/>
-        <tr r="K36" s="8"/>
-        <tr r="E32" s="8"/>
         <tr r="F31" s="8"/>
-        <tr r="L41" s="8"/>
-        <tr r="G35" s="8"/>
-        <tr r="F34" s="8"/>
-        <tr r="K31" s="8"/>
-        <tr r="I43" s="8"/>
-        <tr r="F40" s="8"/>
         <tr r="I31" s="8"/>
-        <tr r="J39" s="8"/>
-        <tr r="I41" s="8"/>
-        <tr r="E39" s="8"/>
-        <tr r="F45" s="8"/>
         <tr r="K47" s="8"/>
-        <tr r="H47" s="8"/>
-        <tr r="H50" s="8"/>
-        <tr r="L35" s="8"/>
-        <tr r="E44" s="8"/>
         <tr r="H35" s="8"/>
-        <tr r="L42" s="8"/>
-        <tr r="G40" s="8"/>
-        <tr r="I44" s="8"/>
-        <tr r="I37" s="8"/>
-        <tr r="K38" s="8"/>
-        <tr r="K50" s="8"/>
         <tr r="G44" s="8"/>
-        <tr r="G43" s="8"/>
-        <tr r="H39" s="8"/>
-        <tr r="K51" s="8"/>
-        <tr r="K35" s="8"/>
-        <tr r="F32" s="8"/>
-        <tr r="I32" s="8"/>
-        <tr r="G42" s="8"/>
+      </tp>
+    </main>
+    <main first="rtdsrv.02e743a5eb834e56aa52ae65f274fba4">
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>591df2cd-b552-48b9-9b63-4910242aee2a</stp>
+        <tr r="J51" s="15"/>
+        <tr r="J50" s="15"/>
+        <tr r="E51" s="15"/>
+        <tr r="E50" s="15"/>
+        <tr r="K51" s="15"/>
+        <tr r="G50" s="15"/>
+        <tr r="K50" s="15"/>
+        <tr r="F51" s="15"/>
+        <tr r="H51" s="15"/>
+        <tr r="I50" s="15"/>
+        <tr r="F50" s="15"/>
+        <tr r="H50" s="15"/>
+        <tr r="G51" s="15"/>
+        <tr r="I51" s="15"/>
+      </tp>
+      <tp>
+        <v>-1</v>
+        <stp/>
+        <stp>4c8453cc-6943-4e88-8495-e07a5f08193f</stp>
+        <tr r="F55" s="5"/>
+        <tr r="F48" s="5"/>
+        <tr r="H53" s="5"/>
+        <tr r="G47" s="5"/>
+        <tr r="G52" s="5"/>
+        <tr r="H51" s="5"/>
+        <tr r="F50" s="5"/>
+        <tr r="F49" s="5"/>
+        <tr r="F52" s="5"/>
+        <tr r="G49" s="5"/>
+        <tr r="G50" s="5"/>
+        <tr r="G54" s="5"/>
+        <tr r="H52" s="5"/>
+        <tr r="E53" s="5"/>
+        <tr r="E51" s="5"/>
+        <tr r="G53" s="5"/>
+        <tr r="F46" s="5"/>
+        <tr r="E48" s="5"/>
+        <tr r="F53" s="5"/>
+        <tr r="G55" s="5"/>
+        <tr r="E55" s="5"/>
+        <tr r="F51" s="5"/>
+        <tr r="E47" s="5"/>
+        <tr r="H55" s="5"/>
+        <tr r="H54" s="5"/>
+        <tr r="E50" s="5"/>
+        <tr r="E52" s="5"/>
+        <tr r="H48" s="5"/>
+        <tr r="H46" s="5"/>
+        <tr r="F54" s="5"/>
+        <tr r="E49" s="5"/>
+        <tr r="H50" s="5"/>
+        <tr r="E54" s="5"/>
+        <tr r="H47" s="5"/>
+        <tr r="G51" s="5"/>
+        <tr r="G46" s="5"/>
+        <tr r="G48" s="5"/>
+        <tr r="F47" s="5"/>
+        <tr r="H49" s="5"/>
+        <tr r="E46" s="5"/>
       </tp>
     </main>
   </volType>
@@ -3139,7 +3141,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Logo">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969B2939-CD88-4C58-ADD5-283CD34A3E61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2042908-716B-4137-A0DB-16843266D6AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3162,8 +3164,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11144249" y="554132"/>
-          <a:ext cx="2117913" cy="1272266"/>
+          <a:off x="12839699" y="554132"/>
+          <a:ext cx="2137523" cy="1272266"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3713,6 +3715,76 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Create portfolio"/>
+      <sheetName val="Create portfolio group"/>
+      <sheetName val="Datetime format"/>
+      <sheetName val="List identifiers"/>
+      <sheetName val="List instruments"/>
+      <sheetName val="Get instrument definition"/>
+      <sheetName val="Edit instrument"/>
+      <sheetName val="Create instrument"/>
+      <sheetName val="List prices 1"/>
+      <sheetName val="List prices 2"/>
+      <sheetName val="Update prices"/>
+      <sheetName val="Create prices"/>
+      <sheetName val="Create prices (2)"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Create prices (3)"/>
+      <sheetName val="Create global equity"/>
+      <sheetName val="Create treasuries"/>
+      <sheetName val="Create corps"/>
+      <sheetName val="Inputs"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="19">
+          <cell r="H19">
+            <v>43565</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="H20">
+            <v>43565</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="H21">
+            <v>43565</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="H22">
+            <v>43565</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4015,9 +4087,7 @@
   </sheetPr>
   <dimension ref="B1:T31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4590,9 +4660,7 @@
   </sheetPr>
   <dimension ref="B1:N37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5160,7 +5228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBCBF526-C741-4204-804D-01691DF95A22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D69E06-C070-4C09-B3F3-0262F04BBA70}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
@@ -5444,15 +5512,17 @@
         <v>242</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="J18" s="7"/>
       <c r="K18" s="10" t="s">
         <v>296</v>
       </c>
@@ -5472,14 +5542,16 @@
       <c r="F19" s="88" t="s">
         <v>358</v>
       </c>
-      <c r="G19" s="88"/>
-      <c r="H19" s="31" t="s">
+      <c r="G19" s="31">
+        <v>43556</v>
+      </c>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="I19" s="15"/>
       <c r="J19" s="18"/>
       <c r="K19" s="96" t="str">
-        <f t="array" ref="K19:K20">_xll.flGroupsCreate(F15,E18:I20)</f>
+        <f t="array" ref="K19:K20">_xll.flGroupsCreate(F15,E18:J20)</f>
         <v>Failed to create group 'US-FI' in scope 'Finbourne-Examples' as a group with that identifier already exists</v>
       </c>
       <c r="L19" s="2"/>
@@ -5498,11 +5570,13 @@
       <c r="F20" s="85" t="s">
         <v>360</v>
       </c>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88" t="s">
+      <c r="G20" s="31">
+        <v>43556</v>
+      </c>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88" t="s">
         <v>361</v>
       </c>
-      <c r="I20" s="9"/>
       <c r="J20" s="5"/>
       <c r="K20" s="96" t="str">
         <v>Failed to create group 'Finbourne-Examples-Fund' in scope 'Finbourne-Examples' as a group with that identifier already exists</v>
@@ -5883,24 +5957,24 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="96" t="str">
-        <f>_xll.flGroupsAddPortfolio(F33,F34,F35,F36)</f>
-        <v>#ERROR: Error updating group goose/Finbourne-Examples/US-FI because the entry being added goose/Finbourne-Examples/US-Treasury-Bond already exists.</v>
+        <f>_xll.flGroupsAddPortfolio(F33,F34,F35,F36,'[1]Create portfolio'!H20)</f>
+        <v>#ERROR: Error updating group goose1/Finbourne-Examples/US-FI because the entry being added goose1/Finbourne-Examples/US-Treasury-Bond already exists.</v>
       </c>
       <c r="G39" s="96" t="str">
-        <f>_xll.flGroupsAddPortfolio(G33,G34,G35,G36)</f>
-        <v>#ERROR: Error updating group goose/Finbourne-Examples/US-FI because the entry being added goose/Finbourne-Examples/US-Corporate-Bond already exists.</v>
+        <f>_xll.flGroupsAddPortfolio(G33,G34,G35,G36,'[1]Create portfolio'!H21)</f>
+        <v>#ERROR: Error updating group goose1/Finbourne-Examples/US-FI because the entry being added goose1/Finbourne-Examples/US-Corporate-Bond already exists.</v>
       </c>
       <c r="H39" s="96" t="str">
-        <f>_xll.flGroupsAddSubGroup(H33,H34,H35,H36)</f>
-        <v>#ERROR: The group in goose/Finbourne-Examples/US-FI is already registered as a subgroup of the group goose/Finbourne-Examples/Finbourne-Examples-Fund AsAt=2019-09-24T07:32:08.3647940+00:00</v>
+        <f>_xll.flGroupsAddSubGroup(H33,H34,H35,H36,G19)</f>
+        <v>#ERROR: The group in goose1/Finbourne-Examples/US-FI is already registered as a subgroup of the group goose1/Finbourne-Examples/Finbourne-Examples-Fund AsAt=2019-09-27T07:56:36.3032290+00:00</v>
       </c>
       <c r="I39" s="96" t="str">
-        <f>_xll.flGroupsAddPortfolio(I33,I34,I35,I36)</f>
-        <v>#ERROR: Error updating group goose/Finbourne-Examples/Finbourne-Examples-Fund because the entry being added goose/Finbourne-Examples/Global-Equity already exists.</v>
+        <f>_xll.flGroupsAddPortfolio(I33,I34,I35,I36,'[1]Create portfolio'!H19)</f>
+        <v>#ERROR: Error updating group goose1/Finbourne-Examples/Finbourne-Examples-Fund because the entry being added goose1/Finbourne-Examples/Global-Equity already exists.</v>
       </c>
       <c r="J39" s="96" t="str">
-        <f>_xll.flGroupsAddPortfolio(J33,J34,J35,J36)</f>
-        <v>#ERROR: Error updating group goose/Finbourne-Examples/Finbourne-Examples-Fund because the entry being added goose/Finbourne-Examples/UK-Equities already exists.</v>
+        <f>_xll.flGroupsAddPortfolio(J33,J34,J35,J36,'[1]Create portfolio'!H22)</f>
+        <v>#ERROR: Error updating group goose1/Finbourne-Examples/Finbourne-Examples-Fund because the entry being added goose1/Finbourne-Examples/UK-Equities already exists.</v>
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -5995,7 +6069,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="35">
         <f ca="1">TODAY()</f>
-        <v>43733</v>
+        <v>43735</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -6026,7 +6100,7 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="8" t="str">
-        <f t="array" ref="E47:J48">_xll.flGroupsGet(F44,E19)</f>
+        <f t="array" ref="E47:K48">_xll.flGroupsGet(F44,E19)</f>
         <v>Id Scope</v>
       </c>
       <c r="F47" s="10" t="str">
@@ -6044,7 +6118,9 @@
       <c r="J47" s="7" t="str">
         <v>Portfolios</v>
       </c>
-      <c r="K47" s="10"/>
+      <c r="K47" s="10" t="str">
+        <v>SubGroups</v>
+      </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6067,13 +6143,15 @@
       <c r="H48" s="31" t="str">
         <v>Contains Finbourne US Fixed Income portfolios</v>
       </c>
-      <c r="I48" s="15">
-        <v>0</v>
+      <c r="I48" s="89">
+        <v>43565</v>
       </c>
       <c r="J48" s="97">
         <v>2</v>
       </c>
-      <c r="K48" s="31"/>
+      <c r="K48" s="93">
+        <v>0</v>
+      </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="17"/>
@@ -6098,7 +6176,7 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="8" t="str">
-        <f t="array" ref="E50:J51">_xll.flGroupsGet(F44,E20)</f>
+        <f t="array" ref="E50:K51">_xll.flGroupsGet(F44,E20)</f>
         <v>Id Scope</v>
       </c>
       <c r="F50" s="10" t="str">
@@ -6116,7 +6194,9 @@
       <c r="J50" s="7" t="str">
         <v>Portfolios</v>
       </c>
-      <c r="K50" s="10"/>
+      <c r="K50" s="10" t="str">
+        <v>SubGroups</v>
+      </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6139,13 +6219,15 @@
       <c r="H51" s="31" t="str">
         <v>Contains Finbourne Examples portfolios</v>
       </c>
-      <c r="I51" s="15">
-        <v>0</v>
+      <c r="I51" s="89">
+        <v>43565</v>
       </c>
       <c r="J51" s="97">
         <v>2</v>
       </c>
-      <c r="K51" s="31"/>
+      <c r="K51" s="93">
+        <v>1</v>
+      </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6298,20 +6380,26 @@
       <c r="N60" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="E18 E47 E50" xr:uid="{5186502B-0030-407B-92E0-ECD8ADE97953}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Base Currency" sqref="K18 F38:J38" xr:uid="{45CB02F2-CB9C-492E-BDDE-04F194963C03}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Created" sqref="K47 K50" xr:uid="{289CB227-8390-43BD-999F-17E47A839971}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Description" sqref="J18 J47 J50" xr:uid="{EA1B5B86-0172-4AA2-A0FC-99BAA99595A1}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Display Name" sqref="I18 I47 I50" xr:uid="{1CB0A25E-0226-4A11-87F4-37E8F63B24ED}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sub-Holding Keys" sqref="H18 H47 H50" xr:uid="{B548E53C-5468-47F2-AB40-A144599BD804}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Accounting Method" sqref="G18 G47 G50" xr:uid="{B0BB2118-452B-4B46-BEBA-B2B04C5744C6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Corporate Action Source" sqref="F18 F47 F50" xr:uid="{E036C10F-2195-400C-A017-D13C52B1130A}"/>
+  <dataValidations count="14">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Date Created" sqref="K47 K50" xr:uid="{CF6E73C8-C6CC-4E1F-B31D-0C3BA0AED0A0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Code" sqref="E18 E47 E50" xr:uid="{8F7E0C9C-908F-4F16-9066-30E25D7F3F55}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Description" sqref="J18 J47 J50" xr:uid="{372464DE-4B41-43DB-90AA-BAADBC4662F3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Display Name" sqref="I18 I47 I50" xr:uid="{ABDA4714-EF12-4BDB-AA86-B0D1839FD4E1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sub-Holding Keys" sqref="H18 H47 H50" xr:uid="{40F5163A-8EB9-4395-9E22-A325C85848D4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Accounting Method" sqref="G18 G47 G50" xr:uid="{A856F8A6-D426-4FDB-AE0E-7859AB6C0F44}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Corporate Action Source" sqref="F18 F47 F50" xr:uid="{60439F01-1A55-4D13-B220-610E1670768A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolio groups to be contained within the portfolio group as sub groups." sqref="T17" xr:uid="{D611C942-0C4E-45A3-8C17-C64BFB989640}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="A long form description of the portfolio group." sqref="S17" xr:uid="{9BD6BE4D-7982-44DD-B01D-5CBC0761BB5A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The resource identifiers of the portfolios to be contained within the portfolio group." sqref="R17" xr:uid="{DC0DF230-2887-4F49-AE31-0D392B15172E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The effective datetime at which the portfolio group was created. Defaults to the current LUSID system datetime if not specified." sqref="Q17" xr:uid="{0D0B07A1-3818-4994-B83D-367B4657D90C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The name of the portfolio group." sqref="P17" xr:uid="{B6AD053F-8FD9-4DC7-AA0A-A575B35EA560}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="The code that the portfolio group will be created with. Together with the scope this uniquely identifies the portfolio group." sqref="O17" xr:uid="{DD418320-B1D5-4625-AEC8-238E32CC7F7B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Base Currency" sqref="K18 F38:J38" xr:uid="{1F5B868D-C775-4B19-ABD9-86BB5E2F0A8F}"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{44027378-72ED-4435-99AC-4D1C18747C76}"/>
-    <hyperlink ref="E8" r:id="rId2" xr:uid="{9EE20633-3E9F-4C3A-8AB1-FD7E8EA3B780}"/>
-    <hyperlink ref="E9" r:id="rId3" xr:uid="{8EE80CA1-D668-4B9C-8203-F1A85DD1E86F}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{2A287440-C469-40B4-A7BD-EC8F4DC3C5D9}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{AD6BF5E8-4515-4AB6-AE44-DC8DE3B950A9}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{3C341890-18C2-428F-8272-AAA3BFA01076}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -7250,9 +7338,7 @@
   </sheetPr>
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7473,7 +7559,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="30" t="str">
-        <v>portfolio_demo</v>
+        <v>Finbourne-Examples</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="2"/>
@@ -7490,8 +7576,8 @@
       <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D17" s="30" t="str">
-        <v>Production-client</v>
+      <c r="D17" s="30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E17" s="46"/>
       <c r="F17" s="2"/>
@@ -7508,8 +7594,8 @@
       <c r="C18" s="12">
         <v>3</v>
       </c>
-      <c r="D18" s="30" t="str">
-        <v>Test-client</v>
+      <c r="D18" s="30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="2"/>
@@ -7526,8 +7612,8 @@
       <c r="C19" s="12">
         <v>4</v>
       </c>
-      <c r="D19" s="30" t="str">
-        <v>PembertonMain</v>
+      <c r="D19" s="30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="2"/>
@@ -7544,8 +7630,8 @@
       <c r="C20" s="12">
         <v>5</v>
       </c>
-      <c r="D20" s="30" t="str">
-        <v>FinbourneExamples</v>
+      <c r="D20" s="30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="2"/>
@@ -7562,8 +7648,8 @@
       <c r="C21" s="12">
         <v>6</v>
       </c>
-      <c r="D21" s="30" t="str">
-        <v>default</v>
+      <c r="D21" s="30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E21" s="46"/>
       <c r="F21" s="2"/>
@@ -7580,8 +7666,8 @@
       <c r="C22" s="12">
         <v>7</v>
       </c>
-      <c r="D22" s="30" t="str">
-        <v>Finbourne-Examples</v>
+      <c r="D22" s="30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E22" s="46"/>
       <c r="F22" s="2"/>
@@ -7598,8 +7684,8 @@
       <c r="C23" s="12">
         <v>8</v>
       </c>
-      <c r="D23" s="30" t="str">
-        <v>FinbourneBondVillains</v>
+      <c r="D23" s="30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="2"/>
@@ -7616,8 +7702,8 @@
       <c r="C24" s="12">
         <v>9</v>
       </c>
-      <c r="D24" s="30" t="str">
-        <v>Pemberton</v>
+      <c r="D24" s="30" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="2"/>
@@ -7697,9 +7783,7 @@
   </sheetPr>
   <dimension ref="B1:S92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8207,16 +8291,16 @@
         <v>Finbourne-Examples</v>
       </c>
       <c r="G30" s="29" t="str">
-        <v>US-Corporate-Bond</v>
+        <v>Global-Equity</v>
       </c>
       <c r="H30" s="29" t="str">
-        <v>US Corporate Bond Fund</v>
-      </c>
-      <c r="I30" s="30">
-        <v>0</v>
+        <v>Global Equity Fund</v>
+      </c>
+      <c r="I30" s="30" t="str">
+        <v>Global equity portfolio</v>
       </c>
       <c r="J30" s="69">
-        <v>43466</v>
+        <v>43565</v>
       </c>
       <c r="K30" s="70">
         <v>0</v>
@@ -8252,7 +8336,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="69">
-        <v>43466</v>
+        <v>43565</v>
       </c>
       <c r="K31" s="70">
         <v>0</v>
@@ -8279,16 +8363,16 @@
         <v>Finbourne-Examples</v>
       </c>
       <c r="G32" s="29" t="str">
-        <v>UK-Equities</v>
+        <v>US-Corporate-Bond</v>
       </c>
       <c r="H32" s="29" t="str">
-        <v>UK Equity Fund</v>
+        <v>US Corporate Bond Fund</v>
       </c>
       <c r="I32" s="30">
         <v>0</v>
       </c>
       <c r="J32" s="69">
-        <v>43466</v>
+        <v>43565</v>
       </c>
       <c r="K32" s="70">
         <v>0</v>
@@ -8315,16 +8399,16 @@
         <v>Finbourne-Examples</v>
       </c>
       <c r="G33" s="29" t="str">
-        <v>Global-Equity</v>
+        <v>UK-Equities</v>
       </c>
       <c r="H33" s="29" t="str">
-        <v>Global Equity Fund</v>
+        <v>UK Equity Fund</v>
       </c>
       <c r="I33" s="30">
         <v>0</v>
       </c>
       <c r="J33" s="69">
-        <v>43466</v>
+        <v>43565</v>
       </c>
       <c r="K33" s="70">
         <v>0</v>
@@ -8343,32 +8427,32 @@
       <c r="D34" s="12">
         <v>5</v>
       </c>
-      <c r="E34" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F34" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G34" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H34" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I34" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J34" s="69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K34" s="70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L34" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M34" s="29" t="e">
-        <v>#N/A</v>
+      <c r="E34" s="30" t="str">
+        <v/>
+      </c>
+      <c r="F34" s="29" t="str">
+        <v/>
+      </c>
+      <c r="G34" s="29" t="str">
+        <v/>
+      </c>
+      <c r="H34" s="29" t="str">
+        <v/>
+      </c>
+      <c r="I34" s="30" t="str">
+        <v/>
+      </c>
+      <c r="J34" s="69" t="str">
+        <v/>
+      </c>
+      <c r="K34" s="70" t="str">
+        <v/>
+      </c>
+      <c r="L34" s="29" t="str">
+        <v/>
+      </c>
+      <c r="M34" s="29" t="str">
+        <v/>
       </c>
       <c r="N34" s="2"/>
     </row>
@@ -8378,32 +8462,32 @@
       <c r="D35" s="12">
         <v>6</v>
       </c>
-      <c r="E35" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F35" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G35" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H35" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I35" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J35" s="69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K35" s="70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L35" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M35" s="29" t="e">
-        <v>#N/A</v>
+      <c r="E35" s="30" t="str">
+        <v/>
+      </c>
+      <c r="F35" s="29" t="str">
+        <v/>
+      </c>
+      <c r="G35" s="29" t="str">
+        <v/>
+      </c>
+      <c r="H35" s="29" t="str">
+        <v/>
+      </c>
+      <c r="I35" s="30" t="str">
+        <v/>
+      </c>
+      <c r="J35" s="69" t="str">
+        <v/>
+      </c>
+      <c r="K35" s="70" t="str">
+        <v/>
+      </c>
+      <c r="L35" s="29" t="str">
+        <v/>
+      </c>
+      <c r="M35" s="29" t="str">
+        <v/>
       </c>
       <c r="N35" s="2"/>
     </row>
@@ -8575,10 +8659,10 @@
         <v>Transaction</v>
       </c>
       <c r="F46" s="29" t="str">
-        <v>Global Equity Fund</v>
+        <v>US Corporate Bond Fund</v>
       </c>
       <c r="G46" s="69">
-        <v>43466</v>
+        <v>43565</v>
       </c>
       <c r="H46" s="29" t="b">
         <v>0</v>
@@ -8601,10 +8685,10 @@
         <v>Transaction</v>
       </c>
       <c r="F47" s="29" t="str">
-        <v>US$ Treasury Bond Fund</v>
+        <v>Global Equity Fund</v>
       </c>
       <c r="G47" s="69">
-        <v>43466</v>
+        <v>43565</v>
       </c>
       <c r="H47" s="29" t="b">
         <v>0</v>
@@ -8627,10 +8711,10 @@
         <v>Transaction</v>
       </c>
       <c r="F48" s="29" t="str">
-        <v>UK Equity Fund</v>
+        <v>US$ Treasury Bond Fund</v>
       </c>
       <c r="G48" s="69">
-        <v>43466</v>
+        <v>43565</v>
       </c>
       <c r="H48" s="29" t="b">
         <v>0</v>
@@ -8653,10 +8737,10 @@
         <v>Transaction</v>
       </c>
       <c r="F49" s="29" t="str">
-        <v>US Corporate Bond Fund</v>
+        <v>UK Equity Fund</v>
       </c>
       <c r="G49" s="69">
-        <v>43466</v>
+        <v>43565</v>
       </c>
       <c r="H49" s="29" t="b">
         <v>0</v>
@@ -8675,17 +8759,17 @@
       <c r="D50" s="12">
         <v>5</v>
       </c>
-      <c r="E50" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F50" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G50" s="71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H50" s="29" t="e">
-        <v>#N/A</v>
+      <c r="E50" s="30" t="str">
+        <v/>
+      </c>
+      <c r="F50" s="29" t="str">
+        <v/>
+      </c>
+      <c r="G50" s="71" t="str">
+        <v/>
+      </c>
+      <c r="H50" s="29" t="str">
+        <v/>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -8700,17 +8784,17 @@
       <c r="D51" s="12">
         <v>6</v>
       </c>
-      <c r="E51" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F51" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G51" s="71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H51" s="29" t="e">
-        <v>#N/A</v>
+      <c r="E51" s="30" t="str">
+        <v/>
+      </c>
+      <c r="F51" s="29" t="str">
+        <v/>
+      </c>
+      <c r="G51" s="71" t="str">
+        <v/>
+      </c>
+      <c r="H51" s="29" t="str">
+        <v/>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -8725,17 +8809,17 @@
       <c r="D52" s="12">
         <v>7</v>
       </c>
-      <c r="E52" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F52" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G52" s="71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H52" s="29" t="e">
-        <v>#N/A</v>
+      <c r="E52" s="30" t="str">
+        <v/>
+      </c>
+      <c r="F52" s="29" t="str">
+        <v/>
+      </c>
+      <c r="G52" s="71" t="str">
+        <v/>
+      </c>
+      <c r="H52" s="29" t="str">
+        <v/>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -8750,17 +8834,17 @@
       <c r="D53" s="12">
         <v>8</v>
       </c>
-      <c r="E53" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F53" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G53" s="71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H53" s="29" t="e">
-        <v>#N/A</v>
+      <c r="E53" s="30" t="str">
+        <v/>
+      </c>
+      <c r="F53" s="29" t="str">
+        <v/>
+      </c>
+      <c r="G53" s="71" t="str">
+        <v/>
+      </c>
+      <c r="H53" s="29" t="str">
+        <v/>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -8775,17 +8859,17 @@
       <c r="D54" s="12">
         <v>9</v>
       </c>
-      <c r="E54" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F54" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G54" s="71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H54" s="29" t="e">
-        <v>#N/A</v>
+      <c r="E54" s="30" t="str">
+        <v/>
+      </c>
+      <c r="F54" s="29" t="str">
+        <v/>
+      </c>
+      <c r="G54" s="71" t="str">
+        <v/>
+      </c>
+      <c r="H54" s="29" t="str">
+        <v/>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -8800,17 +8884,17 @@
       <c r="D55" s="12">
         <v>10</v>
       </c>
-      <c r="E55" s="30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F55" s="29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G55" s="71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H55" s="29" t="e">
-        <v>#N/A</v>
+      <c r="E55" s="30" t="str">
+        <v/>
+      </c>
+      <c r="F55" s="29" t="str">
+        <v/>
+      </c>
+      <c r="G55" s="71" t="str">
+        <v/>
+      </c>
+      <c r="H55" s="29" t="str">
+        <v/>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -8939,9 +9023,7 @@
   </sheetPr>
   <dimension ref="B1:S52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9433,28 +9515,28 @@
         <v>1</v>
       </c>
       <c r="E32" s="16" t="str">
-        <v>LUID_RVXW0J4Z</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F32" s="16" t="str">
-        <v>P</v>
-      </c>
-      <c r="G32" s="50">
-        <v>12000751</v>
-      </c>
-      <c r="H32" s="52">
-        <v>12000751</v>
-      </c>
-      <c r="I32" s="52">
-        <v>2390874215.0599999</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G32" s="50" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H32" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I32" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J32" s="28" t="str">
-        <v>USD</v>
-      </c>
-      <c r="K32" s="51">
-        <v>1822715424</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K32" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L32" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M32" s="2"/>
       <c r="P32" s="33"/>
@@ -9466,28 +9548,28 @@
         <v>2</v>
       </c>
       <c r="E33" s="15" t="str">
-        <v>LUID_UX4RG8N5</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F33" s="16" t="str">
-        <v>P</v>
-      </c>
-      <c r="G33" s="50">
-        <v>8700000</v>
-      </c>
-      <c r="H33" s="52">
-        <v>8700000</v>
-      </c>
-      <c r="I33" s="52">
-        <v>1378950000</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G33" s="50" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H33" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I33" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J33" s="28" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="K33" s="51">
-        <v>1188862919.8199999</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K33" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L33" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M33" s="2"/>
       <c r="Q33" s="40"/>
@@ -9501,28 +9583,28 @@
         <v>3</v>
       </c>
       <c r="E34" s="15" t="str">
-        <v>LUID_UX4RG8N5</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F34" s="16" t="str">
-        <v>P</v>
-      </c>
-      <c r="G34" s="50">
-        <v>-309726.4705882353</v>
-      </c>
-      <c r="H34" s="52">
-        <v>-309726.4705882353</v>
-      </c>
-      <c r="I34" s="52">
-        <v>-2115741521</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G34" s="50" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H34" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I34" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J34" s="28" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="K34" s="51">
-        <v>0</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K34" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L34" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M34" s="2"/>
       <c r="Q34" s="40"/>
@@ -9536,28 +9618,28 @@
         <v>4</v>
       </c>
       <c r="E35" s="15" t="str">
-        <v>LUID_BVE0REZ5</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F35" s="16" t="str">
-        <v>P</v>
-      </c>
-      <c r="G35" s="50">
-        <v>10530700</v>
-      </c>
-      <c r="H35" s="52">
-        <v>10530700</v>
-      </c>
-      <c r="I35" s="52">
-        <v>71935211700</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G35" s="50" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H35" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I35" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J35" s="28" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="K35" s="51">
-        <v>489629528.97000003</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K35" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L35" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M35" s="2"/>
       <c r="Q35" s="40"/>
@@ -9571,28 +9653,28 @@
         <v>5</v>
       </c>
       <c r="E36" s="15" t="str">
-        <v>LUID_BVE0REZ5</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F36" s="16" t="str">
-        <v>P</v>
-      </c>
-      <c r="G36" s="50">
-        <v>455882.35294117645</v>
-      </c>
-      <c r="H36" s="52">
-        <v>455882.35294117645</v>
-      </c>
-      <c r="I36" s="52">
-        <v>35846029.409999996</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G36" s="50" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H36" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I36" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J36" s="28" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="K36" s="51">
-        <v>0</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K36" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L36" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M36" s="2"/>
       <c r="Q36" s="40"/>
@@ -9606,28 +9688,28 @@
         <v>6</v>
       </c>
       <c r="E37" s="15" t="str">
-        <v>LUID_9SBVLHHA</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F37" s="16" t="str">
-        <v>P</v>
-      </c>
-      <c r="G37" s="50">
-        <v>-8170000</v>
-      </c>
-      <c r="H37" s="52">
-        <v>-8170000</v>
-      </c>
-      <c r="I37" s="52">
-        <v>-1078766800</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G37" s="50" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H37" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I37" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J37" s="28" t="str">
-        <v>USD</v>
-      </c>
-      <c r="K37" s="51">
-        <v>-822451808.32000005</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K37" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L37" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M37" s="2"/>
       <c r="O37" s="34"/>
@@ -9642,28 +9724,28 @@
         <v>7</v>
       </c>
       <c r="E38" s="15" t="str">
-        <v>LUID_9SBVLHHA</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F38" s="16" t="str">
-        <v>P</v>
-      </c>
-      <c r="G38" s="50">
-        <v>-21470.588235294119</v>
-      </c>
-      <c r="H38" s="52">
-        <v>-21470.588235294119</v>
-      </c>
-      <c r="I38" s="52">
-        <v>-14082558.82</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G38" s="50" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H38" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I38" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J38" s="28" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="K38" s="51">
-        <v>0</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K38" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L38" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M38" s="2"/>
       <c r="Q38" s="40"/>
@@ -9677,28 +9759,28 @@
         <v>8</v>
       </c>
       <c r="E39" s="15" t="str">
-        <v>LUID_JFJASSYO</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F39" s="16" t="str">
-        <v>P</v>
-      </c>
-      <c r="G39" s="50">
-        <v>10859705.882352941</v>
-      </c>
-      <c r="H39" s="52">
-        <v>10859705.882352941</v>
-      </c>
-      <c r="I39" s="52">
-        <v>1314567397.0599999</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G39" s="50" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H39" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I39" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J39" s="28" t="str">
-        <v>USD</v>
-      </c>
-      <c r="K39" s="51">
-        <v>1002226183.52</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K39" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L39" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M39" s="2"/>
       <c r="Q39" s="40"/>
@@ -9712,28 +9794,28 @@
         <v>9</v>
       </c>
       <c r="E40" s="15" t="str">
-        <v>LUID_HP2NME8I</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F40" s="16" t="str">
-        <v>P</v>
-      </c>
-      <c r="G40" s="50">
-        <v>730000</v>
-      </c>
-      <c r="H40" s="52">
-        <v>730000</v>
-      </c>
-      <c r="I40" s="52">
-        <v>478807000</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G40" s="50" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H40" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I40" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J40" s="28" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="K40" s="51">
-        <v>478807000</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K40" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L40" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M40" s="2"/>
       <c r="Q40" s="40"/>
@@ -9747,28 +9829,28 @@
         <v>10</v>
       </c>
       <c r="E41" s="15" t="str">
-        <v>LUID_HP2NME8I</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F41" s="16" t="str">
-        <v>P</v>
-      </c>
-      <c r="G41" s="50">
-        <v>-255882.35294117648</v>
-      </c>
-      <c r="H41" s="52">
-        <v>-255882.35294117648</v>
-      </c>
-      <c r="I41" s="52">
-        <v>-40557352.939999998</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G41" s="50" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H41" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I41" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J41" s="28" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="K41" s="51">
-        <v>0</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K41" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L41" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M41" s="2"/>
       <c r="Q41" s="40"/>
@@ -9781,28 +9863,28 @@
         <v>11</v>
       </c>
       <c r="E42" s="15" t="str">
-        <v>LUID_XUE1ELEX</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F42" s="88" t="str">
-        <v>P</v>
-      </c>
-      <c r="G42" s="86">
-        <v>2320000</v>
-      </c>
-      <c r="H42" s="52">
-        <v>2320000</v>
-      </c>
-      <c r="I42" s="52">
-        <v>1322168000</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G42" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H42" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I42" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J42" s="83" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="K42" s="51">
-        <v>1322168000</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K42" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L42" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M42" s="2"/>
       <c r="Q42" s="40"/>
@@ -9814,28 +9896,28 @@
         <v>12</v>
       </c>
       <c r="E43" s="15" t="str">
-        <v>LUID_XUE1ELEX</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F43" s="88" t="str">
-        <v>P</v>
-      </c>
-      <c r="G43" s="86">
-        <v>617647.0588235294</v>
-      </c>
-      <c r="H43" s="52">
-        <v>617647.0588235294</v>
-      </c>
-      <c r="I43" s="52">
-        <v>67904117.650000006</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G43" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H43" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I43" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J43" s="83" t="str">
-        <v>USD</v>
-      </c>
-      <c r="K43" s="51">
-        <v>0</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K43" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L43" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M43" s="2"/>
       <c r="Q43" s="40"/>
@@ -9846,28 +9928,28 @@
         <v>13</v>
       </c>
       <c r="E44" s="15" t="str">
-        <v>LUID_0UK37N0H</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F44" s="88" t="str">
-        <v>P</v>
-      </c>
-      <c r="G44" s="86">
-        <v>8300000</v>
-      </c>
-      <c r="H44" s="52">
-        <v>8300000</v>
-      </c>
-      <c r="I44" s="52">
-        <v>98147500000</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G44" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H44" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I44" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J44" s="83" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="K44" s="51">
-        <v>668044384.09000003</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K44" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L44" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M44" s="2"/>
     </row>
@@ -9877,28 +9959,28 @@
         <v>14</v>
       </c>
       <c r="E45" s="15" t="str">
-        <v>LUID_T2QB43BD</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F45" s="88" t="str">
-        <v>P</v>
-      </c>
-      <c r="G45" s="86">
-        <v>21352941.176470589</v>
-      </c>
-      <c r="H45" s="52">
-        <v>21352941.176470589</v>
-      </c>
-      <c r="I45" s="52">
-        <v>2379056470.5900002</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G45" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H45" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I45" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J45" s="83" t="str">
-        <v>USD</v>
-      </c>
-      <c r="K45" s="51">
-        <v>1760183376</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K45" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L45" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M45" s="2"/>
     </row>
@@ -9908,28 +9990,28 @@
         <v>15</v>
       </c>
       <c r="E46" s="15" t="str">
-        <v>LUID_DDZQNCD6</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F46" s="88" t="str">
-        <v>P</v>
-      </c>
-      <c r="G46" s="86">
-        <v>15500000</v>
-      </c>
-      <c r="H46" s="52">
-        <v>15500000</v>
-      </c>
-      <c r="I46" s="52">
-        <v>1218765000</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G46" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H46" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I46" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J46" s="83" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="K46" s="51">
-        <v>1050759285.3099999</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K46" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L46" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M46" s="2"/>
     </row>
@@ -9939,28 +10021,28 @@
         <v>16</v>
       </c>
       <c r="E47" s="15" t="str">
-        <v>LUID_DDZQNCD6</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F47" s="88" t="str">
-        <v>P</v>
-      </c>
-      <c r="G47" s="86">
-        <v>68235.294117647063</v>
-      </c>
-      <c r="H47" s="52">
-        <v>68235.294117647063</v>
-      </c>
-      <c r="I47" s="52">
-        <v>38887294.119999997</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G47" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H47" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I47" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J47" s="83" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="K47" s="51">
-        <v>0</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K47" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L47" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M47" s="2"/>
     </row>
@@ -9970,28 +10052,28 @@
         <v>17</v>
       </c>
       <c r="E48" s="15" t="str">
-        <v>CCY_USD</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F48" s="88" t="str">
-        <v>B</v>
-      </c>
-      <c r="G48" s="86">
-        <v>-106641774.67117646</v>
-      </c>
-      <c r="H48" s="52">
-        <v>-106641774.67117646</v>
-      </c>
-      <c r="I48" s="52">
-        <v>-106641774.67</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G48" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H48" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I48" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J48" s="83" t="str">
-        <v>USD</v>
-      </c>
-      <c r="K48" s="51">
-        <v>0</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K48" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L48" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M48" s="2"/>
     </row>
@@ -10001,28 +10083,28 @@
         <v>18</v>
       </c>
       <c r="E49" s="15" t="str">
-        <v>CCY_GBP</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F49" s="88" t="str">
-        <v>B</v>
-      </c>
-      <c r="G49" s="86">
-        <v>-24804735.294117648</v>
-      </c>
-      <c r="H49" s="52">
-        <v>-24804735.294117648</v>
-      </c>
-      <c r="I49" s="52">
-        <v>-24804735.300000001</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G49" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H49" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I49" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J49" s="83" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="K49" s="51">
-        <v>0</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K49" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L49" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M49" s="2"/>
     </row>
@@ -10032,28 +10114,28 @@
         <v>19</v>
       </c>
       <c r="E50" s="15" t="str">
-        <v>CCY_EUR</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F50" s="88" t="str">
-        <v>B</v>
-      </c>
-      <c r="G50" s="86">
-        <v>4711323.5294117741</v>
-      </c>
-      <c r="H50" s="52">
-        <v>4711323.5294117741</v>
-      </c>
-      <c r="I50" s="52">
-        <v>4711323.53</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G50" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H50" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I50" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J50" s="83" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="K50" s="51">
-        <v>0</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K50" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L50" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M50" s="2"/>
     </row>
@@ -10063,28 +10145,28 @@
         <v>20</v>
       </c>
       <c r="E51" s="15" t="str">
-        <v>CCY_JPY</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F51" s="88" t="str">
-        <v>B</v>
-      </c>
-      <c r="G51" s="86">
-        <v>2115741520.5882354</v>
-      </c>
-      <c r="H51" s="52">
-        <v>2115741520.5882354</v>
-      </c>
-      <c r="I51" s="52">
-        <v>2115741521</v>
+        <v>HoldingType</v>
+      </c>
+      <c r="G51" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="H51" s="52" t="str">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I51" s="52" t="str">
+        <v>Cost Amount</v>
       </c>
       <c r="J51" s="83" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="K51" s="51">
-        <v>0</v>
+        <v>Cost Currency</v>
+      </c>
+      <c r="K51" s="51" t="str">
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L51" s="51" t="str">
-        <v>GBP</v>
+        <v>CostPortfolioCcy Currency</v>
       </c>
       <c r="M51" s="2"/>
     </row>
@@ -10131,9 +10213,7 @@
   </sheetPr>
   <dimension ref="B1:P79"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10574,13 +10654,13 @@
       <c r="D28" s="2"/>
       <c r="E28" s="68" t="str">
         <f t="array" ref="E28:G39">_xll.flAggregatePortfolio(F17,F19,I28:J34,J35)</f>
-        <v>PVSum</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="F28" s="68" t="str">
-        <v>PVProportion</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G28" s="66" t="str">
-        <v>Name</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="66" t="s">
@@ -10598,14 +10678,14 @@
       <c r="B29" s="12"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="72">
-        <v>1880603871.0936821</v>
-      </c>
-      <c r="F29" s="73">
-        <v>0.20395092596523573</v>
+      <c r="E29" s="72" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
+      </c>
+      <c r="F29" s="73" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G29" s="74" t="str">
-        <v>Apple</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="29" t="s">
@@ -10621,14 +10701,14 @@
       <c r="B30" s="12"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="72">
-        <v>1252860850.1068258</v>
-      </c>
-      <c r="F30" s="73">
-        <v>0.13587238355320322</v>
+      <c r="E30" s="72" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
+      </c>
+      <c r="F30" s="73" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G30" s="74" t="str">
-        <v>Volkswagen</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="29" t="s">
@@ -10644,14 +10724,14 @@
       <c r="B31" s="12"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="72">
-        <v>503438109.29149431</v>
-      </c>
-      <c r="F31" s="73">
-        <v>5.4597712008576944E-2</v>
+      <c r="E31" s="72" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
+      </c>
+      <c r="F31" s="73" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G31" s="74" t="str">
-        <v>Toyota Motor</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="29" t="s">
@@ -10670,14 +10750,14 @@
       <c r="B32" s="12"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="72">
-        <v>-831822953.54999995</v>
-      </c>
-      <c r="F32" s="73">
-        <v>-9.0210949909933807E-2</v>
+      <c r="E32" s="72" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
+      </c>
+      <c r="F32" s="73" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G32" s="74" t="str">
-        <v>Walt Disney</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="29" t="s">
@@ -10697,14 +10777,14 @@
       <c r="B33" s="12"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="72">
-        <v>1052663160.9</v>
-      </c>
-      <c r="F33" s="73">
-        <v>0.11416100418329517</v>
+      <c r="E33" s="72" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
+      </c>
+      <c r="F33" s="73" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G33" s="74" t="str">
-        <v>Microsoft</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="29" t="s">
@@ -10724,14 +10804,14 @@
       <c r="B34" s="12"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="72">
-        <v>486545000</v>
-      </c>
-      <c r="F34" s="73">
-        <v>5.2765659370916193E-2</v>
+      <c r="E34" s="72" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
+      </c>
+      <c r="F34" s="73" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G34" s="74" t="str">
-        <v>HSBC Holdings</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="29" t="s">
@@ -10749,14 +10829,14 @@
       <c r="B35" s="12"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="72">
-        <v>1317064000</v>
-      </c>
-      <c r="F35" s="73">
-        <v>0.14283519590931232</v>
+      <c r="E35" s="72" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
+      </c>
+      <c r="F35" s="73" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G35" s="74" t="str">
-        <v>BP</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="29" t="s">
@@ -10776,14 +10856,14 @@
       <c r="B36" s="12"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="72">
-        <v>658379731.12552786</v>
-      </c>
-      <c r="F36" s="73">
-        <v>7.140108444087391E-2</v>
+      <c r="E36" s="72" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
+      </c>
+      <c r="F36" s="73" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G36" s="74" t="str">
-        <v>Softbank</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="29"/>
@@ -10799,14 +10879,14 @@
       <c r="B37" s="12"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="72">
-        <v>1831550742</v>
-      </c>
-      <c r="F37" s="73">
-        <v>0.19863112882245385</v>
+      <c r="E37" s="72" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
+      </c>
+      <c r="F37" s="73" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G37" s="74" t="str">
-        <v>JPMorgan Chase</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="29"/>
@@ -10822,14 +10902,14 @@
       <c r="B38" s="12"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="72">
-        <v>1069697092.0949062</v>
-      </c>
-      <c r="F38" s="73">
-        <v>0.1160083289141588</v>
+      <c r="E38" s="72" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
+      </c>
+      <c r="F38" s="73" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G38" s="74" t="str">
-        <v>Anheuser-Busch InBev</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="29"/>
@@ -10845,14 +10925,14 @@
       <c r="B39" s="12"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="72">
-        <v>-115014.22385099999</v>
-      </c>
-      <c r="F39" s="73">
-        <v>-1.2473258092328912E-5</v>
+      <c r="E39" s="72" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
+      </c>
+      <c r="F39" s="73" t="str">
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="G39" s="74" t="str">
-        <v>USD</v>
+        <v>#ERROR: Sequence contains no elements</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="29"/>
@@ -11048,11 +11128,11 @@
       <c r="H51" s="68" t="str">
         <v>Name</v>
       </c>
-      <c r="I51" s="66" t="str">
-        <v>Figi</v>
-      </c>
-      <c r="J51" s="66" t="str">
-        <v>ClientInternal</v>
+      <c r="I51" s="66" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J51" s="66" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="36"/>
@@ -11065,19 +11145,19 @@
         <v>232</v>
       </c>
       <c r="F52" s="29" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G52" s="29" t="str">
-        <v>LUID_RVXW0J4Z</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H52" s="74" t="str">
-        <v>Apple</v>
-      </c>
-      <c r="I52" s="74" t="str">
-        <v>BBG000B9XRY4</v>
-      </c>
-      <c r="J52" s="78" t="str">
-        <v>ExcelID1</v>
+        <v>Name</v>
+      </c>
+      <c r="I52" s="74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J52" s="78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="36"/>
@@ -11090,19 +11170,19 @@
         <v>233</v>
       </c>
       <c r="F53" s="29" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G53" s="29" t="str">
-        <v>LUID_T2QB43BD</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H53" s="74" t="str">
-        <v>JPMorgan Chase</v>
-      </c>
-      <c r="I53" s="74" t="str">
-        <v>BBG000DMBXR2</v>
-      </c>
-      <c r="J53" s="78">
-        <v>0</v>
+        <v>Name</v>
+      </c>
+      <c r="I53" s="74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J53" s="78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="36"/>
@@ -11115,19 +11195,19 @@
         <v>234</v>
       </c>
       <c r="F54" s="29" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G54" s="29" t="str">
-        <v>LUID_XUE1ELEX</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H54" s="74" t="str">
-        <v>BP</v>
-      </c>
-      <c r="I54" s="74" t="str">
-        <v>BBG000C059M6</v>
-      </c>
-      <c r="J54" s="78">
-        <v>0</v>
+        <v>Name</v>
+      </c>
+      <c r="I54" s="74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J54" s="78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="36"/>
@@ -11140,19 +11220,19 @@
         <v>235</v>
       </c>
       <c r="F55" s="29" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G55" s="29" t="str">
-        <v>LUID_DDZQNCD6</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H55" s="74" t="str">
-        <v>Anheuser-Busch InBev</v>
-      </c>
-      <c r="I55" s="74" t="str">
-        <v>BBG00DQ4YZ36</v>
-      </c>
-      <c r="J55" s="78">
-        <v>0</v>
+        <v>Name</v>
+      </c>
+      <c r="I55" s="74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J55" s="78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="36"/>
@@ -11165,19 +11245,19 @@
         <v>236</v>
       </c>
       <c r="F56" s="29" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G56" s="29" t="str">
-        <v>LUID_BVE0REZ5</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H56" s="74" t="str">
-        <v>Toyota Motor</v>
-      </c>
-      <c r="I56" s="74" t="str">
-        <v>BBG000BCM915</v>
-      </c>
-      <c r="J56" s="78">
-        <v>0</v>
+        <v>Name</v>
+      </c>
+      <c r="I56" s="74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J56" s="78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="36"/>
@@ -11190,19 +11270,19 @@
         <v>237</v>
       </c>
       <c r="F57" s="29" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G57" s="29" t="str">
-        <v>LUID_UX4RG8N5</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H57" s="74" t="str">
-        <v>Volkswagen</v>
-      </c>
-      <c r="I57" s="74" t="str">
-        <v>BBG000BCH458</v>
-      </c>
-      <c r="J57" s="78">
-        <v>0</v>
+        <v>Name</v>
+      </c>
+      <c r="I57" s="74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J57" s="78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="36"/>
@@ -11215,19 +11295,19 @@
         <v>238</v>
       </c>
       <c r="F58" s="29" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G58" s="29" t="str">
-        <v>LUID_HP2NME8I</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H58" s="74" t="str">
-        <v>HSBC Holdings</v>
-      </c>
-      <c r="I58" s="74" t="str">
-        <v>BBG000BS1MT4</v>
-      </c>
-      <c r="J58" s="78">
-        <v>0</v>
+        <v>Name</v>
+      </c>
+      <c r="I58" s="74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J58" s="78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="36"/>
@@ -11240,19 +11320,19 @@
         <v>239</v>
       </c>
       <c r="F59" s="29" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G59" s="29" t="str">
-        <v>LUID_9SBVLHHA</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H59" s="74" t="str">
-        <v>Walt Disney</v>
-      </c>
-      <c r="I59" s="74" t="str">
-        <v>BBG000BH4R78</v>
-      </c>
-      <c r="J59" s="78" t="str">
-        <v>ExcelID22</v>
+        <v>Name</v>
+      </c>
+      <c r="I59" s="74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J59" s="78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="36"/>
@@ -11265,19 +11345,19 @@
         <v>240</v>
       </c>
       <c r="F60" s="29" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G60" s="29" t="str">
-        <v>LUID_JFJASSYO</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H60" s="74" t="str">
-        <v>Microsoft</v>
-      </c>
-      <c r="I60" s="74" t="str">
-        <v>BBG000BPH459</v>
-      </c>
-      <c r="J60" s="78">
-        <v>0</v>
+        <v>Name</v>
+      </c>
+      <c r="I60" s="74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J60" s="78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="36"/>
@@ -11290,19 +11370,19 @@
         <v>241</v>
       </c>
       <c r="F61" s="29" t="str">
-        <v>Active</v>
+        <v>State</v>
       </c>
       <c r="G61" s="29" t="str">
-        <v>LUID_0UK37N0H</v>
+        <v>LusidInstrumentId</v>
       </c>
       <c r="H61" s="74" t="str">
-        <v>Softbank</v>
-      </c>
-      <c r="I61" s="74" t="str">
-        <v>BBG000CLY2D3</v>
-      </c>
-      <c r="J61" s="78">
-        <v>0</v>
+        <v>Name</v>
+      </c>
+      <c r="I61" s="74" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J61" s="78" t="e">
+        <v>#N/A</v>
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="36"/>
@@ -11447,47 +11527,47 @@
       </c>
       <c r="E69" s="29" t="str">
         <f>'View holdings'!E32</f>
-        <v>LUID_RVXW0J4Z</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F69" s="29" t="str">
         <f>'View holdings'!F32</f>
-        <v>P</v>
-      </c>
-      <c r="G69" s="58">
+        <v>HoldingType</v>
+      </c>
+      <c r="G69" s="58" t="str">
         <f>'View holdings'!G32</f>
-        <v>12000751</v>
-      </c>
-      <c r="H69" s="77">
+        <v>Units</v>
+      </c>
+      <c r="H69" s="77" t="str">
         <f>'View holdings'!H32</f>
-        <v>12000751</v>
-      </c>
-      <c r="I69" s="77">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I69" s="77" t="str">
         <f>'View holdings'!I32</f>
-        <v>2390874215.0599999</v>
+        <v>Cost Amount</v>
       </c>
       <c r="J69" s="78" t="str">
         <f>'View holdings'!J32</f>
-        <v>USD</v>
-      </c>
-      <c r="K69" s="79">
+        <v>Cost Currency</v>
+      </c>
+      <c r="K69" s="79" t="str">
         <f>'View holdings'!K32</f>
-        <v>1822715424</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L69" s="80" t="str">
         <f>'View holdings'!L32</f>
-        <v>GBP</v>
-      </c>
-      <c r="M69" s="72">
+        <v>CostPortfolioCcy Currency</v>
+      </c>
+      <c r="M69" s="72" t="e">
         <f>INDEX($E$29:$E$38,MATCH(O69,$G$29:$G$38,0))</f>
-        <v>1880603871.0936821</v>
-      </c>
-      <c r="N69" s="81">
+        <v>#N/A</v>
+      </c>
+      <c r="N69" s="81" t="e">
         <f>INDEX($F$29:$F$38,MATCH(O69,$G$29:$G$38,0))</f>
-        <v>0.20395092596523573</v>
-      </c>
-      <c r="O69" s="74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O69" s="74" t="e">
         <f>INDEX($H$52:$H$61,MATCH(E69,$G$52:$G$61,0))</f>
-        <v>Apple</v>
+        <v>#N/A</v>
       </c>
       <c r="P69" s="2"/>
     </row>
@@ -11499,47 +11579,47 @@
       </c>
       <c r="E70" s="29" t="str">
         <f>'View holdings'!E33</f>
-        <v>LUID_UX4RG8N5</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F70" s="29" t="str">
         <f>'View holdings'!F33</f>
-        <v>P</v>
-      </c>
-      <c r="G70" s="58">
+        <v>HoldingType</v>
+      </c>
+      <c r="G70" s="58" t="str">
         <f>'View holdings'!G33</f>
-        <v>8700000</v>
-      </c>
-      <c r="H70" s="77">
+        <v>Units</v>
+      </c>
+      <c r="H70" s="77" t="str">
         <f>'View holdings'!H33</f>
-        <v>8700000</v>
-      </c>
-      <c r="I70" s="77">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I70" s="77" t="str">
         <f>'View holdings'!I33</f>
-        <v>1378950000</v>
+        <v>Cost Amount</v>
       </c>
       <c r="J70" s="78" t="str">
         <f>'View holdings'!J33</f>
-        <v>EUR</v>
-      </c>
-      <c r="K70" s="79">
+        <v>Cost Currency</v>
+      </c>
+      <c r="K70" s="79" t="str">
         <f>'View holdings'!K33</f>
-        <v>1188862919.8199999</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L70" s="80" t="str">
         <f>'View holdings'!L33</f>
-        <v>GBP</v>
-      </c>
-      <c r="M70" s="72">
+        <v>CostPortfolioCcy Currency</v>
+      </c>
+      <c r="M70" s="72" t="e">
         <f t="shared" ref="M70:M78" si="0">INDEX($E$29:$E$38,MATCH(O70,$G$29:$G$38,0))</f>
-        <v>1252860850.1068258</v>
-      </c>
-      <c r="N70" s="81">
+        <v>#N/A</v>
+      </c>
+      <c r="N70" s="81" t="e">
         <f t="shared" ref="N70:N78" si="1">INDEX($F$29:$F$38,MATCH(O70,$G$29:$G$38,0))</f>
-        <v>0.13587238355320322</v>
-      </c>
-      <c r="O70" s="74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O70" s="74" t="e">
         <f t="shared" ref="O70:O78" si="2">INDEX($H$52:$H$61,MATCH(E70,$G$52:$G$61,0))</f>
-        <v>Volkswagen</v>
+        <v>#N/A</v>
       </c>
       <c r="P70" s="2"/>
     </row>
@@ -11551,47 +11631,47 @@
       </c>
       <c r="E71" s="29" t="str">
         <f>'View holdings'!E34</f>
-        <v>LUID_UX4RG8N5</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F71" s="29" t="str">
         <f>'View holdings'!F34</f>
-        <v>P</v>
-      </c>
-      <c r="G71" s="58">
+        <v>HoldingType</v>
+      </c>
+      <c r="G71" s="58" t="str">
         <f>'View holdings'!G34</f>
-        <v>-309726.4705882353</v>
-      </c>
-      <c r="H71" s="77">
+        <v>Units</v>
+      </c>
+      <c r="H71" s="77" t="str">
         <f>'View holdings'!H34</f>
-        <v>-309726.4705882353</v>
-      </c>
-      <c r="I71" s="77">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I71" s="77" t="str">
         <f>'View holdings'!I34</f>
-        <v>-2115741521</v>
+        <v>Cost Amount</v>
       </c>
       <c r="J71" s="78" t="str">
         <f>'View holdings'!J34</f>
-        <v>JPY</v>
-      </c>
-      <c r="K71" s="79">
+        <v>Cost Currency</v>
+      </c>
+      <c r="K71" s="79" t="str">
         <f>'View holdings'!K34</f>
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L71" s="80" t="str">
         <f>'View holdings'!L34</f>
-        <v>GBP</v>
-      </c>
-      <c r="M71" s="72">
+        <v>CostPortfolioCcy Currency</v>
+      </c>
+      <c r="M71" s="72" t="e">
         <f t="shared" si="0"/>
-        <v>1252860850.1068258</v>
-      </c>
-      <c r="N71" s="81">
+        <v>#N/A</v>
+      </c>
+      <c r="N71" s="81" t="e">
         <f t="shared" si="1"/>
-        <v>0.13587238355320322</v>
-      </c>
-      <c r="O71" s="74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O71" s="74" t="e">
         <f t="shared" si="2"/>
-        <v>Volkswagen</v>
+        <v>#N/A</v>
       </c>
       <c r="P71" s="2"/>
     </row>
@@ -11603,47 +11683,47 @@
       </c>
       <c r="E72" s="29" t="str">
         <f>'View holdings'!E35</f>
-        <v>LUID_BVE0REZ5</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F72" s="29" t="str">
         <f>'View holdings'!F35</f>
-        <v>P</v>
-      </c>
-      <c r="G72" s="58">
+        <v>HoldingType</v>
+      </c>
+      <c r="G72" s="58" t="str">
         <f>'View holdings'!G35</f>
-        <v>10530700</v>
-      </c>
-      <c r="H72" s="77">
+        <v>Units</v>
+      </c>
+      <c r="H72" s="77" t="str">
         <f>'View holdings'!H35</f>
-        <v>10530700</v>
-      </c>
-      <c r="I72" s="77">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I72" s="77" t="str">
         <f>'View holdings'!I35</f>
-        <v>71935211700</v>
+        <v>Cost Amount</v>
       </c>
       <c r="J72" s="78" t="str">
         <f>'View holdings'!J35</f>
-        <v>JPY</v>
-      </c>
-      <c r="K72" s="79">
+        <v>Cost Currency</v>
+      </c>
+      <c r="K72" s="79" t="str">
         <f>'View holdings'!K35</f>
-        <v>489629528.97000003</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L72" s="29" t="str">
         <f>'View holdings'!L35</f>
-        <v>GBP</v>
-      </c>
-      <c r="M72" s="72">
+        <v>CostPortfolioCcy Currency</v>
+      </c>
+      <c r="M72" s="72" t="e">
         <f t="shared" si="0"/>
-        <v>503438109.29149431</v>
-      </c>
-      <c r="N72" s="81">
+        <v>#N/A</v>
+      </c>
+      <c r="N72" s="81" t="e">
         <f t="shared" si="1"/>
-        <v>5.4597712008576944E-2</v>
-      </c>
-      <c r="O72" s="74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O72" s="74" t="e">
         <f t="shared" si="2"/>
-        <v>Toyota Motor</v>
+        <v>#N/A</v>
       </c>
       <c r="P72" s="2"/>
     </row>
@@ -11655,47 +11735,47 @@
       </c>
       <c r="E73" s="29" t="str">
         <f>'View holdings'!E36</f>
-        <v>LUID_BVE0REZ5</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F73" s="29" t="str">
         <f>'View holdings'!F36</f>
-        <v>P</v>
-      </c>
-      <c r="G73" s="58">
+        <v>HoldingType</v>
+      </c>
+      <c r="G73" s="58" t="str">
         <f>'View holdings'!G36</f>
-        <v>455882.35294117645</v>
-      </c>
-      <c r="H73" s="77">
+        <v>Units</v>
+      </c>
+      <c r="H73" s="77" t="str">
         <f>'View holdings'!H36</f>
-        <v>455882.35294117645</v>
-      </c>
-      <c r="I73" s="77">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I73" s="77" t="str">
         <f>'View holdings'!I36</f>
-        <v>35846029.409999996</v>
+        <v>Cost Amount</v>
       </c>
       <c r="J73" s="78" t="str">
         <f>'View holdings'!J36</f>
-        <v>EUR</v>
-      </c>
-      <c r="K73" s="79">
+        <v>Cost Currency</v>
+      </c>
+      <c r="K73" s="79" t="str">
         <f>'View holdings'!K36</f>
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L73" s="29" t="str">
         <f>'View holdings'!L36</f>
-        <v>GBP</v>
-      </c>
-      <c r="M73" s="72">
+        <v>CostPortfolioCcy Currency</v>
+      </c>
+      <c r="M73" s="72" t="e">
         <f t="shared" si="0"/>
-        <v>503438109.29149431</v>
-      </c>
-      <c r="N73" s="81">
+        <v>#N/A</v>
+      </c>
+      <c r="N73" s="81" t="e">
         <f t="shared" si="1"/>
-        <v>5.4597712008576944E-2</v>
-      </c>
-      <c r="O73" s="74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O73" s="74" t="e">
         <f t="shared" si="2"/>
-        <v>Toyota Motor</v>
+        <v>#N/A</v>
       </c>
       <c r="P73" s="2"/>
     </row>
@@ -11707,47 +11787,47 @@
       </c>
       <c r="E74" s="29" t="str">
         <f>'View holdings'!E37</f>
-        <v>LUID_9SBVLHHA</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F74" s="29" t="str">
         <f>'View holdings'!F37</f>
-        <v>P</v>
-      </c>
-      <c r="G74" s="58">
+        <v>HoldingType</v>
+      </c>
+      <c r="G74" s="58" t="str">
         <f>'View holdings'!G37</f>
-        <v>-8170000</v>
-      </c>
-      <c r="H74" s="77">
+        <v>Units</v>
+      </c>
+      <c r="H74" s="77" t="str">
         <f>'View holdings'!H37</f>
-        <v>-8170000</v>
-      </c>
-      <c r="I74" s="77">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I74" s="77" t="str">
         <f>'View holdings'!I37</f>
-        <v>-1078766800</v>
+        <v>Cost Amount</v>
       </c>
       <c r="J74" s="78" t="str">
         <f>'View holdings'!J37</f>
-        <v>USD</v>
-      </c>
-      <c r="K74" s="79">
+        <v>Cost Currency</v>
+      </c>
+      <c r="K74" s="79" t="str">
         <f>'View holdings'!K37</f>
-        <v>-822451808.32000005</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L74" s="80" t="str">
         <f>'View holdings'!L37</f>
-        <v>GBP</v>
-      </c>
-      <c r="M74" s="72">
+        <v>CostPortfolioCcy Currency</v>
+      </c>
+      <c r="M74" s="72" t="e">
         <f t="shared" si="0"/>
-        <v>-831822953.54999995</v>
-      </c>
-      <c r="N74" s="81">
+        <v>#N/A</v>
+      </c>
+      <c r="N74" s="81" t="e">
         <f t="shared" si="1"/>
-        <v>-9.0210949909933807E-2</v>
-      </c>
-      <c r="O74" s="74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O74" s="74" t="e">
         <f t="shared" si="2"/>
-        <v>Walt Disney</v>
+        <v>#N/A</v>
       </c>
       <c r="P74" s="2"/>
     </row>
@@ -11759,47 +11839,47 @@
       </c>
       <c r="E75" s="29" t="str">
         <f>'View holdings'!E38</f>
-        <v>LUID_9SBVLHHA</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F75" s="29" t="str">
         <f>'View holdings'!F38</f>
-        <v>P</v>
-      </c>
-      <c r="G75" s="58">
+        <v>HoldingType</v>
+      </c>
+      <c r="G75" s="58" t="str">
         <f>'View holdings'!G38</f>
-        <v>-21470.588235294119</v>
-      </c>
-      <c r="H75" s="77">
+        <v>Units</v>
+      </c>
+      <c r="H75" s="77" t="str">
         <f>'View holdings'!H38</f>
-        <v>-21470.588235294119</v>
-      </c>
-      <c r="I75" s="77">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I75" s="77" t="str">
         <f>'View holdings'!I38</f>
-        <v>-14082558.82</v>
+        <v>Cost Amount</v>
       </c>
       <c r="J75" s="78" t="str">
         <f>'View holdings'!J38</f>
-        <v>GBP</v>
-      </c>
-      <c r="K75" s="79">
+        <v>Cost Currency</v>
+      </c>
+      <c r="K75" s="79" t="str">
         <f>'View holdings'!K38</f>
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L75" s="80" t="str">
         <f>'View holdings'!L38</f>
-        <v>GBP</v>
-      </c>
-      <c r="M75" s="72">
+        <v>CostPortfolioCcy Currency</v>
+      </c>
+      <c r="M75" s="72" t="e">
         <f t="shared" si="0"/>
-        <v>-831822953.54999995</v>
-      </c>
-      <c r="N75" s="81">
+        <v>#N/A</v>
+      </c>
+      <c r="N75" s="81" t="e">
         <f t="shared" si="1"/>
-        <v>-9.0210949909933807E-2</v>
-      </c>
-      <c r="O75" s="74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O75" s="74" t="e">
         <f t="shared" si="2"/>
-        <v>Walt Disney</v>
+        <v>#N/A</v>
       </c>
       <c r="P75" s="2"/>
     </row>
@@ -11811,47 +11891,47 @@
       </c>
       <c r="E76" s="29" t="str">
         <f>'View holdings'!E39</f>
-        <v>LUID_JFJASSYO</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F76" s="29" t="str">
         <f>'View holdings'!F39</f>
-        <v>P</v>
-      </c>
-      <c r="G76" s="58">
+        <v>HoldingType</v>
+      </c>
+      <c r="G76" s="58" t="str">
         <f>'View holdings'!G39</f>
-        <v>10859705.882352941</v>
-      </c>
-      <c r="H76" s="77">
+        <v>Units</v>
+      </c>
+      <c r="H76" s="77" t="str">
         <f>'View holdings'!H39</f>
-        <v>10859705.882352941</v>
-      </c>
-      <c r="I76" s="77">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I76" s="77" t="str">
         <f>'View holdings'!I39</f>
-        <v>1314567397.0599999</v>
+        <v>Cost Amount</v>
       </c>
       <c r="J76" s="78" t="str">
         <f>'View holdings'!J39</f>
-        <v>USD</v>
-      </c>
-      <c r="K76" s="79">
+        <v>Cost Currency</v>
+      </c>
+      <c r="K76" s="79" t="str">
         <f>'View holdings'!K39</f>
-        <v>1002226183.52</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L76" s="80" t="str">
         <f>'View holdings'!L39</f>
-        <v>GBP</v>
-      </c>
-      <c r="M76" s="72">
+        <v>CostPortfolioCcy Currency</v>
+      </c>
+      <c r="M76" s="72" t="e">
         <f t="shared" si="0"/>
-        <v>1052663160.9</v>
-      </c>
-      <c r="N76" s="81">
+        <v>#N/A</v>
+      </c>
+      <c r="N76" s="81" t="e">
         <f t="shared" si="1"/>
-        <v>0.11416100418329517</v>
-      </c>
-      <c r="O76" s="74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O76" s="74" t="e">
         <f t="shared" si="2"/>
-        <v>Microsoft</v>
+        <v>#N/A</v>
       </c>
       <c r="P76" s="2"/>
     </row>
@@ -11863,47 +11943,47 @@
       </c>
       <c r="E77" s="29" t="str">
         <f>'View holdings'!E40</f>
-        <v>LUID_HP2NME8I</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F77" s="29" t="str">
         <f>'View holdings'!F40</f>
-        <v>P</v>
-      </c>
-      <c r="G77" s="58">
+        <v>HoldingType</v>
+      </c>
+      <c r="G77" s="58" t="str">
         <f>'View holdings'!G40</f>
-        <v>730000</v>
-      </c>
-      <c r="H77" s="77">
+        <v>Units</v>
+      </c>
+      <c r="H77" s="77" t="str">
         <f>'View holdings'!H40</f>
-        <v>730000</v>
-      </c>
-      <c r="I77" s="77">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I77" s="77" t="str">
         <f>'View holdings'!I40</f>
-        <v>478807000</v>
+        <v>Cost Amount</v>
       </c>
       <c r="J77" s="78" t="str">
         <f>'View holdings'!J40</f>
-        <v>GBP</v>
-      </c>
-      <c r="K77" s="79">
+        <v>Cost Currency</v>
+      </c>
+      <c r="K77" s="79" t="str">
         <f>'View holdings'!K40</f>
-        <v>478807000</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L77" s="80" t="str">
         <f>'View holdings'!L40</f>
-        <v>GBP</v>
-      </c>
-      <c r="M77" s="72">
+        <v>CostPortfolioCcy Currency</v>
+      </c>
+      <c r="M77" s="72" t="e">
         <f t="shared" si="0"/>
-        <v>486545000</v>
-      </c>
-      <c r="N77" s="81">
+        <v>#N/A</v>
+      </c>
+      <c r="N77" s="81" t="e">
         <f t="shared" si="1"/>
-        <v>5.2765659370916193E-2</v>
-      </c>
-      <c r="O77" s="74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O77" s="74" t="e">
         <f t="shared" si="2"/>
-        <v>HSBC Holdings</v>
+        <v>#N/A</v>
       </c>
       <c r="P77" s="2"/>
     </row>
@@ -11915,47 +11995,47 @@
       </c>
       <c r="E78" s="29" t="str">
         <f>'View holdings'!E41</f>
-        <v>LUID_HP2NME8I</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="F78" s="29" t="str">
         <f>'View holdings'!F41</f>
-        <v>P</v>
-      </c>
-      <c r="G78" s="58">
+        <v>HoldingType</v>
+      </c>
+      <c r="G78" s="58" t="str">
         <f>'View holdings'!G41</f>
-        <v>-255882.35294117648</v>
-      </c>
-      <c r="H78" s="77">
+        <v>Units</v>
+      </c>
+      <c r="H78" s="77" t="str">
         <f>'View holdings'!H41</f>
-        <v>-255882.35294117648</v>
-      </c>
-      <c r="I78" s="77">
+        <v>SettledUnits</v>
+      </c>
+      <c r="I78" s="77" t="str">
         <f>'View holdings'!I41</f>
-        <v>-40557352.939999998</v>
+        <v>Cost Amount</v>
       </c>
       <c r="J78" s="78" t="str">
         <f>'View holdings'!J41</f>
-        <v>EUR</v>
-      </c>
-      <c r="K78" s="79">
+        <v>Cost Currency</v>
+      </c>
+      <c r="K78" s="79" t="str">
         <f>'View holdings'!K41</f>
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="L78" s="80" t="str">
         <f>'View holdings'!L41</f>
-        <v>GBP</v>
-      </c>
-      <c r="M78" s="72">
+        <v>CostPortfolioCcy Currency</v>
+      </c>
+      <c r="M78" s="72" t="e">
         <f t="shared" si="0"/>
-        <v>486545000</v>
-      </c>
-      <c r="N78" s="81">
+        <v>#N/A</v>
+      </c>
+      <c r="N78" s="81" t="e">
         <f t="shared" si="1"/>
-        <v>5.2765659370916193E-2</v>
-      </c>
-      <c r="O78" s="74" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="O78" s="74" t="e">
         <f t="shared" si="2"/>
-        <v>HSBC Holdings</v>
+        <v>#N/A</v>
       </c>
       <c r="P78" s="2"/>
     </row>
@@ -12019,9 +12099,7 @@
   </sheetPr>
   <dimension ref="B1:AJ110"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12816,34 +12894,34 @@
         <v>CancelDateTime</v>
       </c>
       <c r="Y33" s="10" t="str">
-        <v>SourcePortfolioScope</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="Z33" s="10" t="str">
-        <v>Net holding as a result of the transaction</v>
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA33" s="10" t="str">
-        <v>Original Transaction Date</v>
+        <v>RealisedMarket Amount</v>
       </c>
       <c r="AB33" s="10" t="str">
-        <v>SourcePortfolioId</v>
-      </c>
-      <c r="AC33" s="10" t="str">
-        <v>Original Settlement Date</v>
-      </c>
-      <c r="AD33" s="10" t="str">
-        <v>Exchange rate from the transaction currency to the portfolio currency.</v>
-      </c>
-      <c r="AE33" s="10" t="str">
-        <v>CostPortfolioCcy Amount</v>
-      </c>
-      <c r="AF33" s="10" t="str">
-        <v>RealisedTotal Amount</v>
-      </c>
-      <c r="AG33" s="10" t="str">
-        <v>RealisedMarket Amount</v>
-      </c>
-      <c r="AH33" s="10" t="str">
         <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC33" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD33" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE33" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF33" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG33" s="10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH33" s="10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI33" s="10"/>
       <c r="AJ33" s="2"/>
@@ -12855,94 +12933,94 @@
         <v>1</v>
       </c>
       <c r="E34" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F34" s="16" t="str">
-        <v>2019-01-01T00:00:00.0000000+00:00</v>
+        <v>TransactionId</v>
       </c>
       <c r="G34" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>Type</v>
       </c>
       <c r="H34" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Description</v>
       </c>
       <c r="I34" s="31" t="str">
-        <v>LusidInstrumentId:LUID_RVXW0J4Z</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J34" s="31" t="str">
-        <v>LUID_RVXW0J4Z</v>
-      </c>
-      <c r="K34" s="89">
-        <v>43466</v>
-      </c>
-      <c r="L34" s="84">
-        <v>43466</v>
-      </c>
-      <c r="M34" s="86">
-        <v>12000000</v>
-      </c>
-      <c r="N34" s="27">
-        <v>2390760000</v>
-      </c>
-      <c r="O34" s="61">
-        <v>199.23</v>
-      </c>
-      <c r="P34" s="86">
-        <v>2390760000</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K34" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L34" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M34" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N34" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O34" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P34" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q34" s="22" t="str">
-        <v>USD</v>
-      </c>
-      <c r="R34" s="16">
-        <v>1</v>
-      </c>
-      <c r="S34" s="88">
-        <v>0.76239999999999997</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R34" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S34" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T34" s="88" t="str">
-        <v>USD</v>
-      </c>
-      <c r="U34" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U34" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V34" s="88" t="str">
-        <v/>
-      </c>
-      <c r="W34" s="90">
-        <v>43671.434931284719</v>
-      </c>
-      <c r="X34" s="90">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="88">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="88">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W34" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X34" s="90" t="str">
+        <v>CancelDateTime</v>
+      </c>
+      <c r="Y34" s="88" t="str">
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z34" s="88" t="str">
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA34" s="88" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AB34" s="91">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="91" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD34" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF34" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="86">
-        <v>0</v>
+        <v>RealisedMarket Amount</v>
+      </c>
+      <c r="AB34" s="91" t="str">
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC34" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD34" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE34" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF34" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG34" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH34" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI34" s="88"/>
       <c r="AJ34" s="2"/>
@@ -12954,94 +13032,94 @@
         <v>2</v>
       </c>
       <c r="E35" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F35" s="15" t="str">
-        <v>2019-01-01T00:00:00.0000000+00:00</v>
+        <v>TransactionId</v>
       </c>
       <c r="G35" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>Type</v>
       </c>
       <c r="H35" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Description</v>
       </c>
       <c r="I35" s="31" t="str">
-        <v>LusidInstrumentId:LUID_UX4RG8N5</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J35" s="31" t="str">
-        <v>LUID_UX4RG8N5</v>
-      </c>
-      <c r="K35" s="89">
-        <v>43466</v>
-      </c>
-      <c r="L35" s="84">
-        <v>43466</v>
-      </c>
-      <c r="M35" s="86">
-        <v>8700000</v>
-      </c>
-      <c r="N35" s="27">
-        <v>1378950000</v>
-      </c>
-      <c r="O35" s="61">
-        <v>158.5</v>
-      </c>
-      <c r="P35" s="86">
-        <v>1378950000</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K35" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L35" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M35" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N35" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O35" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P35" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q35" s="16" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="R35" s="16">
-        <v>1</v>
-      </c>
-      <c r="S35" s="88">
-        <v>0.86215085378265299</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R35" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S35" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T35" s="88" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="U35" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U35" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V35" s="88" t="str">
-        <v/>
-      </c>
-      <c r="W35" s="90">
-        <v>43671.434931284719</v>
-      </c>
-      <c r="X35" s="90">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="88">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="88">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W35" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X35" s="90" t="str">
+        <v>CancelDateTime</v>
+      </c>
+      <c r="Y35" s="88" t="str">
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z35" s="88" t="str">
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA35" s="88" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AB35" s="91">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="91" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD35" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF35" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG35" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH35" s="86">
-        <v>0</v>
+        <v>RealisedMarket Amount</v>
+      </c>
+      <c r="AB35" s="91" t="str">
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC35" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD35" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE35" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF35" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG35" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH35" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI35" s="88"/>
       <c r="AJ35" s="2"/>
@@ -13053,94 +13131,94 @@
         <v>3</v>
       </c>
       <c r="E36" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F36" s="15" t="str">
-        <v>2019-01-01T00:00:00.0000000+00:00</v>
+        <v>TransactionId</v>
       </c>
       <c r="G36" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>Type</v>
       </c>
       <c r="H36" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Description</v>
       </c>
       <c r="I36" s="31" t="str">
-        <v>LusidInstrumentId:LUID_BVE0REZ5</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J36" s="31" t="str">
-        <v>LUID_BVE0REZ5</v>
-      </c>
-      <c r="K36" s="89">
-        <v>43466</v>
-      </c>
-      <c r="L36" s="84">
-        <v>43466</v>
-      </c>
-      <c r="M36" s="86">
-        <v>10530700</v>
-      </c>
-      <c r="N36" s="27">
-        <v>71935211700</v>
-      </c>
-      <c r="O36" s="61">
-        <v>6831</v>
-      </c>
-      <c r="P36" s="86">
-        <v>71935211700</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K36" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L36" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M36" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N36" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O36" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P36" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q36" s="16" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="R36" s="16">
-        <v>1</v>
-      </c>
-      <c r="S36" s="88">
-        <v>6.8065348998765053E-3</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R36" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S36" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T36" s="88" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="U36" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U36" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V36" s="88" t="str">
-        <v/>
-      </c>
-      <c r="W36" s="90">
-        <v>43671.434931284719</v>
-      </c>
-      <c r="X36" s="90">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="88">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="88">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W36" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X36" s="90" t="str">
+        <v>CancelDateTime</v>
+      </c>
+      <c r="Y36" s="88" t="str">
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z36" s="88" t="str">
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA36" s="88" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AB36" s="91">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="91" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD36" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG36" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="86">
-        <v>0</v>
+        <v>RealisedMarket Amount</v>
+      </c>
+      <c r="AB36" s="91" t="str">
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC36" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD36" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE36" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF36" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG36" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH36" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI36" s="88"/>
       <c r="AJ36" s="2"/>
@@ -13152,94 +13230,94 @@
         <v>4</v>
       </c>
       <c r="E37" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F37" s="15" t="str">
-        <v>2019-01-01T00:00:00.0000000+00:00</v>
+        <v>TransactionId</v>
       </c>
       <c r="G37" s="29" t="str">
-        <v>AdjustmentDecrease</v>
+        <v>Type</v>
       </c>
       <c r="H37" s="16" t="str">
-        <v>Decrease Adjustment</v>
+        <v>Description</v>
       </c>
       <c r="I37" s="31" t="str">
-        <v>LusidInstrumentId:LUID_9SBVLHHA</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J37" s="31" t="str">
-        <v>LUID_9SBVLHHA</v>
-      </c>
-      <c r="K37" s="89">
-        <v>43466</v>
-      </c>
-      <c r="L37" s="84">
-        <v>43466</v>
-      </c>
-      <c r="M37" s="86">
-        <v>8170000</v>
-      </c>
-      <c r="N37" s="27">
-        <v>1078766800</v>
-      </c>
-      <c r="O37" s="61">
-        <v>132.04</v>
-      </c>
-      <c r="P37" s="86">
-        <v>-1078766800</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K37" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L37" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M37" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N37" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O37" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P37" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q37" s="16" t="str">
-        <v>USD</v>
-      </c>
-      <c r="R37" s="16">
-        <v>1</v>
-      </c>
-      <c r="S37" s="88">
-        <v>0.76239999999999986</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R37" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S37" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T37" s="88" t="str">
-        <v>USD</v>
-      </c>
-      <c r="U37" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U37" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V37" s="88" t="str">
-        <v/>
-      </c>
-      <c r="W37" s="90">
-        <v>43671.434931284719</v>
-      </c>
-      <c r="X37" s="90">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="88">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="88">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W37" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X37" s="90" t="str">
+        <v>CancelDateTime</v>
+      </c>
+      <c r="Y37" s="88" t="str">
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z37" s="88" t="str">
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA37" s="88" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AB37" s="91">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="91" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD37" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="86">
-        <v>0</v>
+        <v>RealisedMarket Amount</v>
+      </c>
+      <c r="AB37" s="91" t="str">
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC37" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD37" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE37" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF37" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG37" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH37" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI37" s="88"/>
       <c r="AJ37" s="2"/>
@@ -13251,94 +13329,94 @@
         <v>5</v>
       </c>
       <c r="E38" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F38" s="15" t="str">
-        <v>2019-01-01T00:00:00.0000000+00:00</v>
+        <v>TransactionId</v>
       </c>
       <c r="G38" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>Type</v>
       </c>
       <c r="H38" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Description</v>
       </c>
       <c r="I38" s="31" t="str">
-        <v>LusidInstrumentId:LUID_JFJASSYO</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J38" s="31" t="str">
-        <v>LUID_JFJASSYO</v>
-      </c>
-      <c r="K38" s="89">
-        <v>43466</v>
-      </c>
-      <c r="L38" s="84">
-        <v>43466</v>
-      </c>
-      <c r="M38" s="86">
-        <v>11100000</v>
-      </c>
-      <c r="N38" s="27">
-        <v>1343655000</v>
-      </c>
-      <c r="O38" s="61">
-        <v>121.05</v>
-      </c>
-      <c r="P38" s="86">
-        <v>1343655000</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K38" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L38" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M38" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N38" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O38" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P38" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q38" s="16" t="str">
-        <v>USD</v>
-      </c>
-      <c r="R38" s="16">
-        <v>1</v>
-      </c>
-      <c r="S38" s="88">
-        <v>0.76239999999999997</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R38" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S38" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T38" s="88" t="str">
-        <v>USD</v>
-      </c>
-      <c r="U38" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U38" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V38" s="88" t="str">
-        <v/>
-      </c>
-      <c r="W38" s="90">
-        <v>43671.434931284719</v>
-      </c>
-      <c r="X38" s="90">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="88">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="88">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W38" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X38" s="90" t="str">
+        <v>CancelDateTime</v>
+      </c>
+      <c r="Y38" s="88" t="str">
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z38" s="88" t="str">
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA38" s="88" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AB38" s="91">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="91" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD38" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="86">
-        <v>0</v>
+        <v>RealisedMarket Amount</v>
+      </c>
+      <c r="AB38" s="91" t="str">
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC38" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD38" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE38" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF38" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG38" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH38" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI38" s="88"/>
       <c r="AJ38" s="2"/>
@@ -13350,94 +13428,94 @@
         <v>6</v>
       </c>
       <c r="E39" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F39" s="15" t="str">
-        <v>2019-01-01T00:00:00.0000000+00:00</v>
+        <v>TransactionId</v>
       </c>
       <c r="G39" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>Type</v>
       </c>
       <c r="H39" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Description</v>
       </c>
       <c r="I39" s="31" t="str">
-        <v>LusidInstrumentId:LUID_HP2NME8I</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J39" s="31" t="str">
-        <v>LUID_HP2NME8I</v>
-      </c>
-      <c r="K39" s="89">
-        <v>43466</v>
-      </c>
-      <c r="L39" s="84">
-        <v>43466</v>
-      </c>
-      <c r="M39" s="86">
-        <v>730000</v>
-      </c>
-      <c r="N39" s="27">
-        <v>478807000</v>
-      </c>
-      <c r="O39" s="61">
-        <v>655.9</v>
-      </c>
-      <c r="P39" s="86">
-        <v>478807000</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K39" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L39" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M39" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N39" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O39" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P39" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q39" s="16" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="R39" s="16">
-        <v>1</v>
-      </c>
-      <c r="S39" s="88">
-        <v>1</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R39" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S39" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T39" s="88" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="U39" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U39" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V39" s="88" t="str">
-        <v/>
-      </c>
-      <c r="W39" s="90">
-        <v>43671.434931284719</v>
-      </c>
-      <c r="X39" s="90">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="88">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="88">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W39" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X39" s="90" t="str">
+        <v>CancelDateTime</v>
+      </c>
+      <c r="Y39" s="88" t="str">
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z39" s="88" t="str">
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA39" s="88" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AB39" s="91">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="91" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD39" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="86">
-        <v>0</v>
+        <v>RealisedMarket Amount</v>
+      </c>
+      <c r="AB39" s="91" t="str">
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC39" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD39" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE39" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF39" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG39" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH39" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI39" s="88"/>
       <c r="AJ39" s="2"/>
@@ -13449,94 +13527,94 @@
         <v>7</v>
       </c>
       <c r="E40" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F40" s="15" t="str">
-        <v>2019-01-01T00:00:00.0000000+00:00</v>
+        <v>TransactionId</v>
       </c>
       <c r="G40" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>Type</v>
       </c>
       <c r="H40" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Description</v>
       </c>
       <c r="I40" s="31" t="str">
-        <v>LusidInstrumentId:LUID_XUE1ELEX</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J40" s="31" t="str">
-        <v>LUID_XUE1ELEX</v>
-      </c>
-      <c r="K40" s="89">
-        <v>43466</v>
-      </c>
-      <c r="L40" s="84">
-        <v>43466</v>
-      </c>
-      <c r="M40" s="86">
-        <v>2320000</v>
-      </c>
-      <c r="N40" s="27">
-        <v>1322168000</v>
-      </c>
-      <c r="O40" s="61">
-        <v>569.9</v>
-      </c>
-      <c r="P40" s="86">
-        <v>1322168000</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K40" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L40" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M40" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N40" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O40" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P40" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q40" s="16" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="R40" s="16">
-        <v>1</v>
-      </c>
-      <c r="S40" s="88">
-        <v>1</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R40" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S40" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T40" s="88" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="U40" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U40" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V40" s="88" t="str">
-        <v/>
-      </c>
-      <c r="W40" s="90">
-        <v>43671.434931284719</v>
-      </c>
-      <c r="X40" s="90">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="88">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="88">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W40" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X40" s="90" t="str">
+        <v>CancelDateTime</v>
+      </c>
+      <c r="Y40" s="88" t="str">
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z40" s="88" t="str">
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA40" s="88" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AB40" s="91">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="91" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD40" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE40" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="86">
-        <v>0</v>
+        <v>RealisedMarket Amount</v>
+      </c>
+      <c r="AB40" s="91" t="str">
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC40" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD40" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE40" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF40" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG40" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH40" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI40" s="88"/>
       <c r="AJ40" s="2"/>
@@ -13548,94 +13626,94 @@
         <v>8</v>
       </c>
       <c r="E41" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F41" s="15" t="str">
-        <v>2019-01-01T00:00:00.0000000+00:00</v>
+        <v>TransactionId</v>
       </c>
       <c r="G41" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>Type</v>
       </c>
       <c r="H41" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Description</v>
       </c>
       <c r="I41" s="31" t="str">
-        <v>LusidInstrumentId:LUID_0UK37N0H</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J41" s="31" t="str">
-        <v>LUID_0UK37N0H</v>
-      </c>
-      <c r="K41" s="89">
-        <v>43466</v>
-      </c>
-      <c r="L41" s="84">
-        <v>43466</v>
-      </c>
-      <c r="M41" s="86">
-        <v>8300000</v>
-      </c>
-      <c r="N41" s="27">
-        <v>98147500000</v>
-      </c>
-      <c r="O41" s="61">
-        <v>11825</v>
-      </c>
-      <c r="P41" s="86">
-        <v>98147500000</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K41" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L41" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M41" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N41" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O41" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P41" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q41" s="16" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="R41" s="16">
-        <v>1</v>
-      </c>
-      <c r="S41" s="88">
-        <v>6.8065348998765044E-3</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R41" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S41" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T41" s="88" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="U41" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U41" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V41" s="88" t="str">
-        <v/>
-      </c>
-      <c r="W41" s="90">
-        <v>43671.434931284719</v>
-      </c>
-      <c r="X41" s="90">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="88">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="88">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W41" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X41" s="90" t="str">
+        <v>CancelDateTime</v>
+      </c>
+      <c r="Y41" s="88" t="str">
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z41" s="88" t="str">
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA41" s="88" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AB41" s="91">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="91" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD41" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="86">
-        <v>0</v>
+        <v>RealisedMarket Amount</v>
+      </c>
+      <c r="AB41" s="91" t="str">
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC41" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD41" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE41" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF41" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG41" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH41" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI41" s="88"/>
       <c r="AJ41" s="2"/>
@@ -13647,94 +13725,94 @@
         <v>9</v>
       </c>
       <c r="E42" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F42" s="15" t="str">
-        <v>2019-01-01T00:00:00.0000000+00:00</v>
+        <v>TransactionId</v>
       </c>
       <c r="G42" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>Type</v>
       </c>
       <c r="H42" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Description</v>
       </c>
       <c r="I42" s="31" t="str">
-        <v>LusidInstrumentId:LUID_T2QB43BD</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J42" s="31" t="str">
-        <v>LUID_T2QB43BD</v>
-      </c>
-      <c r="K42" s="89">
-        <v>43466</v>
-      </c>
-      <c r="L42" s="84">
-        <v>43466</v>
-      </c>
-      <c r="M42" s="86">
-        <v>21000000</v>
-      </c>
-      <c r="N42" s="27">
-        <v>2308740000</v>
-      </c>
-      <c r="O42" s="61">
-        <v>109.94</v>
-      </c>
-      <c r="P42" s="86">
-        <v>2308740000</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K42" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L42" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M42" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N42" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O42" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P42" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q42" s="16" t="str">
-        <v>USD</v>
-      </c>
-      <c r="R42" s="16">
-        <v>1</v>
-      </c>
-      <c r="S42" s="88">
-        <v>0.76239999999999997</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R42" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S42" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T42" s="88" t="str">
-        <v>USD</v>
-      </c>
-      <c r="U42" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U42" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V42" s="88" t="str">
-        <v/>
-      </c>
-      <c r="W42" s="90">
-        <v>43671.434931284719</v>
-      </c>
-      <c r="X42" s="90">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="88">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="88">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W42" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X42" s="90" t="str">
+        <v>CancelDateTime</v>
+      </c>
+      <c r="Y42" s="88" t="str">
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z42" s="88" t="str">
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA42" s="88" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AB42" s="91">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="91" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD42" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="86">
-        <v>0</v>
+        <v>RealisedMarket Amount</v>
+      </c>
+      <c r="AB42" s="91" t="str">
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC42" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD42" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE42" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF42" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG42" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH42" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI42" s="88"/>
       <c r="AJ42" s="2"/>
@@ -13746,94 +13824,94 @@
         <v>10</v>
       </c>
       <c r="E43" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F43" s="15" t="str">
-        <v>2019-01-01T00:00:00.0000000+00:00</v>
+        <v>TransactionId</v>
       </c>
       <c r="G43" s="29" t="str">
-        <v>AdjustmentIncrease</v>
+        <v>Type</v>
       </c>
       <c r="H43" s="16" t="str">
-        <v>Increase Adjustment</v>
+        <v>Description</v>
       </c>
       <c r="I43" s="31" t="str">
-        <v>LusidInstrumentId:LUID_DDZQNCD6</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J43" s="31" t="str">
-        <v>LUID_DDZQNCD6</v>
-      </c>
-      <c r="K43" s="89">
-        <v>43466</v>
-      </c>
-      <c r="L43" s="84">
-        <v>43466</v>
-      </c>
-      <c r="M43" s="86">
-        <v>15500000</v>
-      </c>
-      <c r="N43" s="27">
-        <v>1218765000</v>
-      </c>
-      <c r="O43" s="61">
-        <v>78.63</v>
-      </c>
-      <c r="P43" s="86">
-        <v>1218765000</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K43" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L43" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M43" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N43" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O43" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P43" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q43" s="16" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="R43" s="16">
-        <v>1</v>
-      </c>
-      <c r="S43" s="88">
-        <v>0.86215085378265288</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R43" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S43" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T43" s="88" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="U43" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U43" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V43" s="88" t="str">
-        <v/>
-      </c>
-      <c r="W43" s="90">
-        <v>43671.434931284719</v>
-      </c>
-      <c r="X43" s="90">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="88">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="88">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W43" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X43" s="90" t="str">
+        <v>CancelDateTime</v>
+      </c>
+      <c r="Y43" s="88" t="str">
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z43" s="88" t="str">
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA43" s="88" t="str">
-        <v>2019-04-15T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AB43" s="91">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="91" t="str">
-        <v>2019-04-17T00:00:00.0000000+00:00</v>
-      </c>
-      <c r="AD43" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF43" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="86">
-        <v>0</v>
+        <v>RealisedMarket Amount</v>
+      </c>
+      <c r="AB43" s="91" t="str">
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC43" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD43" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE43" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF43" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG43" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH43" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI43" s="88"/>
       <c r="AJ43" s="2"/>
@@ -13845,94 +13923,94 @@
         <v>11</v>
       </c>
       <c r="E44" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F44" s="15" t="str">
-        <v>Global-Equity40</v>
+        <v>TransactionId</v>
       </c>
       <c r="G44" s="29" t="str">
-        <v>Buy</v>
+        <v>Type</v>
       </c>
       <c r="H44" s="16" t="str">
-        <v>Purchase</v>
+        <v>Description</v>
       </c>
       <c r="I44" s="31" t="str">
-        <v>Figi:BBG000B9XRY4</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J44" s="31" t="str">
-        <v>LUID_RVXW0J4Z</v>
-      </c>
-      <c r="K44" s="89">
-        <v>43570</v>
-      </c>
-      <c r="L44" s="84">
-        <v>43572</v>
-      </c>
-      <c r="M44" s="86">
-        <v>751</v>
-      </c>
-      <c r="N44" s="27">
-        <v>114215.06</v>
-      </c>
-      <c r="O44" s="61">
-        <v>199.23</v>
-      </c>
-      <c r="P44" s="86">
-        <v>149621.72999999998</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K44" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L44" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M44" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N44" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O44" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P44" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q44" s="16" t="str">
-        <v>USD</v>
-      </c>
-      <c r="R44" s="16">
-        <v>1.31</v>
-      </c>
-      <c r="S44" s="88">
-        <v>0</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R44" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S44" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T44" s="88" t="str">
-        <v>USD</v>
-      </c>
-      <c r="U44" s="88">
-        <v>0</v>
-      </c>
-      <c r="V44" s="88">
-        <v>0</v>
-      </c>
-      <c r="W44" s="90">
-        <v>43733.683261631944</v>
-      </c>
-      <c r="X44" s="90">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U44" s="88" t="str">
+        <v>CounterpartyId</v>
+      </c>
+      <c r="V44" s="88" t="str">
+        <v>Source</v>
+      </c>
+      <c r="W44" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X44" s="90" t="str">
+        <v>CancelDateTime</v>
       </c>
       <c r="Y44" s="88" t="str">
-        <v>Finbourne-Examples</v>
-      </c>
-      <c r="Z44" s="88">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="88">
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z44" s="88" t="str">
+        <v>RealisedTotal Amount</v>
+      </c>
+      <c r="AA44" s="88" t="str">
+        <v>RealisedMarket Amount</v>
       </c>
       <c r="AB44" s="91" t="str">
-        <v>77607da1-4705-4bf0-8cbb-febc36d83863</v>
-      </c>
-      <c r="AC44" s="91">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="86">
-        <v>0</v>
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC44" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD44" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE44" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF44" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG44" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH44" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI44" s="88"/>
       <c r="AJ44" s="2"/>
@@ -13944,94 +14022,94 @@
         <v>12</v>
       </c>
       <c r="E45" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F45" s="15" t="str">
-        <v>Global-Equity11</v>
+        <v>TransactionId</v>
       </c>
       <c r="G45" s="29" t="str">
-        <v>Buy</v>
+        <v>Type</v>
       </c>
       <c r="H45" s="16" t="str">
-        <v>Purchase</v>
+        <v>Description</v>
       </c>
       <c r="I45" s="31" t="str">
-        <v>Figi:BBG000DMBXR2</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J45" s="31" t="str">
-        <v>LUID_T2QB43BD</v>
-      </c>
-      <c r="K45" s="89">
-        <v>43580</v>
-      </c>
-      <c r="L45" s="84">
-        <v>43582</v>
-      </c>
-      <c r="M45" s="86">
-        <v>352941.17647058825</v>
-      </c>
-      <c r="N45" s="27">
-        <v>70316470.590000004</v>
-      </c>
-      <c r="O45" s="61">
-        <v>113.61</v>
-      </c>
-      <c r="P45" s="86">
-        <v>70316470.588235289</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K45" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L45" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M45" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N45" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O45" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P45" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q45" s="16" t="str">
-        <v>USD</v>
-      </c>
-      <c r="R45" s="16">
-        <v>1</v>
-      </c>
-      <c r="S45" s="88">
-        <v>0</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R45" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S45" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T45" s="88" t="str">
-        <v>USD</v>
-      </c>
-      <c r="U45" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U45" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V45" s="88" t="str">
-        <v>Client</v>
-      </c>
-      <c r="W45" s="90">
-        <v>43671.434946701389</v>
-      </c>
-      <c r="X45" s="90">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W45" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X45" s="90" t="str">
+        <v>CancelDateTime</v>
       </c>
       <c r="Y45" s="88" t="str">
-        <v>Finbourne-Examples</v>
-      </c>
-      <c r="Z45" s="88">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="88">
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z45" s="88" t="str">
+        <v>RealisedTotal Amount</v>
+      </c>
+      <c r="AA45" s="88" t="str">
+        <v>RealisedMarket Amount</v>
       </c>
       <c r="AB45" s="91" t="str">
-        <v>77607da1-4705-4bf0-8cbb-febc36d83863</v>
-      </c>
-      <c r="AC45" s="91">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="86">
-        <v>0</v>
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC45" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD45" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE45" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF45" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG45" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH45" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI45" s="88"/>
       <c r="AJ45" s="2"/>
@@ -14043,94 +14121,94 @@
         <v>13</v>
       </c>
       <c r="E46" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F46" s="15" t="str">
-        <v>Global-Equity12</v>
+        <v>TransactionId</v>
       </c>
       <c r="G46" s="29" t="str">
-        <v>Buy</v>
+        <v>Type</v>
       </c>
       <c r="H46" s="16" t="str">
-        <v>Purchase</v>
+        <v>Description</v>
       </c>
       <c r="I46" s="31" t="str">
-        <v>Figi:BBG000C059M6</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J46" s="31" t="str">
-        <v>LUID_XUE1ELEX</v>
-      </c>
-      <c r="K46" s="89">
-        <v>43581</v>
-      </c>
-      <c r="L46" s="84">
-        <v>43583</v>
-      </c>
-      <c r="M46" s="86">
-        <v>617647.0588235294</v>
-      </c>
-      <c r="N46" s="27">
-        <v>67904117.650000006</v>
-      </c>
-      <c r="O46" s="61">
-        <v>556.1</v>
-      </c>
-      <c r="P46" s="86">
-        <v>67904117.64705883</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K46" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L46" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M46" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N46" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O46" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P46" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q46" s="16" t="str">
-        <v>USD</v>
-      </c>
-      <c r="R46" s="16">
-        <v>1</v>
-      </c>
-      <c r="S46" s="88">
-        <v>0</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R46" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S46" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T46" s="88" t="str">
-        <v>USD</v>
-      </c>
-      <c r="U46" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U46" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V46" s="88" t="str">
-        <v>Client</v>
-      </c>
-      <c r="W46" s="90">
-        <v>43671.434946701389</v>
-      </c>
-      <c r="X46" s="90">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W46" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X46" s="90" t="str">
+        <v>CancelDateTime</v>
       </c>
       <c r="Y46" s="88" t="str">
-        <v>Finbourne-Examples</v>
-      </c>
-      <c r="Z46" s="88">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="88">
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z46" s="88" t="str">
+        <v>RealisedTotal Amount</v>
+      </c>
+      <c r="AA46" s="88" t="str">
+        <v>RealisedMarket Amount</v>
       </c>
       <c r="AB46" s="91" t="str">
-        <v>77607da1-4705-4bf0-8cbb-febc36d83863</v>
-      </c>
-      <c r="AC46" s="91">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="86">
-        <v>0</v>
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC46" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD46" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE46" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF46" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG46" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH46" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI46" s="88"/>
       <c r="AJ46" s="2"/>
@@ -14142,94 +14220,94 @@
         <v>14</v>
       </c>
       <c r="E47" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F47" s="15" t="str">
-        <v>Global-Equity13</v>
+        <v>TransactionId</v>
       </c>
       <c r="G47" s="29" t="str">
-        <v>Buy</v>
+        <v>Type</v>
       </c>
       <c r="H47" s="16" t="str">
-        <v>Purchase</v>
+        <v>Description</v>
       </c>
       <c r="I47" s="31" t="str">
-        <v>Figi:BBG00DQ4YZ36</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J47" s="31" t="str">
-        <v>LUID_DDZQNCD6</v>
-      </c>
-      <c r="K47" s="89">
-        <v>43581</v>
-      </c>
-      <c r="L47" s="84">
-        <v>43583</v>
-      </c>
-      <c r="M47" s="86">
-        <v>68235.294117647063</v>
-      </c>
-      <c r="N47" s="27">
-        <v>38887294.119999997</v>
-      </c>
-      <c r="O47" s="61">
-        <v>78.28</v>
-      </c>
-      <c r="P47" s="86">
-        <v>38887294.117647059</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K47" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L47" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M47" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N47" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O47" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P47" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q47" s="16" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="R47" s="16">
-        <v>1</v>
-      </c>
-      <c r="S47" s="88">
-        <v>0</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R47" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S47" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T47" s="88" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="U47" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U47" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V47" s="88" t="str">
-        <v>Client</v>
-      </c>
-      <c r="W47" s="90">
-        <v>43671.434946701389</v>
-      </c>
-      <c r="X47" s="90">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W47" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X47" s="90" t="str">
+        <v>CancelDateTime</v>
       </c>
       <c r="Y47" s="88" t="str">
-        <v>Finbourne-Examples</v>
-      </c>
-      <c r="Z47" s="88">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="88">
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z47" s="88" t="str">
+        <v>RealisedTotal Amount</v>
+      </c>
+      <c r="AA47" s="88" t="str">
+        <v>RealisedMarket Amount</v>
       </c>
       <c r="AB47" s="91" t="str">
-        <v>77607da1-4705-4bf0-8cbb-febc36d83863</v>
-      </c>
-      <c r="AC47" s="91">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="86">
-        <v>0</v>
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC47" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD47" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE47" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF47" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG47" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH47" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI47" s="88"/>
       <c r="AJ47" s="2"/>
@@ -14241,94 +14319,94 @@
         <v>15</v>
       </c>
       <c r="E48" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F48" s="15" t="str">
-        <v>Global-Equity14</v>
+        <v>TransactionId</v>
       </c>
       <c r="G48" s="29" t="str">
-        <v>Buy</v>
+        <v>Type</v>
       </c>
       <c r="H48" s="16" t="str">
-        <v>Purchase</v>
+        <v>Description</v>
       </c>
       <c r="I48" s="31" t="str">
-        <v>Figi:BBG000BCM915</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J48" s="31" t="str">
-        <v>LUID_BVE0REZ5</v>
-      </c>
-      <c r="K48" s="89">
-        <v>43581</v>
-      </c>
-      <c r="L48" s="84">
-        <v>43583</v>
-      </c>
-      <c r="M48" s="86">
-        <v>455882.35294117645</v>
-      </c>
-      <c r="N48" s="27">
-        <v>35846029.409999996</v>
-      </c>
-      <c r="O48" s="61">
-        <v>6905</v>
-      </c>
-      <c r="P48" s="86">
-        <v>35846029.411764704</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K48" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L48" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M48" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N48" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O48" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P48" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q48" s="16" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="R48" s="16">
-        <v>1</v>
-      </c>
-      <c r="S48" s="88">
-        <v>0</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R48" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S48" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T48" s="88" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="U48" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U48" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V48" s="88" t="str">
-        <v>Client</v>
-      </c>
-      <c r="W48" s="90">
-        <v>43671.434946701389</v>
-      </c>
-      <c r="X48" s="90">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W48" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X48" s="90" t="str">
+        <v>CancelDateTime</v>
       </c>
       <c r="Y48" s="88" t="str">
-        <v>Finbourne-Examples</v>
-      </c>
-      <c r="Z48" s="88">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="88">
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z48" s="88" t="str">
+        <v>RealisedTotal Amount</v>
+      </c>
+      <c r="AA48" s="88" t="str">
+        <v>RealisedMarket Amount</v>
       </c>
       <c r="AB48" s="91" t="str">
-        <v>77607da1-4705-4bf0-8cbb-febc36d83863</v>
-      </c>
-      <c r="AC48" s="91">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="86">
-        <v>0</v>
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC48" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD48" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE48" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF48" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG48" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH48" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI48" s="88"/>
       <c r="AJ48" s="2"/>
@@ -14340,94 +14418,94 @@
         <v>16</v>
       </c>
       <c r="E49" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F49" s="15" t="str">
-        <v>Global-Equity15</v>
+        <v>TransactionId</v>
       </c>
       <c r="G49" s="29" t="str">
-        <v>Sell</v>
+        <v>Type</v>
       </c>
       <c r="H49" s="16" t="str">
-        <v>Sale</v>
+        <v>Description</v>
       </c>
       <c r="I49" s="31" t="str">
-        <v>Figi:BBG000BCH458</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J49" s="31" t="str">
-        <v>LUID_UX4RG8N5</v>
-      </c>
-      <c r="K49" s="89">
-        <v>43584</v>
-      </c>
-      <c r="L49" s="84">
-        <v>43586</v>
-      </c>
-      <c r="M49" s="86">
-        <v>309726.4705882353</v>
-      </c>
-      <c r="N49" s="27">
-        <v>2115741521</v>
-      </c>
-      <c r="O49" s="61">
-        <v>160.80000000000001</v>
-      </c>
-      <c r="P49" s="86">
-        <v>2115741520.5882354</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K49" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L49" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M49" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N49" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O49" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P49" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q49" s="16" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="R49" s="16">
-        <v>1</v>
-      </c>
-      <c r="S49" s="88">
-        <v>0</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R49" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S49" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T49" s="88" t="str">
-        <v>JPY</v>
-      </c>
-      <c r="U49" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U49" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V49" s="88" t="str">
-        <v>Client</v>
-      </c>
-      <c r="W49" s="90">
-        <v>43671.434946701389</v>
-      </c>
-      <c r="X49" s="90">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W49" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X49" s="90" t="str">
+        <v>CancelDateTime</v>
       </c>
       <c r="Y49" s="88" t="str">
-        <v>Finbourne-Examples</v>
-      </c>
-      <c r="Z49" s="88">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="88">
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z49" s="88" t="str">
+        <v>RealisedTotal Amount</v>
+      </c>
+      <c r="AA49" s="88" t="str">
+        <v>RealisedMarket Amount</v>
       </c>
       <c r="AB49" s="91" t="str">
-        <v>77607da1-4705-4bf0-8cbb-febc36d83863</v>
-      </c>
-      <c r="AC49" s="91">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="86">
-        <v>0</v>
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC49" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD49" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE49" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF49" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG49" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH49" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI49" s="88"/>
       <c r="AJ49" s="2"/>
@@ -14439,94 +14517,94 @@
         <v>17</v>
       </c>
       <c r="E50" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F50" s="15" t="str">
-        <v>Global-Equity16</v>
+        <v>TransactionId</v>
       </c>
       <c r="G50" s="29" t="str">
-        <v>Sell</v>
+        <v>Type</v>
       </c>
       <c r="H50" s="16" t="str">
-        <v>Sale</v>
+        <v>Description</v>
       </c>
       <c r="I50" s="31" t="str">
-        <v>Figi:BBG000BS1MT4</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J50" s="31" t="str">
-        <v>LUID_HP2NME8I</v>
-      </c>
-      <c r="K50" s="89">
-        <v>43585</v>
-      </c>
-      <c r="L50" s="84">
-        <v>43587</v>
-      </c>
-      <c r="M50" s="86">
-        <v>255882.35294117648</v>
-      </c>
-      <c r="N50" s="27">
-        <v>40557352.939999998</v>
-      </c>
-      <c r="O50" s="61">
-        <v>667.1</v>
-      </c>
-      <c r="P50" s="86">
-        <v>40557352.941176474</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K50" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L50" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M50" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N50" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O50" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P50" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q50" s="16" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="R50" s="16">
-        <v>1</v>
-      </c>
-      <c r="S50" s="88">
-        <v>0</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R50" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S50" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T50" s="88" t="str">
-        <v>EUR</v>
-      </c>
-      <c r="U50" s="88">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U50" s="88" t="str">
+        <v>CounterpartyId</v>
       </c>
       <c r="V50" s="88" t="str">
-        <v>Client</v>
-      </c>
-      <c r="W50" s="90">
-        <v>43671.434946701389</v>
-      </c>
-      <c r="X50" s="90">
-        <v>0</v>
+        <v>Source</v>
+      </c>
+      <c r="W50" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X50" s="90" t="str">
+        <v>CancelDateTime</v>
       </c>
       <c r="Y50" s="88" t="str">
-        <v>Finbourne-Examples</v>
-      </c>
-      <c r="Z50" s="88">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="88">
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z50" s="88" t="str">
+        <v>RealisedTotal Amount</v>
+      </c>
+      <c r="AA50" s="88" t="str">
+        <v>RealisedMarket Amount</v>
       </c>
       <c r="AB50" s="91" t="str">
-        <v>77607da1-4705-4bf0-8cbb-febc36d83863</v>
-      </c>
-      <c r="AC50" s="91">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE50" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF50" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH50" s="86">
-        <v>0</v>
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC50" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD50" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE50" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF50" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG50" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH50" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI50" s="88"/>
       <c r="AJ50" s="2"/>
@@ -14538,94 +14616,94 @@
         <v>18</v>
       </c>
       <c r="E51" s="15" t="str">
-        <v>Active</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F51" s="15" t="str">
-        <v>Global-Equity41</v>
+        <v>TransactionId</v>
       </c>
       <c r="G51" s="29" t="str">
-        <v>Buy</v>
+        <v>Type</v>
       </c>
       <c r="H51" s="16" t="str">
-        <v>Purchase</v>
+        <v>Description</v>
       </c>
       <c r="I51" s="31" t="str">
-        <v>Figi:BBG000B9XRY4</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J51" s="31" t="str">
-        <v>LUID_RVXW0J4Z</v>
-      </c>
-      <c r="K51" s="89">
-        <v>43585</v>
-      </c>
-      <c r="L51" s="84">
-        <v>43587</v>
-      </c>
-      <c r="M51" s="86">
-        <v>0</v>
-      </c>
-      <c r="N51" s="27">
-        <v>0</v>
-      </c>
-      <c r="O51" s="61">
-        <v>199.23</v>
-      </c>
-      <c r="P51" s="86">
-        <v>0</v>
+        <v>InstrumentUid</v>
+      </c>
+      <c r="K51" s="89" t="str">
+        <v>TransactionDate</v>
+      </c>
+      <c r="L51" s="84" t="str">
+        <v>SettlementDate</v>
+      </c>
+      <c r="M51" s="86" t="str">
+        <v>Units</v>
+      </c>
+      <c r="N51" s="27" t="str">
+        <v>TransactionAmount</v>
+      </c>
+      <c r="O51" s="61" t="str">
+        <v>TransactionPrice</v>
+      </c>
+      <c r="P51" s="86" t="str">
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q51" s="16" t="str">
-        <v>USD</v>
-      </c>
-      <c r="R51" s="16">
-        <v>1.31</v>
-      </c>
-      <c r="S51" s="88">
-        <v>0</v>
+        <v>TotalConsideration Currency</v>
+      </c>
+      <c r="R51" s="16" t="str">
+        <v>ExchangeRate</v>
+      </c>
+      <c r="S51" s="88" t="str">
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T51" s="88" t="str">
-        <v>USD</v>
-      </c>
-      <c r="U51" s="88">
-        <v>0</v>
-      </c>
-      <c r="V51" s="88">
-        <v>0</v>
-      </c>
-      <c r="W51" s="90">
-        <v>43733.683261631944</v>
-      </c>
-      <c r="X51" s="90">
-        <v>0</v>
+        <v>TransactionCurrency</v>
+      </c>
+      <c r="U51" s="88" t="str">
+        <v>CounterpartyId</v>
+      </c>
+      <c r="V51" s="88" t="str">
+        <v>Source</v>
+      </c>
+      <c r="W51" s="90" t="str">
+        <v>EntryDateTime</v>
+      </c>
+      <c r="X51" s="90" t="str">
+        <v>CancelDateTime</v>
       </c>
       <c r="Y51" s="88" t="str">
-        <v>Finbourne-Examples</v>
-      </c>
-      <c r="Z51" s="88">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="88">
-        <v>0</v>
+        <v>CostPortfolioCcy Amount</v>
+      </c>
+      <c r="Z51" s="88" t="str">
+        <v>RealisedTotal Amount</v>
+      </c>
+      <c r="AA51" s="88" t="str">
+        <v>RealisedMarket Amount</v>
       </c>
       <c r="AB51" s="91" t="str">
-        <v>77607da1-4705-4bf0-8cbb-febc36d83863</v>
-      </c>
-      <c r="AC51" s="91">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="86">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="86">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="86">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="86">
-        <v>0</v>
-      </c>
-      <c r="AH51" s="86">
-        <v>0</v>
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC51" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD51" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE51" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF51" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG51" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH51" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI51" s="88"/>
       <c r="AJ51" s="2"/>
@@ -14637,94 +14715,94 @@
         <v>19</v>
       </c>
       <c r="E52" s="15" t="str">
-        <v>[More...]</v>
+        <v>TransactionStatus</v>
       </c>
       <c r="F52" s="15" t="str">
-        <v>[More...]</v>
+        <v>TransactionId</v>
       </c>
       <c r="G52" s="29" t="str">
-        <v>[More...]</v>
+        <v>Type</v>
       </c>
       <c r="H52" s="88" t="str">
-        <v>[More...]</v>
+        <v>Description</v>
       </c>
       <c r="I52" s="31" t="str">
-        <v>[More...]</v>
+        <v>InstrumentIdentifiers</v>
       </c>
       <c r="J52" s="31" t="str">
-        <v>[More...]</v>
+        <v>InstrumentUid</v>
       </c>
       <c r="K52" s="89" t="str">
-        <v>[More...]</v>
+        <v>TransactionDate</v>
       </c>
       <c r="L52" s="84" t="str">
-        <v>[More...]</v>
+        <v>SettlementDate</v>
       </c>
       <c r="M52" s="86" t="str">
-        <v>[More...]</v>
+        <v>Units</v>
       </c>
       <c r="N52" s="27" t="str">
-        <v>[More...]</v>
+        <v>TransactionAmount</v>
       </c>
       <c r="O52" s="61" t="str">
-        <v>[More...]</v>
+        <v>TransactionPrice</v>
       </c>
       <c r="P52" s="86" t="str">
-        <v>[More...]</v>
+        <v>TotalConsideration Amount</v>
       </c>
       <c r="Q52" s="88" t="str">
-        <v>[More...]</v>
+        <v>TotalConsideration Currency</v>
       </c>
       <c r="R52" s="88" t="str">
-        <v>[More...]</v>
+        <v>ExchangeRate</v>
       </c>
       <c r="S52" s="88" t="str">
-        <v>[More...]</v>
+        <v>TransactionToPortfolioRate</v>
       </c>
       <c r="T52" s="88" t="str">
-        <v>[More...]</v>
+        <v>TransactionCurrency</v>
       </c>
       <c r="U52" s="88" t="str">
-        <v>[More...]</v>
+        <v>CounterpartyId</v>
       </c>
       <c r="V52" s="88" t="str">
-        <v>[More...]</v>
+        <v>Source</v>
       </c>
       <c r="W52" s="90" t="str">
-        <v>[More...]</v>
+        <v>EntryDateTime</v>
       </c>
       <c r="X52" s="90" t="str">
-        <v>[More...]</v>
+        <v>CancelDateTime</v>
       </c>
       <c r="Y52" s="88" t="str">
-        <v>[More...]</v>
+        <v>CostPortfolioCcy Amount</v>
       </c>
       <c r="Z52" s="88" t="str">
-        <v>[More...]</v>
+        <v>RealisedTotal Amount</v>
       </c>
       <c r="AA52" s="88" t="str">
-        <v>[More...]</v>
+        <v>RealisedMarket Amount</v>
       </c>
       <c r="AB52" s="91" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="AC52" s="91" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="AD52" s="86" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="AE52" s="86" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="AF52" s="86" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="AG52" s="86" t="str">
-        <v>[More...]</v>
-      </c>
-      <c r="AH52" s="86" t="str">
-        <v>[More...]</v>
+        <v>RealisedCurrency Amount</v>
+      </c>
+      <c r="AC52" s="91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG52" s="86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH52" s="86" t="e">
+        <v>#N/A</v>
       </c>
       <c r="AI52" s="88"/>
       <c r="AJ52" s="2"/>
@@ -15194,9 +15272,7 @@
   </sheetPr>
   <dimension ref="B1:S54"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15627,7 +15703,7 @@
       </c>
       <c r="F27" s="92">
         <f ca="1">NOW()-1/24</f>
-        <v>43733.684471180561</v>
+        <v>43735.33495300926</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -15709,7 +15785,7 @@
       </c>
       <c r="F31" s="92">
         <f ca="1">F27-2/1440</f>
-        <v>43733.683082291675</v>
+        <v>43735.333564120374</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -16430,9 +16506,7 @@
   </sheetPr>
   <dimension ref="B1:R32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17228,9 +17302,7 @@
   </sheetPr>
   <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18015,15 +18087,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F4F0FA1AC8B142BA5BFAEE01329AF1" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="51d44e6750016a81140edd9302933050">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7f1325bc-d786-4e92-924e-74ffe34b2b40" xmlns:ns3="655d3dbc-e9a1-4c85-8bc4-391e75a6cf80" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fbbf5b69800df541767d824f3fbf5177" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18249,6 +18312,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -18260,14 +18332,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EDF347-3168-4BEB-9A6E-9322773C07F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18283,6 +18347,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{806B5E61-CB82-4E98-BB90-ED4847D7777A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
